--- a/working_xlsx.xlsx
+++ b/working_xlsx.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1E96E17E-ED0F-491E-A39B-5BE984B9430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663C38EC-3769-4A5E-ADFB-E01717969ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-690" windowWidth="29040" windowHeight="16440" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
   </bookViews>
   <sheets>
     <sheet name="working_xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="80">
   <si>
     <t>working_1_length</t>
   </si>
@@ -254,6 +267,12 @@
   </si>
   <si>
     <t>m8</t>
+  </si>
+  <si>
+    <t>screw_countersunk</t>
+  </si>
+  <si>
+    <t>screw_socket_cap</t>
   </si>
 </sst>
 </file>
@@ -1045,23 +1064,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}" name="Table1" displayName="Table1" ref="A1:N1048561" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}" name="Table1" displayName="Table1" ref="A1:N1048561" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N1048561" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N160">
+    <sortCondition ref="D2:D160"/>
+  </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{81BE6127-1FAC-43B6-B435-E83C50450D0E}" name="working_1_length" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{AD31165A-B9BC-43B1-A178-60348134D26A}" name="working_2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{8AA0B9DF-F3F3-4C28-A334-01760066E8A8}" name="working_3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{5E4082F3-AD77-4E7C-A3F3-4CD8F7057670}" name="oomp_id" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{098FFFE0-FE9E-4655-89EA-FF2B51360897}" name="part_number_distributor_orbital_fasteners" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{30B64515-6334-4244-82BF-4B5965586509}" name="part_number_manufacturer_metalmate" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{39C3AE81-4AC3-41B0-AD8A-25243F651F64}" name="distributor_current" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{12AA45DA-70CF-4FE6-A3E4-679540A49DE8}" name="quantity_current" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{5E489A5F-A3EA-43A1-871A-901CDE892CB9}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{491B2930-0BA2-4856-89B6-B4268B24D34F}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{ABEC4A19-636B-46C5-8B57-D656FDE2708B}" name="project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{96ACED9B-D966-4A24-9746-F7A2B39A9464}" name="tray_capacity" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{9CB7EDF0-0823-414A-92FB-48268C90FEA7}" name="weight" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{55D16526-5017-459C-AEF4-09897FF0EEE8}" name="weight_10" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{81BE6127-1FAC-43B6-B435-E83C50450D0E}" name="working_1_length" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AD31165A-B9BC-43B1-A178-60348134D26A}" name="working_2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{8AA0B9DF-F3F3-4C28-A334-01760066E8A8}" name="working_3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5E4082F3-AD77-4E7C-A3F3-4CD8F7057670}" name="oomp_id" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{098FFFE0-FE9E-4655-89EA-FF2B51360897}" name="part_number_distributor_orbital_fasteners" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{30B64515-6334-4244-82BF-4B5965586509}" name="part_number_manufacturer_metalmate" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{39C3AE81-4AC3-41B0-AD8A-25243F651F64}" name="distributor_current" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{12AA45DA-70CF-4FE6-A3E4-679540A49DE8}" name="quantity_current" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{5E489A5F-A3EA-43A1-871A-901CDE892CB9}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{491B2930-0BA2-4856-89B6-B4268B24D34F}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{ABEC4A19-636B-46C5-8B57-D656FDE2708B}" name="project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{96ACED9B-D966-4A24-9746-F7A2B39A9464}" name="tray_capacity" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{9CB7EDF0-0823-414A-92FB-48268C90FEA7}" name="weight" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{55D16526-5017-459C-AEF4-09897FF0EEE8}" name="weight_10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1384,15 +1406,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162B66-111D-4E55-92AB-8A3902FD99ED}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="79.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
@@ -1447,55 +1471,49 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
-        <v>1901000</v>
+        <v>1771000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="1">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J2" s="1">
-        <v>53.7</v>
+        <v>79.666666669999998</v>
       </c>
       <c r="K2" s="1">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1">
-        <v>0.35799999999999998</v>
+        <v>0.31866666700000001</v>
       </c>
       <c r="N2" s="1">
-        <v>3.58</v>
+        <v>3.1866666669999999</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>1901010</v>
+        <v>1901020</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1504,33 +1522,33 @@
         <v>200</v>
       </c>
       <c r="I3" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J3" s="1">
-        <v>53.4</v>
+        <v>57.64</v>
       </c>
       <c r="K3" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>0.44500000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>4.45</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>1901020</v>
+        <v>1901030</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
@@ -1539,33 +1557,33 @@
         <v>200</v>
       </c>
       <c r="I4" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1">
-        <v>57.64</v>
+        <v>54.72</v>
       </c>
       <c r="K4" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>5.24</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
-        <v>1901030</v>
+        <v>1901040</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -1574,33 +1592,33 @@
         <v>200</v>
       </c>
       <c r="I5" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1">
-        <v>54.72</v>
+        <v>53.76</v>
       </c>
       <c r="K5" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>6.08</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>1901040</v>
+        <v>1901050</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
@@ -1609,33 +1627,33 @@
         <v>200</v>
       </c>
       <c r="I6" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1">
-        <v>53.76</v>
+        <v>46.75</v>
       </c>
       <c r="K6" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1">
-        <v>0.76800000000000002</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>7.68</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
-        <v>1901050</v>
+        <v>1901051</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -1644,33 +1662,33 @@
         <v>200</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1">
-        <v>46.75</v>
+        <v>46.76</v>
       </c>
       <c r="K7" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1">
-        <v>0.93500000000000005</v>
+        <v>1.169</v>
       </c>
       <c r="N7" s="1">
-        <v>9.35</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>1901051</v>
+        <v>1901052</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -1678,34 +1696,19 @@
       <c r="H8" s="1">
         <v>200</v>
       </c>
-      <c r="I8" s="1">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1">
-        <v>46.76</v>
-      </c>
-      <c r="K8" s="1">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.169</v>
-      </c>
-      <c r="N8" s="1">
-        <v>11.69</v>
-      </c>
     </row>
     <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="1">
-        <v>1901052</v>
+        <v>1901054</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
@@ -1716,16 +1719,19 @@
     </row>
     <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>1901054</v>
+        <v>1901000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -1733,16 +1739,34 @@
       <c r="H10" s="1">
         <v>200</v>
       </c>
+      <c r="I10" s="1">
+        <v>150</v>
+      </c>
+      <c r="J10" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1901010</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -1750,2023 +1774,3093 @@
       <c r="H11" s="1">
         <v>200</v>
       </c>
+      <c r="I11" s="1">
+        <v>120</v>
+      </c>
+      <c r="J11" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>60</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>"hardware_" &amp; B12 &amp; "_" &amp; C12 &amp; "_black_" &amp; A12 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_10_mm_length_hex_head</v>
       </c>
       <c r="E12" s="1">
-        <v>1890620</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
+        <v>1901070</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450010</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>"hardware_" &amp; B13 &amp; "_" &amp; C13 &amp; "_black_" &amp; A13 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_12_mm_length_hex_head</v>
       </c>
       <c r="E13" s="1">
-        <v>1891000</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
-        <v>200</v>
+        <v>1901080</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450012</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>"hardware_" &amp; B14 &amp; "_" &amp; C14 &amp; "_black_" &amp; A14 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_16_mm_length_hex_head</v>
       </c>
       <c r="E14" s="1">
-        <v>1891010</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
+        <v>1901090</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450016</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>"hardware_" &amp; B15 &amp; "_" &amp; C15 &amp; "_black_" &amp; A15 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_20_mm_length_hex_head</v>
       </c>
       <c r="E15" s="1">
-        <v>1891020</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
+        <v>1901100</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450020</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>"hardware_" &amp; B16 &amp; "_" &amp; C16 &amp; "_black_" &amp; A16 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_25_mm_length_hex_head</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1901110</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>"hardware_" &amp; B17 &amp; "_" &amp; C17 &amp; "_black_" &amp; A17 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_30_mm_length_hex_head</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1901120</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>"hardware_" &amp; B18 &amp; "_" &amp; C18 &amp; "_black_" &amp; A18 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1901122</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>"hardware_" &amp; B19 &amp; "_" &amp; C19 &amp; "_black_" &amp; A19 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1901124</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>"hardware_" &amp; B20 &amp; "_" &amp; C20 &amp; "_black_" &amp; A20 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m4_black_6_mm_length_hex_head</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1901055</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>"1151M45000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M450006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>"hardware_" &amp; B21 &amp; "_" &amp; C21 &amp; "_black_" &amp; A21 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_10_mm_length_hex_head</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1901140</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_black_" &amp; A22 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_12_mm_length_hex_head</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1901150</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>"hardware_" &amp; B23 &amp; "_" &amp; C23 &amp; "_black_" &amp; A23 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_16_mm_length_hex_head</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1901160</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>"hardware_" &amp; B24 &amp; "_" &amp; C24 &amp; "_black_" &amp; A24 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_20_mm_length_hex_head</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1901170</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>"hardware_" &amp; B25 &amp; "_" &amp; C25 &amp; "_black_" &amp; A25 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_25_mm_length_hex_head</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1901180</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>"hardware_" &amp; B26 &amp; "_" &amp; C26 &amp; "_black_" &amp; A26 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_30_mm_length_hex_head</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1901190</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>"hardware_" &amp; B27 &amp; "_" &amp; C27 &amp; "_black_" &amp; A27 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1901200</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>"hardware_" &amp; B28 &amp; "_" &amp; C28 &amp; "_black_" &amp; A28 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1901210</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>"hardware_" &amp; B29 &amp; "_" &amp; C29 &amp; "_black_" &amp; A29 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1901212</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_black_" &amp; A30 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_50_mm_length_hex_head</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1901220</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_black_" &amp; A31 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m5_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1901130</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>"1151M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M470008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>"hardware_" &amp; B32 &amp; "_" &amp; C32 &amp; "_black_" &amp; A32 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_10_mm_length_hex_head</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1901250</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>"hardware_" &amp; B33 &amp; "_" &amp; C33 &amp; "_black_" &amp; A33 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_12_mm_length_hex_head</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1901260</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>"hardware_" &amp; B34 &amp; "_" &amp; C34 &amp; "_black_" &amp; A34 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_16_mm_length_hex_head</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1901270</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>"hardware_" &amp; B35 &amp; "_" &amp; C35 &amp; "_black_" &amp; A35 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_20_mm_length_hex_head</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1901280</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>"hardware_" &amp; B36 &amp; "_" &amp; C36 &amp; "_black_" &amp; A36 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_25_mm_length_hex_head</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1901290</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>"hardware_" &amp; B37 &amp; "_" &amp; C37 &amp; "_black_" &amp; A37 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_30_mm_length_hex_head</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1901300</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490030</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>"hardware_" &amp; B38 &amp; "_" &amp; C38 &amp; "_black_" &amp; A38 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1901310</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>"hardware_" &amp; B39 &amp; "_" &amp; C39 &amp; "_black_" &amp; A39 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1901320</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>"hardware_" &amp; B40 &amp; "_" &amp; C40 &amp; "_black_" &amp; A40 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1901321</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>"hardware_" &amp; B41 &amp; "_" &amp; C41 &amp; "_black_" &amp; A41 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_50_mm_length_hex_head</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1901322</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>"hardware_" &amp; B42 &amp; "_" &amp; C42 &amp; "_black_" &amp; A42 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_55_mm_length_hex_head</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1901323</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>"hardware_" &amp; B43 &amp; "_" &amp; C43 &amp; "_black_" &amp; A43 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_60_mm_length_hex_head</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1901324</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>"hardware_" &amp; B44 &amp; "_" &amp; C44 &amp; "_black_" &amp; A44 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_70_mm_length_hex_head</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1901325</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490070</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>"hardware_" &amp; B45 &amp; "_" &amp; C45 &amp; "_black_" &amp; A45 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1901240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>"hardware_" &amp; B46 &amp; "_" &amp; C46 &amp; "_black_" &amp; A46 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_countersunk_m6_black_80_mm_length_hex_head</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1901326</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1151M490080</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1891020</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>"hardware_" &amp; B48 &amp; "_" &amp; C48 &amp; "_black_" &amp; A48 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E47+10</f>
+        <v>1891030</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E49" s="1">
         <v>1891030</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H49" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="50" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>"hardware_" &amp; B50 &amp; "_" &amp; C50 &amp; "_black_" &amp; A50 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
+      </c>
+      <c r="E50" s="1">
+        <f>E49+10</f>
+        <v>1891040</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E51" s="1">
         <v>1891040</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H51" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="52" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>"hardware_" &amp; B52 &amp; "_" &amp; C52 &amp; "_black_" &amp; A52 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
+      </c>
+      <c r="E52" s="1">
+        <f>E51+10</f>
+        <v>1891050</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>18</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H53" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E54" s="1">
         <v>1891050</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H54" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="55" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>20</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>"hardware_" &amp; B55 &amp; "_" &amp; C55 &amp; "_black_" &amp; A55 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
+      </c>
+      <c r="E55" s="1">
+        <f>E54+10</f>
+        <v>1891060</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E56" s="1">
         <v>1891052</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H56" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="57" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>"hardware_" &amp; B57 &amp; "_" &amp; C57 &amp; "_black_" &amp; A57 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1891052</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390025</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E58" s="1">
         <v>1891054</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H58" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>30</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>"hardware_" &amp; B59 &amp; "_" &amp; C59 &amp; "_black_" &amp; A59 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1891054</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390030</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>35</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E60" s="1">
         <v>1891056</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H60" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>35</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>"hardware_" &amp; B61 &amp; "_" &amp; C61 &amp; "_black_" &amp; A61 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1891056</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E63" s="1">
         <v>1891057</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H63" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="64" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>40</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_black_" &amp; A64 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1891057</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390040</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>45</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H65" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="66" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_black_" &amp; A66 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1890620</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_black_" &amp; A68 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E69" s="1">
         <v>1891058</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H69" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="70" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>50</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_black_" &amp; A70 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1891058</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390050</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1891000</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_black_" &amp; A72 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1891000</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>60</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H73" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1771000</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1" t="s">
+    <row r="74" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>60</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_black_" &amp; A74 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390060</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1891010</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="1">
-        <v>250</v>
-      </c>
-      <c r="J27" s="1">
-        <v>79.666666669999998</v>
-      </c>
-      <c r="K27" s="1">
-        <v>125</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.31866666700000001</v>
-      </c>
-      <c r="N27" s="1">
-        <v>3.1866666669999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1711000</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1731000</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="H75" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_black_" &amp; A76 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1891010</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_" &amp; A77 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_10_mm_length</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1850810</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f>"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_" &amp; A78 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_12_mm_length</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1850820</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>"hardware_" &amp; B79 &amp; "_" &amp; C79 &amp; "_" &amp; A79 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_16_mm_length</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1850830</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>20</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>"hardware_" &amp; B80 &amp; "_" &amp; C80 &amp; "_" &amp; A80 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_20_mm_length</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1850840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>25</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>"hardware_" &amp; B81 &amp; "_" &amp; C81 &amp; "_" &amp; A81 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_25_mm_length</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1850850</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>30</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>"hardware_" &amp; B82 &amp; "_" &amp; C82 &amp; "_" &amp; A82 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_30_mm_length</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1851050</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>"hardware_" &amp; B83 &amp; "_" &amp; C83 &amp; "_" &amp; A83 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_8_mm_length</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1850800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_" &amp; A84 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_10_mm_length</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1851000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_" &amp; A85 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_12_mm_length</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1851010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>16</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_16_mm_length</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1851020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>"hardware_" &amp; B87 &amp; "_" &amp; C87 &amp; "_" &amp; A87 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_20_mm_length</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1851030</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>25</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>"hardware_" &amp; B88 &amp; "_" &amp; C88 &amp; "_" &amp; A88 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_25_mm_length</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1851040</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>30</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>"hardware_" &amp; B89 &amp; "_" &amp; C89 &amp; "_" &amp; A89 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_30_mm_length</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1851050</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>35</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>"hardware_" &amp; B90 &amp; "_" &amp; C90 &amp; "_" &amp; A90 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_35_mm_length</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1851051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>40</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f>"hardware_" &amp; B91 &amp; "_" &amp; C91 &amp; "_" &amp; A91 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_40_mm_length</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1851052</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>50</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f>"hardware_" &amp; B92 &amp; "_" &amp; C92 &amp; "_" &amp; A92 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_50_mm_length</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1851054</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f>"hardware_" &amp; B93 &amp; "_" &amp; C93 &amp; "_" &amp; A93 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_8_mm_length</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1850990</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f>"hardware_" &amp; B94 &amp; "_" &amp; C94 &amp; "_" &amp; A94 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_10_mm_length</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1851070</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470010</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>12</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f>"hardware_" &amp; B95 &amp; "_" &amp; C95 &amp; "_" &amp; A95 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_12_mm_length</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1851080</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>"hardware_" &amp; B96 &amp; "_" &amp; C96 &amp; "_" &amp; A96 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_16_mm_length</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1851090</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>18</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>"hardware_" &amp; B97 &amp; "_" &amp; C97 &amp; "_" &amp; A97 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_18_mm_length</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>20</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>"hardware_" &amp; B98 &amp; "_" &amp; C98 &amp; "_" &amp; A98 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_20_mm_length</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1851100</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>22</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_" &amp; A99 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_22_mm_length</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1851105</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>25</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>"hardware_" &amp; B100 &amp; "_" &amp; C100 &amp; "_" &amp; A100 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_25_mm_length</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1851110</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>30</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>"hardware_" &amp; B101 &amp; "_" &amp; C101 &amp; "_" &amp; A101 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_30_mm_length</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1851120</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470030</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>35</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f>"hardware_" &amp; B102 &amp; "_" &amp; C102 &amp; "_" &amp; A102 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_35_mm_length</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1851130</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>40</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>"hardware_" &amp; B103 &amp; "_" &amp; C103 &amp; "_" &amp; A103 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_40_mm_length</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1851140</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470040</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>"hardware_" &amp; B104 &amp; "_" &amp; C104 &amp; "_" &amp; A104 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_45_mm_length</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1851142</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470045</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>50</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f>"hardware_" &amp; B105 &amp; "_" &amp; C105 &amp; "_" &amp; A105 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_50_mm_length</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1851141</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470050</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>55</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f>"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_" &amp; A106 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_55_mm_length</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470055</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>60</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f>"hardware_" &amp; B107 &amp; "_" &amp; C107 &amp; "_" &amp; A107 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_60_mm_length</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1851143</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470060</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>70</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f>"hardware_" &amp; B108 &amp; "_" &amp; C108 &amp; "_" &amp; A108 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_70_mm_length</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1851145</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470070</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f>"hardware_" &amp; B109 &amp; "_" &amp; C109 &amp; "_" &amp; A109 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_8_mm_length</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1851060</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M47008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>80</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f>"hardware_" &amp; B110 &amp; "_" &amp; C110 &amp; "_" &amp; A110 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m5_80_mm_length</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1851147</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470080</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="1" t="str">
-        <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_" &amp; A30 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_100_mm_length</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1851253</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" ref="D31:D50" si="0">"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_" &amp; A31 &amp; "_mm_length"</f>
+      <c r="D111" s="1" t="str">
+        <f>"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_" &amp; A111 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_10_mm_length</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E111" s="1">
         <v>1851150</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F111" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490010</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="112" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>100</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f>"hardware_" &amp; B112 &amp; "_" &amp; C112 &amp; "_" &amp; A112 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m6_100_mm_length</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1851253</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D113" s="1" t="str">
+        <f>"hardware_" &amp; B113 &amp; "_" &amp; C113 &amp; "_" &amp; A113 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_12_mm_length</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E113" s="1">
         <v>1851160</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F113" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490012</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="114" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D114" s="1" t="str">
+        <f>"hardware_" &amp; B114 &amp; "_" &amp; C114 &amp; "_" &amp; A114 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_16_mm_length</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E114" s="1">
         <v>1851170</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F114" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490016</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="115" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D115" s="1" t="str">
+        <f>"hardware_" &amp; B115 &amp; "_" &amp; C115 &amp; "_" &amp; A115 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_18_mm_length</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E115" s="1">
         <v>1851178</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F115" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490018</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="116" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>20</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D116" s="1" t="str">
+        <f>"hardware_" &amp; B116 &amp; "_" &amp; C116 &amp; "_" &amp; A116 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_20_mm_length</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E116" s="1">
         <v>1851180</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F116" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490020</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="117" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>22</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D117" s="1" t="str">
+        <f>"hardware_" &amp; B117 &amp; "_" &amp; C117 &amp; "_" &amp; A117 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_22_mm_length</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E117" s="1">
         <v>1851182</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F117" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490022</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="118" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>25</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D118" s="1" t="str">
+        <f>"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_" &amp; A118 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_25_mm_length</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E118" s="1">
         <v>1851190</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F118" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490025</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="119" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D119" s="1" t="str">
+        <f>"hardware_" &amp; B119 &amp; "_" &amp; C119 &amp; "_" &amp; A119 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_30_mm_length</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E119" s="1">
         <v>1851200</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F119" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490030</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="120" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D120" s="1" t="str">
+        <f>"hardware_" &amp; B120 &amp; "_" &amp; C120 &amp; "_" &amp; A120 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_35_mm_length</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E120" s="1">
         <v>1851210</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F120" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490035</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="121" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D121" s="1" t="str">
+        <f>"hardware_" &amp; B121 &amp; "_" &amp; C121 &amp; "_" &amp; A121 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_40_mm_length</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E121" s="1">
         <v>1851220</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F121" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490040</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="122" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>45</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D122" s="1" t="str">
+        <f>"hardware_" &amp; B122 &amp; "_" &amp; C122 &amp; "_" &amp; A122 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_45_mm_length</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E122" s="1">
         <v>1851225</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F122" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490045</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="123" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>50</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D123" s="1" t="str">
+        <f>"hardware_" &amp; B123 &amp; "_" &amp; C123 &amp; "_" &amp; A123 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_50_mm_length</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E123" s="1">
         <v>1851230</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F123" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490050</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="124" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>55</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D124" s="1" t="str">
+        <f>"hardware_" &amp; B124 &amp; "_" &amp; C124 &amp; "_" &amp; A124 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_55_mm_length</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E124" s="1">
         <v>1851235</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F124" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490055</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="125" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D125" s="1" t="str">
+        <f>"hardware_" &amp; B125 &amp; "_" &amp; C125 &amp; "_" &amp; A125 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_60_mm_length</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E125" s="1">
         <v>1851240</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F125" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490060</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="126" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>65</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D126" s="1" t="str">
+        <f>"hardware_" &amp; B126 &amp; "_" &amp; C126 &amp; "_" &amp; A126 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_65_mm_length</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E126" s="1">
         <v>1851245</v>
       </c>
-      <c r="F45" s="1" t="str">
+      <c r="F126" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490065</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="127" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D127" s="1" t="str">
+        <f>"hardware_" &amp; B127 &amp; "_" &amp; C127 &amp; "_" &amp; A127 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_70_mm_length</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E127" s="1">
         <v>1851250</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="F127" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490070</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="128" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>75</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D128" s="1" t="str">
+        <f>"hardware_" &amp; B128 &amp; "_" &amp; C128 &amp; "_" &amp; A128 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_75_mm_length</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E128" s="1">
         <v>1851247</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="F128" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490075</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="129" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f>"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_" &amp; A129 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m6_8_mm_length</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1851149</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>80</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D130" s="1" t="str">
+        <f>"hardware_" &amp; B130 &amp; "_" &amp; C130 &amp; "_" &amp; A130 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_80_mm_length</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E130" s="1">
         <v>1851251</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F130" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490080</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>8</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    <row r="131" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>90</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>hardware_set_screw_m6_8_mm_length</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1851149</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>90</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D131" s="1" t="str">
+        <f>"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_" &amp; A131 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_90_mm_length</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E131" s="1">
         <v>1851252</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="F131" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490090</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="132" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
         <v>10</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" ref="D51:D64" si="1">"hardware_" &amp; B51 &amp; "_" &amp; C51 &amp; "_" &amp; A51 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_10_mm_length</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1851070</v>
-      </c>
-      <c r="F51" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470010</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_12_mm_length</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1851080</v>
-      </c>
-      <c r="F52" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>16</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_16_mm_length</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1851090</v>
-      </c>
-      <c r="F53" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>18</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_18_mm_length</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>20</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_20_mm_length</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1851100</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470020</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_22_mm_length</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1851105</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>25</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_25_mm_length</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1851110</v>
-      </c>
-      <c r="F57" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470025</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>30</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_30_mm_length</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1851120</v>
-      </c>
-      <c r="F58" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470030</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>35</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_35_mm_length</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1851130</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470035</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>40</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_40_mm_length</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1851140</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470040</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>45</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_45_mm_length</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1851142</v>
-      </c>
-      <c r="F61" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_50_mm_length</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1851141</v>
-      </c>
-      <c r="F62" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470050</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>55</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_55_mm_length</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470055</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>60</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>hardware_set_screw_m5_60_mm_length</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1851143</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470060</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>8</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <f>"hardware_" &amp; B65 &amp; "_" &amp; C65 &amp; "_" &amp; A65 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_8_mm_length</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1851060</v>
-      </c>
-      <c r="F65" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M47008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>70</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" ref="D66:D76" si="2">"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_" &amp; A66 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_70_mm_length</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1851145</v>
-      </c>
-      <c r="F66" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470070</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>80</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m5_80_mm_length</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1851147</v>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470080</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>10</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_10_mm_length</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1851000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_12_mm_length</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1851010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>16</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_16_mm_length</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1851020</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_20_mm_length</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1851030</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>25</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_25_mm_length</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1851040</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>30</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_30_mm_length</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1851050</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>35</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_35_mm_length</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1851051</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>40</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_40_mm_length</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1851052</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>50</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>hardware_set_screw_m4_50_mm_length</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1851054</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>8</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="1" t="str">
-        <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_" &amp; A77 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_8_mm_length</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1850990</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>10</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="1" t="str">
-        <f t="shared" ref="D78:D83" si="3">"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_" &amp; A78 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_10_mm_length</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1850810</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>12</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>hardware_set_screw_m3_12_mm_length</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1850820</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>16</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>hardware_set_screw_m3_16_mm_length</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1850830</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>20</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>hardware_set_screw_m3_20_mm_length</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1850840</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>25</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>hardware_set_screw_m3_25_mm_length</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1850850</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>30</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>hardware_set_screw_m3_30_mm_length</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1851050</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="1" t="str">
-        <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_" &amp; A84 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_8_mm_length</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1850800</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>100</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="1" t="str">
-        <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_" &amp; A85 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_100_mm_length</v>
-      </c>
-      <c r="E85" s="1">
-        <v>1851253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>10</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="1" t="str">
-        <f t="shared" ref="D86:D105" si="4">"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
+      <c r="D132" s="1" t="str">
+        <f>"hardware_" &amp; B132 &amp; "_" &amp; C132 &amp; "_" &amp; A132 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_10_mm_length</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E132" s="1">
         <v>1851254</v>
       </c>
-      <c r="F86" s="1" t="str">
+      <c r="F132" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540010</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="133" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>100</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f>"hardware_" &amp; B133 &amp; "_" &amp; C133 &amp; "_" &amp; A133 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_100_mm_length</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1851253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>100</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f>"hardware_" &amp; B134 &amp; "_" &amp; C134 &amp; "_" &amp; A134 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_100_mm_length</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1851412</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>110</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f>"hardware_" &amp; B135 &amp; "_" &amp; C135 &amp; "_" &amp; A135 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_110_mm_length</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1851413</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>12</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D136" s="1" t="str">
+        <f>"hardware_" &amp; B136 &amp; "_" &amp; C136 &amp; "_" &amp; A136 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_12_mm_length</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E136" s="1">
         <v>1851270</v>
       </c>
-      <c r="F87" s="1" t="str">
+      <c r="F136" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540012</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="137" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>120</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" s="1" t="str">
+        <f>"hardware_" &amp; B137 &amp; "_" &amp; C137 &amp; "_" &amp; A137 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_120_mm_length</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1851414</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>130</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="1" t="str">
+        <f>"hardware_" &amp; B138 &amp; "_" &amp; C138 &amp; "_" &amp; A138 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_130_mm_length</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1851415</v>
+      </c>
+      <c r="F138" s="1" t="str">
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" s="1" t="str">
+        <f>"hardware_" &amp; B139 &amp; "_" &amp; C139 &amp; "_" &amp; A139 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_140_mm_length</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1851416</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>150</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f>"hardware_" &amp; B140 &amp; "_" &amp; C140 &amp; "_" &amp; A140 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m8_150_mm_length</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1851417</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
         <v>16</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D141" s="1" t="str">
+        <f>"hardware_" &amp; B141 &amp; "_" &amp; C141 &amp; "_" &amp; A141 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_16_mm_length</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E141" s="1">
         <v>1851280</v>
       </c>
-      <c r="F88" s="1" t="str">
+      <c r="F141" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540016</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="142" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
         <v>20</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D142" s="1" t="str">
+        <f>"hardware_" &amp; B142 &amp; "_" &amp; C142 &amp; "_" &amp; A142 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_20_mm_length</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E142" s="1">
         <v>1851290</v>
       </c>
-      <c r="F90" s="1" t="str">
+      <c r="F142" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540020</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="143" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
         <v>25</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B143" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D143" s="1" t="str">
+        <f>"hardware_" &amp; B143 &amp; "_" &amp; C143 &amp; "_" &amp; A143 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_25_mm_length</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E143" s="1">
         <v>1851300</v>
       </c>
-      <c r="F92" s="1" t="str">
+      <c r="F143" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540025</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="144" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D144" s="1" t="str">
+        <f>"hardware_" &amp; B144 &amp; "_" &amp; C144 &amp; "_" &amp; A144 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_30_mm_length</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E144" s="1">
         <v>1851310</v>
       </c>
-      <c r="F93" s="1" t="str">
+      <c r="F144" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540030</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="145" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
         <v>35</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B145" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D145" s="1" t="str">
+        <f>"hardware_" &amp; B145 &amp; "_" &amp; C145 &amp; "_" &amp; A145 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_35_mm_length</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E145" s="1">
         <v>1851320</v>
       </c>
-      <c r="F94" s="1" t="str">
+      <c r="F145" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540035</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="146" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
         <v>40</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B146" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D95" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D146" s="1" t="str">
+        <f>"hardware_" &amp; B146 &amp; "_" &amp; C146 &amp; "_" &amp; A146 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_40_mm_length</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E146" s="1">
         <v>1851330</v>
       </c>
-      <c r="F95" s="1" t="str">
+      <c r="F146" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540040</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="147" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
         <v>45</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D147" s="1" t="str">
+        <f>"hardware_" &amp; B147 &amp; "_" &amp; C147 &amp; "_" &amp; A147 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_45_mm_length</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E147" s="1">
         <v>1851340</v>
       </c>
-      <c r="F96" s="1" t="str">
+      <c r="F147" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540045</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="148" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
         <v>50</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D97" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D148" s="1" t="str">
+        <f>"hardware_" &amp; B148 &amp; "_" &amp; C148 &amp; "_" &amp; A148 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_50_mm_length</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E148" s="1">
         <v>1851350</v>
       </c>
-      <c r="F97" s="1" t="str">
+      <c r="F148" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540050</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="149" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
         <v>55</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D149" s="1" t="str">
+        <f>"hardware_" &amp; B149 &amp; "_" &amp; C149 &amp; "_" &amp; A149 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_55_mm_length</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E149" s="1">
         <v>1851360</v>
       </c>
-      <c r="F98" s="1" t="str">
+      <c r="F149" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540055</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="150" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
         <v>60</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B150" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D150" s="1" t="str">
+        <f>"hardware_" &amp; B150 &amp; "_" &amp; C150 &amp; "_" &amp; A150 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_60_mm_length</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E150" s="1">
         <v>1851370</v>
       </c>
-      <c r="F99" s="1" t="str">
+      <c r="F150" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540060</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="151" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
         <v>65</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B151" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D100" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D151" s="1" t="str">
+        <f>"hardware_" &amp; B151 &amp; "_" &amp; C151 &amp; "_" &amp; A151 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_65_mm_length</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E151" s="1">
         <v>1851380</v>
       </c>
-      <c r="F100" s="1" t="str">
+      <c r="F151" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540065</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="152" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
         <v>70</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D152" s="1" t="str">
+        <f>"hardware_" &amp; B152 &amp; "_" &amp; C152 &amp; "_" &amp; A152 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_70_mm_length</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E152" s="1">
         <v>1851390</v>
       </c>
-      <c r="F101" s="1" t="str">
+      <c r="F152" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540070</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="153" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
         <v>75</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B153" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D153" s="1" t="str">
+        <f>"hardware_" &amp; B153 &amp; "_" &amp; C153 &amp; "_" &amp; A153 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_75_mm_length</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E153" s="1">
         <v>1851400</v>
       </c>
-      <c r="F102" s="1" t="str">
+      <c r="F153" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540075</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="154" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
         <v>80</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B154" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D154" s="1" t="str">
+        <f>"hardware_" &amp; B154 &amp; "_" &amp; C154 &amp; "_" &amp; A154 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_80_mm_length</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E154" s="1">
         <v>1851410</v>
       </c>
-      <c r="F103" s="1" t="str">
+      <c r="F154" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540080</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="155" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
         <v>90</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="D155" s="1" t="str">
+        <f>"hardware_" &amp; B155 &amp; "_" &amp; C155 &amp; "_" &amp; A155 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_90_mm_length</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E155" s="1">
         <v>1851411</v>
       </c>
-      <c r="F105" s="1" t="str">
+      <c r="F155" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540090</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="156" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1711000</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1731000</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="1">
         <v>100</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" s="1" t="str">
-        <f t="shared" ref="D106:D110" si="5">"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_" &amp; A106 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_100_mm_length</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1851412</v>
-      </c>
-      <c r="F106" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>110</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>hardware_set_screw_m8_110_mm_length</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1851413</v>
-      </c>
-      <c r="F107" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>120</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D108" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>hardware_set_screw_m8_120_mm_length</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1851414</v>
-      </c>
-      <c r="F108" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>130</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>hardware_set_screw_m8_130_mm_length</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1851415</v>
-      </c>
-      <c r="F109" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>140</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>hardware_set_screw_m8_140_mm_length</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1851416</v>
-      </c>
-      <c r="F110" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>150</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D111" s="1" t="str">
-        <f t="shared" ref="D111" si="6">"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_" &amp; A111 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_150_mm_length</v>
-      </c>
-      <c r="E111" s="1">
-        <v>1851417</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/working_xlsx.xlsx
+++ b/working_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GH\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663C38EC-3769-4A5E-ADFB-E01717969ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B846F-B318-49C6-8A58-D9727875D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-690" windowWidth="29040" windowHeight="16440" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
   </bookViews>
   <sheets>
     <sheet name="working_xlsx" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="50">
   <si>
     <t>working_1_length</t>
   </si>
@@ -131,100 +131,10 @@
     <t>1151M390035</t>
   </si>
   <si>
-    <t>hardware_screw_socket_cap_m3_black_4_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390004</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390005</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390006</t>
-  </si>
-  <si>
     <t>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</t>
   </si>
   <si>
     <t>1150M390008</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390010</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390012</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390016</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_18_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390018</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390020</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390025</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390030</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390035</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390040</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390045</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390050</t>
-  </si>
-  <si>
-    <t>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390060</t>
   </si>
   <si>
     <t>hardware_nut_m3</t>
@@ -1066,8 +976,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}" name="Table1" displayName="Table1" ref="A1:N1048561" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N1048561" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N160">
-    <sortCondition ref="D2:D160"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N159">
+    <sortCondition ref="D2:D159"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{81BE6127-1FAC-43B6-B435-E83C50450D0E}" name="working_1_length" dataDxfId="13"/>
@@ -1406,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162B66-111D-4E55-92AB-8A3902FD99ED}">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1461,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -1472,13 +1382,13 @@
     </row>
     <row r="2" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1">
         <v>1771000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -1722,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1795,10 +1705,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>"hardware_" &amp; B12 &amp; "_" &amp; C12 &amp; "_black_" &amp; A12 &amp; "_mm_length_hex_head"</f>
@@ -1817,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>"hardware_" &amp; B13 &amp; "_" &amp; C13 &amp; "_black_" &amp; A13 &amp; "_mm_length_hex_head"</f>
@@ -1839,10 +1749,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>"hardware_" &amp; B14 &amp; "_" &amp; C14 &amp; "_black_" &amp; A14 &amp; "_mm_length_hex_head"</f>
@@ -1861,10 +1771,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>"hardware_" &amp; B15 &amp; "_" &amp; C15 &amp; "_black_" &amp; A15 &amp; "_mm_length_hex_head"</f>
@@ -1883,10 +1793,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>"hardware_" &amp; B16 &amp; "_" &amp; C16 &amp; "_black_" &amp; A16 &amp; "_mm_length_hex_head"</f>
@@ -1905,10 +1815,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>"hardware_" &amp; B17 &amp; "_" &amp; C17 &amp; "_black_" &amp; A17 &amp; "_mm_length_hex_head"</f>
@@ -1927,10 +1837,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>"hardware_" &amp; B18 &amp; "_" &amp; C18 &amp; "_black_" &amp; A18 &amp; "_mm_length_hex_head"</f>
@@ -1949,10 +1859,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>"hardware_" &amp; B19 &amp; "_" &amp; C19 &amp; "_black_" &amp; A19 &amp; "_mm_length_hex_head"</f>
@@ -1971,10 +1881,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>"hardware_" &amp; B20 &amp; "_" &amp; C20 &amp; "_black_" &amp; A20 &amp; "_mm_length_hex_head"</f>
@@ -1993,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>"hardware_" &amp; B21 &amp; "_" &amp; C21 &amp; "_black_" &amp; A21 &amp; "_mm_length_hex_head"</f>
@@ -2015,10 +1925,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_black_" &amp; A22 &amp; "_mm_length_hex_head"</f>
@@ -2037,10 +1947,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>"hardware_" &amp; B23 &amp; "_" &amp; C23 &amp; "_black_" &amp; A23 &amp; "_mm_length_hex_head"</f>
@@ -2059,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>"hardware_" &amp; B24 &amp; "_" &amp; C24 &amp; "_black_" &amp; A24 &amp; "_mm_length_hex_head"</f>
@@ -2081,10 +1991,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>"hardware_" &amp; B25 &amp; "_" &amp; C25 &amp; "_black_" &amp; A25 &amp; "_mm_length_hex_head"</f>
@@ -2103,10 +2013,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>"hardware_" &amp; B26 &amp; "_" &amp; C26 &amp; "_black_" &amp; A26 &amp; "_mm_length_hex_head"</f>
@@ -2125,10 +2035,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>"hardware_" &amp; B27 &amp; "_" &amp; C27 &amp; "_black_" &amp; A27 &amp; "_mm_length_hex_head"</f>
@@ -2147,10 +2057,10 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>"hardware_" &amp; B28 &amp; "_" &amp; C28 &amp; "_black_" &amp; A28 &amp; "_mm_length_hex_head"</f>
@@ -2169,10 +2079,10 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>"hardware_" &amp; B29 &amp; "_" &amp; C29 &amp; "_black_" &amp; A29 &amp; "_mm_length_hex_head"</f>
@@ -2191,10 +2101,10 @@
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_black_" &amp; A30 &amp; "_mm_length_hex_head"</f>
@@ -2213,10 +2123,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_black_" &amp; A31 &amp; "_mm_length_hex_head"</f>
@@ -2235,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>"hardware_" &amp; B32 &amp; "_" &amp; C32 &amp; "_black_" &amp; A32 &amp; "_mm_length_hex_head"</f>
@@ -2252,15 +2162,15 @@
         <v>1151M490010</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>"hardware_" &amp; B33 &amp; "_" &amp; C33 &amp; "_black_" &amp; A33 &amp; "_mm_length_hex_head"</f>
@@ -2274,15 +2184,15 @@
         <v>1151M490012</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>"hardware_" &amp; B34 &amp; "_" &amp; C34 &amp; "_black_" &amp; A34 &amp; "_mm_length_hex_head"</f>
@@ -2296,15 +2206,15 @@
         <v>1151M490016</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="str">
         <f>"hardware_" &amp; B35 &amp; "_" &amp; C35 &amp; "_black_" &amp; A35 &amp; "_mm_length_hex_head"</f>
@@ -2318,15 +2228,15 @@
         <v>1151M490020</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="str">
         <f>"hardware_" &amp; B36 &amp; "_" &amp; C36 &amp; "_black_" &amp; A36 &amp; "_mm_length_hex_head"</f>
@@ -2340,15 +2250,15 @@
         <v>1151M490025</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="str">
         <f>"hardware_" &amp; B37 &amp; "_" &amp; C37 &amp; "_black_" &amp; A37 &amp; "_mm_length_hex_head"</f>
@@ -2362,15 +2272,15 @@
         <v>1151M490030</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1" t="str">
         <f>"hardware_" &amp; B38 &amp; "_" &amp; C38 &amp; "_black_" &amp; A38 &amp; "_mm_length_hex_head"</f>
@@ -2384,15 +2294,15 @@
         <v>1151M490035</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="str">
         <f>"hardware_" &amp; B39 &amp; "_" &amp; C39 &amp; "_black_" &amp; A39 &amp; "_mm_length_hex_head"</f>
@@ -2406,15 +2316,15 @@
         <v>1151M490040</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="str">
         <f>"hardware_" &amp; B40 &amp; "_" &amp; C40 &amp; "_black_" &amp; A40 &amp; "_mm_length_hex_head"</f>
@@ -2428,15 +2338,15 @@
         <v>1151M490045</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="str">
         <f>"hardware_" &amp; B41 &amp; "_" &amp; C41 &amp; "_black_" &amp; A41 &amp; "_mm_length_hex_head"</f>
@@ -2450,15 +2360,15 @@
         <v>1151M490050</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1" t="str">
         <f>"hardware_" &amp; B42 &amp; "_" &amp; C42 &amp; "_black_" &amp; A42 &amp; "_mm_length_hex_head"</f>
@@ -2472,15 +2382,15 @@
         <v>1151M490055</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>"hardware_" &amp; B43 &amp; "_" &amp; C43 &amp; "_black_" &amp; A43 &amp; "_mm_length_hex_head"</f>
@@ -2494,15 +2404,15 @@
         <v>1151M490060</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="str">
         <f>"hardware_" &amp; B44 &amp; "_" &amp; C44 &amp; "_black_" &amp; A44 &amp; "_mm_length_hex_head"</f>
@@ -2516,15 +2426,15 @@
         <v>1151M490070</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1" t="str">
         <f>"hardware_" &amp; B45 &amp; "_" &amp; C45 &amp; "_black_" &amp; A45 &amp; "_mm_length_hex_head"</f>
@@ -2534,15 +2444,15 @@
         <v>1901240</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>"hardware_" &amp; B46 &amp; "_" &amp; C46 &amp; "_black_" &amp; A46 &amp; "_mm_length_hex_head"</f>
@@ -2556,291 +2466,299 @@
         <v>1151M490080</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>10</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>40</v>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>"hardware_" &amp; B47 &amp; "_" &amp; C47 &amp; "_black_" &amp; A47 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
       <c r="E47" s="1">
-        <v>1891020</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>E46+10</f>
+        <v>1901336</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="str">
         <f>"hardware_" &amp; B48 &amp; "_" &amp; C48 &amp; "_black_" &amp; A48 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
+        <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
       <c r="E48" s="1">
         <f>E47+10</f>
-        <v>1891030</v>
+        <v>1901346</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390010</v>
+        <v>1150M390012</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>"hardware_" &amp; B49 &amp; "_" &amp; C49 &amp; "_black_" &amp; A49 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
       <c r="E49" s="1">
-        <v>1891030</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="1">
-        <v>200</v>
+        <f>E48+10</f>
+        <v>1901356</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390016</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D50" s="1" t="str">
         <f>"hardware_" &amp; B50 &amp; "_" &amp; C50 &amp; "_black_" &amp; A50 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
+        <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
       <c r="E50" s="1">
         <f>E49+10</f>
-        <v>1891040</v>
+        <v>1901366</v>
       </c>
       <c r="F50" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390012</v>
+        <v>1150M390020</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>16</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>"hardware_" &amp; B51 &amp; "_" &amp; C51 &amp; "_black_" &amp; A51 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
       <c r="E51" s="1">
-        <v>1891040</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1">
-        <v>200</v>
+        <v>1891052</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390025</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1" t="str">
         <f>"hardware_" &amp; B52 &amp; "_" &amp; C52 &amp; "_black_" &amp; A52 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
+        <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
       <c r="E52" s="1">
-        <f>E51+10</f>
-        <v>1891050</v>
+        <v>1891054</v>
       </c>
       <c r="F52" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390016</v>
+        <v>1150M390030</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>18</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="1">
-        <v>200</v>
+        <v>35</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>"hardware_" &amp; B53 &amp; "_" &amp; C53 &amp; "_black_" &amp; A53 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1891056</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390035</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_black_" &amp; A54 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
       <c r="E54" s="1">
-        <v>1891050</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="1">
-        <v>200</v>
+        <v>1891057</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390040</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D55" s="1" t="str">
         <f>"hardware_" &amp; B55 &amp; "_" &amp; C55 &amp; "_black_" &amp; A55 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
-      </c>
-      <c r="E55" s="1">
-        <f>E54+10</f>
-        <v>1891060</v>
+        <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
       </c>
       <c r="F55" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390020</v>
+        <v>1150M390045</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>25</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1891052</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="1">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>"hardware_" &amp; B56 &amp; "_" &amp; C56 &amp; "_black_" &amp; A56 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390005</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D57" s="1" t="str">
         <f>"hardware_" &amp; B57 &amp; "_" &amp; C57 &amp; "_black_" &amp; A57 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
+        <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
       <c r="E57" s="1">
-        <v>1891052</v>
+        <v>1891058</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390025</v>
+        <v>1150M390050</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>30</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>"hardware_" &amp; B58 &amp; "_" &amp; C58 &amp; "_black_" &amp; A58 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
       </c>
       <c r="E58" s="1">
-        <v>1891054</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="1">
-        <v>200</v>
+        <v>1891000</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390006</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1" t="str">
         <f>"hardware_" &amp; B59 &amp; "_" &amp; C59 &amp; "_black_" &amp; A59 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1891054</v>
+        <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390030</v>
+        <v>1150M390060</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E60" s="1">
-        <v>1891056</v>
+        <v>1891010</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>15</v>
@@ -2851,2008 +2769,1712 @@
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D61" s="1" t="str">
         <f>"hardware_" &amp; B61 &amp; "_" &amp; C61 &amp; "_black_" &amp; A61 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
+        <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
       </c>
       <c r="E61" s="1">
-        <v>1891056</v>
+        <v>1891010</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390035</v>
+        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M390008</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="1">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>"hardware_" &amp; B62 &amp; "_" &amp; C62 &amp; "_" &amp; A62 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_10_mm_length</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1850810</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>40</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>"hardware_" &amp; B63 &amp; "_" &amp; C63 &amp; "_" &amp; A63 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_12_mm_length</v>
       </c>
       <c r="E63" s="1">
-        <v>1891057</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="1">
-        <v>200</v>
+        <v>1850820</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_" &amp; A64 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_16_mm_length</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1850830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>"hardware_" &amp; B65 &amp; "_" &amp; C65 &amp; "_" &amp; A65 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_20_mm_length</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1850840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_" &amp; A66 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_25_mm_length</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1850850</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>30</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>"hardware_" &amp; B67 &amp; "_" &amp; C67 &amp; "_" &amp; A67 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_30_mm_length</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1851050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_" &amp; A68 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_8_mm_length</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1850800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>"hardware_" &amp; B69 &amp; "_" &amp; C69 &amp; "_" &amp; A69 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_10_mm_length</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1851000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_" &amp; A70 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_12_mm_length</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1851010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>"hardware_" &amp; B71 &amp; "_" &amp; C71 &amp; "_" &amp; A71 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_16_mm_length</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1851020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>20</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_" &amp; A72 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_20_mm_length</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1851030</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>"hardware_" &amp; B73 &amp; "_" &amp; C73 &amp; "_" &amp; A73 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_25_mm_length</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1851040</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>30</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_" &amp; A74 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_30_mm_length</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1851050</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>35</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f>"hardware_" &amp; B75 &amp; "_" &amp; C75 &amp; "_" &amp; A75 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_35_mm_length</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1851051</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>40</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_black_" &amp; A64 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1891057</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390040</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>45</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_black_" &amp; A66 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
-      </c>
-      <c r="F66" s="1" t="str">
-        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390045</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>5</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1890620</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>5</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_black_" &amp; A68 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
-      </c>
-      <c r="F68" s="1" t="str">
-        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="B76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_" &amp; A76 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_40_mm_length</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1851052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>50</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1891058</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>50</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_black_" &amp; A70 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1891058</v>
-      </c>
-      <c r="F70" s="1" t="str">
-        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390050</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>6</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1891000</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>6</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_black_" &amp; A72 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1891000</v>
-      </c>
-      <c r="F72" s="1" t="str">
-        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>60</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>60</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_black_" &amp; A74 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
-      </c>
-      <c r="F74" s="1" t="str">
-        <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390060</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1891010</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>8</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_black_" &amp; A76 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1891010</v>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>1150M390008</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>10</v>
-      </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D77" s="1" t="str">
         <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_" &amp; A77 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_10_mm_length</v>
+        <v>hardware_set_screw_m4_50_mm_length</v>
       </c>
       <c r="E77" s="1">
-        <v>1850810</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1851054</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D78" s="1" t="str">
         <f>"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_" &amp; A78 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_12_mm_length</v>
+        <v>hardware_set_screw_m4_8_mm_length</v>
       </c>
       <c r="E78" s="1">
-        <v>1850820</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1850990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D79" s="1" t="str">
         <f>"hardware_" &amp; B79 &amp; "_" &amp; C79 &amp; "_" &amp; A79 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_16_mm_length</v>
+        <v>hardware_set_screw_m5_10_mm_length</v>
       </c>
       <c r="E79" s="1">
-        <v>1850830</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1851070</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D80" s="1" t="str">
         <f>"hardware_" &amp; B80 &amp; "_" &amp; C80 &amp; "_" &amp; A80 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_20_mm_length</v>
+        <v>hardware_set_screw_m5_12_mm_length</v>
       </c>
       <c r="E80" s="1">
-        <v>1850840</v>
+        <v>1851080</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470012</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D81" s="1" t="str">
         <f>"hardware_" &amp; B81 &amp; "_" &amp; C81 &amp; "_" &amp; A81 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_25_mm_length</v>
+        <v>hardware_set_screw_m5_16_mm_length</v>
       </c>
       <c r="E81" s="1">
-        <v>1850850</v>
+        <v>1851090</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470016</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D82" s="1" t="str">
         <f>"hardware_" &amp; B82 &amp; "_" &amp; C82 &amp; "_" &amp; A82 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_30_mm_length</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1851050</v>
+        <v>hardware_set_screw_m5_18_mm_length</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470018</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D83" s="1" t="str">
         <f>"hardware_" &amp; B83 &amp; "_" &amp; C83 &amp; "_" &amp; A83 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_8_mm_length</v>
+        <v>hardware_set_screw_m5_20_mm_length</v>
       </c>
       <c r="E83" s="1">
-        <v>1850800</v>
+        <v>1851100</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470020</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D84" s="1" t="str">
         <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_" &amp; A84 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_10_mm_length</v>
+        <v>hardware_set_screw_m5_22_mm_length</v>
       </c>
       <c r="E84" s="1">
-        <v>1851000</v>
+        <v>1851105</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470022</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D85" s="1" t="str">
         <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_" &amp; A85 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_12_mm_length</v>
+        <v>hardware_set_screw_m5_25_mm_length</v>
       </c>
       <c r="E85" s="1">
-        <v>1851010</v>
+        <v>1851110</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470025</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D86" s="1" t="str">
         <f>"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_16_mm_length</v>
+        <v>hardware_set_screw_m5_30_mm_length</v>
       </c>
       <c r="E86" s="1">
-        <v>1851020</v>
+        <v>1851120</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470030</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D87" s="1" t="str">
         <f>"hardware_" &amp; B87 &amp; "_" &amp; C87 &amp; "_" &amp; A87 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_20_mm_length</v>
+        <v>hardware_set_screw_m5_35_mm_length</v>
       </c>
       <c r="E87" s="1">
-        <v>1851030</v>
+        <v>1851130</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470035</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D88" s="1" t="str">
         <f>"hardware_" &amp; B88 &amp; "_" &amp; C88 &amp; "_" &amp; A88 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_25_mm_length</v>
+        <v>hardware_set_screw_m5_40_mm_length</v>
       </c>
       <c r="E88" s="1">
-        <v>1851040</v>
+        <v>1851140</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470040</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D89" s="1" t="str">
         <f>"hardware_" &amp; B89 &amp; "_" &amp; C89 &amp; "_" &amp; A89 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_30_mm_length</v>
+        <v>hardware_set_screw_m5_45_mm_length</v>
       </c>
       <c r="E89" s="1">
-        <v>1851050</v>
+        <v>1851142</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470045</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D90" s="1" t="str">
         <f>"hardware_" &amp; B90 &amp; "_" &amp; C90 &amp; "_" &amp; A90 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_35_mm_length</v>
+        <v>hardware_set_screw_m5_50_mm_length</v>
       </c>
       <c r="E90" s="1">
-        <v>1851051</v>
+        <v>1851141</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470050</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D91" s="1" t="str">
         <f>"hardware_" &amp; B91 &amp; "_" &amp; C91 &amp; "_" &amp; A91 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_40_mm_length</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1851052</v>
+        <v>hardware_set_screw_m5_55_mm_length</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470055</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1" t="str">
         <f>"hardware_" &amp; B92 &amp; "_" &amp; C92 &amp; "_" &amp; A92 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_50_mm_length</v>
+        <v>hardware_set_screw_m5_60_mm_length</v>
       </c>
       <c r="E92" s="1">
-        <v>1851054</v>
+        <v>1851143</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470060</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D93" s="1" t="str">
         <f>"hardware_" &amp; B93 &amp; "_" &amp; C93 &amp; "_" &amp; A93 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_8_mm_length</v>
+        <v>hardware_set_screw_m5_70_mm_length</v>
       </c>
       <c r="E93" s="1">
-        <v>1850990</v>
+        <v>1851145</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M470070</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D94" s="1" t="str">
         <f>"hardware_" &amp; B94 &amp; "_" &amp; C94 &amp; "_" &amp; A94 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_10_mm_length</v>
+        <v>hardware_set_screw_m5_8_mm_length</v>
       </c>
       <c r="E94" s="1">
-        <v>1851070</v>
+        <v>1851060</v>
       </c>
       <c r="F94" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470010</v>
+        <v>Z0318M47008</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D95" s="1" t="str">
         <f>"hardware_" &amp; B95 &amp; "_" &amp; C95 &amp; "_" &amp; A95 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_12_mm_length</v>
+        <v>hardware_set_screw_m5_80_mm_length</v>
       </c>
       <c r="E95" s="1">
-        <v>1851080</v>
+        <v>1851147</v>
       </c>
       <c r="F95" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470012</v>
+        <v>Z0318M470080</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D96" s="1" t="str">
         <f>"hardware_" &amp; B96 &amp; "_" &amp; C96 &amp; "_" &amp; A96 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_16_mm_length</v>
+        <v>hardware_set_screw_m6_10_mm_length</v>
       </c>
       <c r="E96" s="1">
-        <v>1851090</v>
+        <v>1851150</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470016</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490010</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D97" s="1" t="str">
         <f>"hardware_" &amp; B97 &amp; "_" &amp; C97 &amp; "_" &amp; A97 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_18_mm_length</v>
-      </c>
-      <c r="F97" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470018</v>
+        <v>hardware_set_screw_m6_100_mm_length</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1851253</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D98" s="1" t="str">
         <f>"hardware_" &amp; B98 &amp; "_" &amp; C98 &amp; "_" &amp; A98 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_20_mm_length</v>
+        <v>hardware_set_screw_m6_12_mm_length</v>
       </c>
       <c r="E98" s="1">
-        <v>1851100</v>
+        <v>1851160</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470020</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490012</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D99" s="1" t="str">
         <f>"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_" &amp; A99 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_22_mm_length</v>
+        <v>hardware_set_screw_m6_16_mm_length</v>
       </c>
       <c r="E99" s="1">
-        <v>1851105</v>
+        <v>1851170</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470022</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490016</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D100" s="1" t="str">
         <f>"hardware_" &amp; B100 &amp; "_" &amp; C100 &amp; "_" &amp; A100 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_25_mm_length</v>
+        <v>hardware_set_screw_m6_18_mm_length</v>
       </c>
       <c r="E100" s="1">
-        <v>1851110</v>
+        <v>1851178</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470025</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490018</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D101" s="1" t="str">
         <f>"hardware_" &amp; B101 &amp; "_" &amp; C101 &amp; "_" &amp; A101 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_30_mm_length</v>
+        <v>hardware_set_screw_m6_20_mm_length</v>
       </c>
       <c r="E101" s="1">
-        <v>1851120</v>
+        <v>1851180</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470030</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490020</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D102" s="1" t="str">
         <f>"hardware_" &amp; B102 &amp; "_" &amp; C102 &amp; "_" &amp; A102 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_35_mm_length</v>
+        <v>hardware_set_screw_m6_22_mm_length</v>
       </c>
       <c r="E102" s="1">
-        <v>1851130</v>
+        <v>1851182</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470035</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490022</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D103" s="1" t="str">
         <f>"hardware_" &amp; B103 &amp; "_" &amp; C103 &amp; "_" &amp; A103 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_40_mm_length</v>
+        <v>hardware_set_screw_m6_25_mm_length</v>
       </c>
       <c r="E103" s="1">
-        <v>1851140</v>
+        <v>1851190</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470040</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490025</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D104" s="1" t="str">
         <f>"hardware_" &amp; B104 &amp; "_" &amp; C104 &amp; "_" &amp; A104 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_45_mm_length</v>
+        <v>hardware_set_screw_m6_30_mm_length</v>
       </c>
       <c r="E104" s="1">
-        <v>1851142</v>
+        <v>1851200</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470045</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490030</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D105" s="1" t="str">
         <f>"hardware_" &amp; B105 &amp; "_" &amp; C105 &amp; "_" &amp; A105 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_50_mm_length</v>
+        <v>hardware_set_screw_m6_35_mm_length</v>
       </c>
       <c r="E105" s="1">
-        <v>1851141</v>
+        <v>1851210</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470050</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490035</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D106" s="1" t="str">
         <f>"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_" &amp; A106 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_55_mm_length</v>
+        <v>hardware_set_screw_m6_40_mm_length</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1851220</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470055</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490040</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D107" s="1" t="str">
         <f>"hardware_" &amp; B107 &amp; "_" &amp; C107 &amp; "_" &amp; A107 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_60_mm_length</v>
+        <v>hardware_set_screw_m6_45_mm_length</v>
       </c>
       <c r="E107" s="1">
-        <v>1851143</v>
+        <v>1851225</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470060</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490045</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D108" s="1" t="str">
         <f>"hardware_" &amp; B108 &amp; "_" &amp; C108 &amp; "_" &amp; A108 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_70_mm_length</v>
+        <v>hardware_set_screw_m6_50_mm_length</v>
       </c>
       <c r="E108" s="1">
-        <v>1851145</v>
+        <v>1851230</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470070</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490050</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D109" s="1" t="str">
         <f>"hardware_" &amp; B109 &amp; "_" &amp; C109 &amp; "_" &amp; A109 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_8_mm_length</v>
+        <v>hardware_set_screw_m6_55_mm_length</v>
       </c>
       <c r="E109" s="1">
-        <v>1851060</v>
+        <v>1851235</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M47008</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490055</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D110" s="1" t="str">
         <f>"hardware_" &amp; B110 &amp; "_" &amp; C110 &amp; "_" &amp; A110 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m5_80_mm_length</v>
+        <v>hardware_set_screw_m6_60_mm_length</v>
       </c>
       <c r="E110" s="1">
-        <v>1851147</v>
+        <v>1851240</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M470080</v>
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490060</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D111" s="1" t="str">
         <f>"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_" &amp; A111 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_10_mm_length</v>
+        <v>hardware_set_screw_m6_65_mm_length</v>
       </c>
       <c r="E111" s="1">
-        <v>1851150</v>
+        <v>1851245</v>
       </c>
       <c r="F111" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490010</v>
+        <v>Z0318M490065</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D112" s="1" t="str">
         <f>"hardware_" &amp; B112 &amp; "_" &amp; C112 &amp; "_" &amp; A112 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_100_mm_length</v>
+        <v>hardware_set_screw_m6_70_mm_length</v>
       </c>
       <c r="E112" s="1">
-        <v>1851253</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>74</v>
+        <v>1851250</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M490070</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D113" s="1" t="str">
         <f>"hardware_" &amp; B113 &amp; "_" &amp; C113 &amp; "_" &amp; A113 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_12_mm_length</v>
+        <v>hardware_set_screw_m6_75_mm_length</v>
       </c>
       <c r="E113" s="1">
-        <v>1851160</v>
+        <v>1851247</v>
       </c>
       <c r="F113" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490012</v>
+        <v>Z0318M490075</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D114" s="1" t="str">
         <f>"hardware_" &amp; B114 &amp; "_" &amp; C114 &amp; "_" &amp; A114 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_16_mm_length</v>
+        <v>hardware_set_screw_m6_8_mm_length</v>
       </c>
       <c r="E114" s="1">
-        <v>1851170</v>
-      </c>
-      <c r="F114" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490016</v>
+        <v>1851149</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D115" s="1" t="str">
         <f>"hardware_" &amp; B115 &amp; "_" &amp; C115 &amp; "_" &amp; A115 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_18_mm_length</v>
+        <v>hardware_set_screw_m6_80_mm_length</v>
       </c>
       <c r="E115" s="1">
-        <v>1851178</v>
+        <v>1851251</v>
       </c>
       <c r="F115" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490018</v>
+        <v>Z0318M490080</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D116" s="1" t="str">
         <f>"hardware_" &amp; B116 &amp; "_" &amp; C116 &amp; "_" &amp; A116 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_20_mm_length</v>
+        <v>hardware_set_screw_m6_90_mm_length</v>
       </c>
       <c r="E116" s="1">
-        <v>1851180</v>
+        <v>1851252</v>
       </c>
       <c r="F116" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490020</v>
+        <v>Z0318M490090</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D117" s="1" t="str">
         <f>"hardware_" &amp; B117 &amp; "_" &amp; C117 &amp; "_" &amp; A117 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_22_mm_length</v>
+        <v>hardware_set_screw_m8_10_mm_length</v>
       </c>
       <c r="E117" s="1">
-        <v>1851182</v>
+        <v>1851254</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490022</v>
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540010</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D118" s="1" t="str">
         <f>"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_" &amp; A118 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_25_mm_length</v>
+        <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
       <c r="E118" s="1">
-        <v>1851190</v>
-      </c>
-      <c r="F118" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490025</v>
+        <v>1851253</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D119" s="1" t="str">
         <f>"hardware_" &amp; B119 &amp; "_" &amp; C119 &amp; "_" &amp; A119 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_30_mm_length</v>
+        <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
       <c r="E119" s="1">
-        <v>1851200</v>
+        <v>1851412</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490030</v>
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540100</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D120" s="1" t="str">
         <f>"hardware_" &amp; B120 &amp; "_" &amp; C120 &amp; "_" &amp; A120 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_35_mm_length</v>
+        <v>hardware_set_screw_m8_110_mm_length</v>
       </c>
       <c r="E120" s="1">
-        <v>1851210</v>
+        <v>1851413</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490035</v>
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540110</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D121" s="1" t="str">
         <f>"hardware_" &amp; B121 &amp; "_" &amp; C121 &amp; "_" &amp; A121 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_40_mm_length</v>
+        <v>hardware_set_screw_m8_12_mm_length</v>
       </c>
       <c r="E121" s="1">
-        <v>1851220</v>
+        <v>1851270</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490040</v>
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540012</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D122" s="1" t="str">
         <f>"hardware_" &amp; B122 &amp; "_" &amp; C122 &amp; "_" &amp; A122 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_45_mm_length</v>
+        <v>hardware_set_screw_m8_120_mm_length</v>
       </c>
       <c r="E122" s="1">
-        <v>1851225</v>
+        <v>1851414</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490045</v>
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540120</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D123" s="1" t="str">
         <f>"hardware_" &amp; B123 &amp; "_" &amp; C123 &amp; "_" &amp; A123 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_50_mm_length</v>
+        <v>hardware_set_screw_m8_130_mm_length</v>
       </c>
       <c r="E123" s="1">
-        <v>1851230</v>
+        <v>1851415</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490050</v>
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540130</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D124" s="1" t="str">
         <f>"hardware_" &amp; B124 &amp; "_" &amp; C124 &amp; "_" &amp; A124 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_55_mm_length</v>
+        <v>hardware_set_screw_m8_140_mm_length</v>
       </c>
       <c r="E124" s="1">
-        <v>1851235</v>
+        <v>1851416</v>
       </c>
       <c r="F124" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490055</v>
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540140</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D125" s="1" t="str">
         <f>"hardware_" &amp; B125 &amp; "_" &amp; C125 &amp; "_" &amp; A125 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_60_mm_length</v>
+        <v>hardware_set_screw_m8_150_mm_length</v>
       </c>
       <c r="E125" s="1">
-        <v>1851240</v>
+        <v>1851417</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490060</v>
+        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540150</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D126" s="1" t="str">
         <f>"hardware_" &amp; B126 &amp; "_" &amp; C126 &amp; "_" &amp; A126 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_65_mm_length</v>
+        <v>hardware_set_screw_m8_16_mm_length</v>
       </c>
       <c r="E126" s="1">
-        <v>1851245</v>
+        <v>1851280</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490065</v>
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540016</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D127" s="1" t="str">
         <f>"hardware_" &amp; B127 &amp; "_" &amp; C127 &amp; "_" &amp; A127 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_70_mm_length</v>
+        <v>hardware_set_screw_m8_20_mm_length</v>
       </c>
       <c r="E127" s="1">
-        <v>1851250</v>
+        <v>1851290</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490070</v>
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540020</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D128" s="1" t="str">
         <f>"hardware_" &amp; B128 &amp; "_" &amp; C128 &amp; "_" &amp; A128 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_75_mm_length</v>
+        <v>hardware_set_screw_m8_25_mm_length</v>
       </c>
       <c r="E128" s="1">
-        <v>1851247</v>
+        <v>1851300</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490075</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540025</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D129" s="1" t="str">
         <f>"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_" &amp; A129 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_8_mm_length</v>
+        <v>hardware_set_screw_m8_30_mm_length</v>
       </c>
       <c r="E129" s="1">
-        <v>1851149</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1851310</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540030</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D130" s="1" t="str">
         <f>"hardware_" &amp; B130 &amp; "_" &amp; C130 &amp; "_" &amp; A130 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_80_mm_length</v>
+        <v>hardware_set_screw_m8_35_mm_length</v>
       </c>
       <c r="E130" s="1">
-        <v>1851251</v>
+        <v>1851320</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490080</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540035</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D131" s="1" t="str">
         <f>"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_" &amp; A131 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_90_mm_length</v>
+        <v>hardware_set_screw_m8_40_mm_length</v>
       </c>
       <c r="E131" s="1">
-        <v>1851252</v>
+        <v>1851330</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M490090</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540040</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D132" s="1" t="str">
         <f>"hardware_" &amp; B132 &amp; "_" &amp; C132 &amp; "_" &amp; A132 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_10_mm_length</v>
+        <v>hardware_set_screw_m8_45_mm_length</v>
       </c>
       <c r="E132" s="1">
-        <v>1851254</v>
+        <v>1851340</v>
       </c>
       <c r="F132" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540010</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Z0318M540045</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D133" s="1" t="str">
         <f>"hardware_" &amp; B133 &amp; "_" &amp; C133 &amp; "_" &amp; A133 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_100_mm_length</v>
+        <v>hardware_set_screw_m8_50_mm_length</v>
       </c>
       <c r="E133" s="1">
-        <v>1851253</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1851350</v>
+      </c>
+      <c r="F133" s="1" t="str">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540050</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D134" s="1" t="str">
         <f>"hardware_" &amp; B134 &amp; "_" &amp; C134 &amp; "_" &amp; A134 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_100_mm_length</v>
+        <v>hardware_set_screw_m8_55_mm_length</v>
       </c>
       <c r="E134" s="1">
-        <v>1851412</v>
+        <v>1851360</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540055</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D135" s="1" t="str">
         <f>"hardware_" &amp; B135 &amp; "_" &amp; C135 &amp; "_" &amp; A135 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_110_mm_length</v>
+        <v>hardware_set_screw_m8_60_mm_length</v>
       </c>
       <c r="E135" s="1">
-        <v>1851413</v>
+        <v>1851370</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540060</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D136" s="1" t="str">
         <f>"hardware_" &amp; B136 &amp; "_" &amp; C136 &amp; "_" &amp; A136 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_12_mm_length</v>
+        <v>hardware_set_screw_m8_65_mm_length</v>
       </c>
       <c r="E136" s="1">
-        <v>1851270</v>
+        <v>1851380</v>
       </c>
       <c r="F136" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540012</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Z0318M540065</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D137" s="1" t="str">
         <f>"hardware_" &amp; B137 &amp; "_" &amp; C137 &amp; "_" &amp; A137 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_120_mm_length</v>
+        <v>hardware_set_screw_m8_70_mm_length</v>
       </c>
       <c r="E137" s="1">
-        <v>1851414</v>
+        <v>1851390</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540070</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D138" s="1" t="str">
         <f>"hardware_" &amp; B138 &amp; "_" &amp; C138 &amp; "_" &amp; A138 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_130_mm_length</v>
+        <v>hardware_set_screw_m8_75_mm_length</v>
       </c>
       <c r="E138" s="1">
-        <v>1851415</v>
+        <v>1851400</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540075</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D139" s="1" t="str">
         <f>"hardware_" &amp; B139 &amp; "_" &amp; C139 &amp; "_" &amp; A139 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_140_mm_length</v>
+        <v>hardware_set_screw_m8_80_mm_length</v>
       </c>
       <c r="E139" s="1">
-        <v>1851416</v>
+        <v>1851410</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540140</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>Z0318M540080</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D140" s="1" t="str">
         <f>"hardware_" &amp; B140 &amp; "_" &amp; C140 &amp; "_" &amp; A140 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_150_mm_length</v>
+        <v>hardware_set_screw_m8_90_mm_length</v>
       </c>
       <c r="E140" s="1">
-        <v>1851417</v>
+        <v>1851411</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>16</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D141" s="1" t="str">
-        <f>"hardware_" &amp; B141 &amp; "_" &amp; C141 &amp; "_" &amp; A141 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_16_mm_length</v>
-      </c>
-      <c r="E141" s="1">
-        <v>1851280</v>
-      </c>
-      <c r="F141" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540016</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>20</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D142" s="1" t="str">
-        <f>"hardware_" &amp; B142 &amp; "_" &amp; C142 &amp; "_" &amp; A142 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_20_mm_length</v>
-      </c>
-      <c r="E142" s="1">
-        <v>1851290</v>
-      </c>
-      <c r="F142" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540020</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>25</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D143" s="1" t="str">
-        <f>"hardware_" &amp; B143 &amp; "_" &amp; C143 &amp; "_" &amp; A143 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_25_mm_length</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1851300</v>
-      </c>
-      <c r="F143" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540025</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>30</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D144" s="1" t="str">
-        <f>"hardware_" &amp; B144 &amp; "_" &amp; C144 &amp; "_" &amp; A144 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_30_mm_length</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1851310</v>
-      </c>
-      <c r="F144" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540030</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>35</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D145" s="1" t="str">
-        <f>"hardware_" &amp; B145 &amp; "_" &amp; C145 &amp; "_" &amp; A145 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_35_mm_length</v>
-      </c>
-      <c r="E145" s="1">
-        <v>1851320</v>
-      </c>
-      <c r="F145" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540035</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>40</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146" s="1" t="str">
-        <f>"hardware_" &amp; B146 &amp; "_" &amp; C146 &amp; "_" &amp; A146 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_40_mm_length</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1851330</v>
-      </c>
-      <c r="F146" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540040</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>45</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D147" s="1" t="str">
-        <f>"hardware_" &amp; B147 &amp; "_" &amp; C147 &amp; "_" &amp; A147 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_45_mm_length</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1851340</v>
-      </c>
-      <c r="F147" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540045</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>50</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D148" s="1" t="str">
-        <f>"hardware_" &amp; B148 &amp; "_" &amp; C148 &amp; "_" &amp; A148 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_50_mm_length</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1851350</v>
-      </c>
-      <c r="F148" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540050</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>55</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D149" s="1" t="str">
-        <f>"hardware_" &amp; B149 &amp; "_" &amp; C149 &amp; "_" &amp; A149 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_55_mm_length</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1851360</v>
-      </c>
-      <c r="F149" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540055</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>60</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D150" s="1" t="str">
-        <f>"hardware_" &amp; B150 &amp; "_" &amp; C150 &amp; "_" &amp; A150 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_60_mm_length</v>
-      </c>
-      <c r="E150" s="1">
-        <v>1851370</v>
-      </c>
-      <c r="F150" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540060</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>65</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D151" s="1" t="str">
-        <f>"hardware_" &amp; B151 &amp; "_" &amp; C151 &amp; "_" &amp; A151 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_65_mm_length</v>
-      </c>
-      <c r="E151" s="1">
-        <v>1851380</v>
-      </c>
-      <c r="F151" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540065</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>70</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D152" s="1" t="str">
-        <f>"hardware_" &amp; B152 &amp; "_" &amp; C152 &amp; "_" &amp; A152 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_70_mm_length</v>
-      </c>
-      <c r="E152" s="1">
-        <v>1851390</v>
-      </c>
-      <c r="F152" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540070</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>75</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D153" s="1" t="str">
-        <f>"hardware_" &amp; B153 &amp; "_" &amp; C153 &amp; "_" &amp; A153 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_75_mm_length</v>
-      </c>
-      <c r="E153" s="1">
-        <v>1851400</v>
-      </c>
-      <c r="F153" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540075</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>80</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D154" s="1" t="str">
-        <f>"hardware_" &amp; B154 &amp; "_" &amp; C154 &amp; "_" &amp; A154 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_80_mm_length</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1851410</v>
-      </c>
-      <c r="F154" s="1" t="str">
-        <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
-        <v>Z0318M540080</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>90</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D155" s="1" t="str">
-        <f>"hardware_" &amp; B155 &amp; "_" &amp; C155 &amp; "_" &amp; A155 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m8_90_mm_length</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1851411</v>
-      </c>
-      <c r="F155" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540090</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E156" s="1">
+    <row r="141" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="1">
         <v>1711000</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G156" s="1" t="s">
+      <c r="F141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H141" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E157" s="1">
+    <row r="142" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="1">
         <v>1731000</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H142" s="1">
         <v>100</v>
       </c>
     </row>

--- a/working_xlsx.xlsx
+++ b/working_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GH\oomlout_oomp_data_injector_bolt_part_numbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B846F-B318-49C6-8A58-D9727875D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81023836-A0BE-4180-BAEA-E2395026A971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
+    <workbookView xWindow="25080" yWindow="-690" windowWidth="29040" windowHeight="16440" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
   </bookViews>
   <sheets>
     <sheet name="working_xlsx" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="61">
   <si>
     <t>working_1_length</t>
   </si>
@@ -131,12 +131,6 @@
     <t>1151M390035</t>
   </si>
   <si>
-    <t>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</t>
-  </si>
-  <si>
-    <t>1150M390008</t>
-  </si>
-  <si>
     <t>hardware_nut_m3</t>
   </si>
   <si>
@@ -183,6 +177,45 @@
   </si>
   <si>
     <t>screw_socket_cap</t>
+  </si>
+  <si>
+    <t>nut</t>
+  </si>
+  <si>
+    <t>Z0322M45</t>
+  </si>
+  <si>
+    <t>Z0322M49</t>
+  </si>
+  <si>
+    <t>Z0322M54</t>
+  </si>
+  <si>
+    <t>Z0332M47</t>
+  </si>
+  <si>
+    <t>locking</t>
+  </si>
+  <si>
+    <t>coupling</t>
+  </si>
+  <si>
+    <t>1657M45</t>
+  </si>
+  <si>
+    <t>1657M47</t>
+  </si>
+  <si>
+    <t>1657M49</t>
+  </si>
+  <si>
+    <t>1657M54</t>
+  </si>
+  <si>
+    <t>washer</t>
+  </si>
+  <si>
+    <t>penny</t>
   </si>
 </sst>
 </file>
@@ -976,8 +1009,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}" name="Table1" displayName="Table1" ref="A1:N1048561" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N1048561" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N159">
-    <sortCondition ref="D2:D159"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N221">
+    <sortCondition ref="D2:D221"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{81BE6127-1FAC-43B6-B435-E83C50450D0E}" name="working_1_length" dataDxfId="13"/>
@@ -1316,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162B66-111D-4E55-92AB-8A3902FD99ED}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -1382,13 +1415,13 @@
     </row>
     <row r="2" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>1771000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -1413,3069 +1446,4599 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"hardware_" &amp; B3 &amp; "_" &amp; C3</f>
+        <v>hardware_nut_m4</v>
       </c>
       <c r="E3" s="1">
-        <v>1901020</v>
+        <v>1771010</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1">
-        <v>110</v>
-      </c>
-      <c r="J3" s="1">
-        <v>57.64</v>
-      </c>
-      <c r="K3" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>"hardware_" &amp; B4 &amp; "_" &amp; C4 &amp; "_" &amp;Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_nut_m4_locking</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1781010</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="N3" s="1">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1901030</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>90</v>
-      </c>
-      <c r="J4" s="1">
-        <v>54.72</v>
-      </c>
-      <c r="K4" s="1">
+    </row>
+    <row r="5" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>"hardware_" &amp; B5 &amp; "_" &amp; C5</f>
+        <v>hardware_nut_m5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1771020</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>"hardware_" &amp; B6 &amp; "_" &amp; C6 &amp; "_" &amp;Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_nut_m5_locking</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1781020</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>"hardware_" &amp; B7 &amp; "_" &amp; C7</f>
+        <v>hardware_nut_m6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1771030</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>"hardware_" &amp; B8 &amp; "_" &amp; C8 &amp; "_" &amp;Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_nut_m6_coupling</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1961000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>"hardware_" &amp; B9 &amp; "_" &amp; C9 &amp; "_" &amp;Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_nut_m6_locking</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1781030</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="N4" s="1">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1901040</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="1">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1">
-        <v>53.76</v>
-      </c>
-      <c r="K5" s="1">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="N5" s="1">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1901050</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1">
-        <v>46.75</v>
-      </c>
-      <c r="K6" s="1">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="N6" s="1">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1901051</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="1">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1">
-        <v>46.76</v>
-      </c>
-      <c r="K7" s="1">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.169</v>
-      </c>
-      <c r="N7" s="1">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1901052</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1901054</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
+      <c r="D10" s="1" t="str">
+        <f>"hardware_" &amp; B10 &amp; "_" &amp; C10</f>
+        <v>hardware_nut_m8</v>
       </c>
       <c r="E10" s="1">
-        <v>1901000</v>
+        <v>1771040</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="1">
-        <v>150</v>
-      </c>
-      <c r="J10" s="1">
-        <v>53.7</v>
-      </c>
-      <c r="K10" s="1">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3.58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>"hardware_" &amp; B11 &amp; "_" &amp; C11 &amp; "_" &amp;Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_nut_m8_coupling</v>
       </c>
       <c r="E11" s="1">
-        <v>1901010</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1">
-        <v>120</v>
-      </c>
-      <c r="J11" s="1">
-        <v>53.4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>60</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>4.45</v>
+        <v>1961010</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>"hardware_" &amp; B12 &amp; "_" &amp; C12 &amp; "_" &amp;Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_nut_m8_locking</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1781040</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1901020</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>200</v>
+      </c>
+      <c r="I13" s="1">
+        <v>110</v>
+      </c>
+      <c r="J13" s="1">
+        <v>57.64</v>
+      </c>
+      <c r="K13" s="1">
+        <v>55</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1901030</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
+      <c r="I14" s="1">
+        <v>90</v>
+      </c>
+      <c r="J14" s="1">
+        <v>54.72</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1901040</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1">
+        <v>53.76</v>
+      </c>
+      <c r="K15" s="1">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1901050</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
+      <c r="I16" s="1">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="K16" s="1">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="N16" s="1">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1901051</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40</v>
+      </c>
+      <c r="J17" s="1">
+        <v>46.76</v>
+      </c>
+      <c r="K17" s="1">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.169</v>
+      </c>
+      <c r="N17" s="1">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1901052</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1901054</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1901000</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>200</v>
+      </c>
+      <c r="I20" s="1">
+        <v>150</v>
+      </c>
+      <c r="J20" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="K20" s="1">
+        <v>75</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1901010</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1">
+        <v>120</v>
+      </c>
+      <c r="J21" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>60</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f>"hardware_" &amp; B12 &amp; "_" &amp; C12 &amp; "_black_" &amp; A12 &amp; "_mm_length_hex_head"</f>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_black_" &amp; A22 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_10_mm_length_hex_head</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E22" s="1">
         <v>1901070</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F22" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450010</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="23" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f>"hardware_" &amp; B13 &amp; "_" &amp; C13 &amp; "_black_" &amp; A13 &amp; "_mm_length_hex_head"</f>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>"hardware_" &amp; B23 &amp; "_" &amp; C23 &amp; "_black_" &amp; A23 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_12_mm_length_hex_head</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E23" s="1">
         <v>1901080</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F23" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450012</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="24" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="str">
-        <f>"hardware_" &amp; B14 &amp; "_" &amp; C14 &amp; "_black_" &amp; A14 &amp; "_mm_length_hex_head"</f>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>"hardware_" &amp; B24 &amp; "_" &amp; C24 &amp; "_black_" &amp; A24 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_16_mm_length_hex_head</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E24" s="1">
         <v>1901090</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F24" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450016</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="25" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="str">
-        <f>"hardware_" &amp; B15 &amp; "_" &amp; C15 &amp; "_black_" &amp; A15 &amp; "_mm_length_hex_head"</f>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>"hardware_" &amp; B25 &amp; "_" &amp; C25 &amp; "_black_" &amp; A25 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_20_mm_length_hex_head</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E25" s="1">
         <v>1901100</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F25" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450020</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="26" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="str">
-        <f>"hardware_" &amp; B16 &amp; "_" &amp; C16 &amp; "_black_" &amp; A16 &amp; "_mm_length_hex_head"</f>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>"hardware_" &amp; B26 &amp; "_" &amp; C26 &amp; "_black_" &amp; A26 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_25_mm_length_hex_head</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E26" s="1">
         <v>1901110</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F26" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450025</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="27" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="str">
-        <f>"hardware_" &amp; B17 &amp; "_" &amp; C17 &amp; "_black_" &amp; A17 &amp; "_mm_length_hex_head"</f>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>"hardware_" &amp; B27 &amp; "_" &amp; C27 &amp; "_black_" &amp; A27 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_30_mm_length_hex_head</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E27" s="1">
         <v>1901120</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F27" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450030</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="28" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="1" t="str">
-        <f>"hardware_" &amp; B18 &amp; "_" &amp; C18 &amp; "_black_" &amp; A18 &amp; "_mm_length_hex_head"</f>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>"hardware_" &amp; B28 &amp; "_" &amp; C28 &amp; "_black_" &amp; A28 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_35_mm_length_hex_head</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E28" s="1">
         <v>1901122</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F28" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450035</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="29" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="str">
-        <f>"hardware_" &amp; B19 &amp; "_" &amp; C19 &amp; "_black_" &amp; A19 &amp; "_mm_length_hex_head"</f>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>"hardware_" &amp; B29 &amp; "_" &amp; C29 &amp; "_black_" &amp; A29 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_40_mm_length_hex_head</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E29" s="1">
         <v>1901124</v>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450040</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="30" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="str">
-        <f>"hardware_" &amp; B20 &amp; "_" &amp; C20 &amp; "_black_" &amp; A20 &amp; "_mm_length_hex_head"</f>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_black_" &amp; A30 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_6_mm_length_hex_head</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E30" s="1">
         <v>1901055</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f>"1151M45000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450006</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="31" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>"hardware_" &amp; B21 &amp; "_" &amp; C21 &amp; "_black_" &amp; A21 &amp; "_mm_length_hex_head"</f>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_black_" &amp; A31 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_10_mm_length_hex_head</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E31" s="1">
         <v>1901140</v>
       </c>
-      <c r="F21" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470010</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="32" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_black_" &amp; A22 &amp; "_mm_length_hex_head"</f>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>"hardware_" &amp; B32 &amp; "_" &amp; C32 &amp; "_black_" &amp; A32 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_12_mm_length_hex_head</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E32" s="1">
         <v>1901150</v>
       </c>
-      <c r="F22" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470012</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>"hardware_" &amp; B23 &amp; "_" &amp; C23 &amp; "_black_" &amp; A23 &amp; "_mm_length_hex_head"</f>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>"hardware_" &amp; B33 &amp; "_" &amp; C33 &amp; "_black_" &amp; A33 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_16_mm_length_hex_head</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E33" s="1">
         <v>1901160</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="F33" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470016</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>"hardware_" &amp; B24 &amp; "_" &amp; C24 &amp; "_black_" &amp; A24 &amp; "_mm_length_hex_head"</f>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>"hardware_" &amp; B34 &amp; "_" &amp; C34 &amp; "_black_" &amp; A34 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_20_mm_length_hex_head</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E34" s="1">
         <v>1901170</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="F34" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470020</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="35" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f>"hardware_" &amp; B25 &amp; "_" &amp; C25 &amp; "_black_" &amp; A25 &amp; "_mm_length_hex_head"</f>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>"hardware_" &amp; B35 &amp; "_" &amp; C35 &amp; "_black_" &amp; A35 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_25_mm_length_hex_head</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E35" s="1">
         <v>1901180</v>
       </c>
-      <c r="F25" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470025</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f>"hardware_" &amp; B26 &amp; "_" &amp; C26 &amp; "_black_" &amp; A26 &amp; "_mm_length_hex_head"</f>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>"hardware_" &amp; B36 &amp; "_" &amp; C36 &amp; "_black_" &amp; A36 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_30_mm_length_hex_head</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E36" s="1">
         <v>1901190</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470030</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f>"hardware_" &amp; B27 &amp; "_" &amp; C27 &amp; "_black_" &amp; A27 &amp; "_mm_length_hex_head"</f>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>"hardware_" &amp; B37 &amp; "_" &amp; C37 &amp; "_black_" &amp; A37 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_35_mm_length_hex_head</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E37" s="1">
         <v>1901200</v>
       </c>
-      <c r="F27" s="1" t="str">
+      <c r="F37" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470035</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f>"hardware_" &amp; B28 &amp; "_" &amp; C28 &amp; "_black_" &amp; A28 &amp; "_mm_length_hex_head"</f>
+    <row r="38" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>"hardware_" &amp; B38 &amp; "_" &amp; C38 &amp; "_black_" &amp; A38 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_40_mm_length_hex_head</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E38" s="1">
         <v>1901210</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="F38" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470040</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="39" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>45</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>"hardware_" &amp; B29 &amp; "_" &amp; C29 &amp; "_black_" &amp; A29 &amp; "_mm_length_hex_head"</f>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>"hardware_" &amp; B39 &amp; "_" &amp; C39 &amp; "_black_" &amp; A39 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_45_mm_length_hex_head</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E39" s="1">
         <v>1901212</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="F39" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470045</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="40" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_black_" &amp; A30 &amp; "_mm_length_hex_head"</f>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>"hardware_" &amp; B40 &amp; "_" &amp; C40 &amp; "_black_" &amp; A40 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_50_mm_length_hex_head</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E40" s="1">
         <v>1901220</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470050</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="41" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_black_" &amp; A31 &amp; "_mm_length_hex_head"</f>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>"hardware_" &amp; B41 &amp; "_" &amp; C41 &amp; "_black_" &amp; A41 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m5_black_8_mm_length_hex_head</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E41" s="1">
         <v>1901130</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F41" s="1" t="str">
         <f>"1151M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470008</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="42" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f>"hardware_" &amp; B32 &amp; "_" &amp; C32 &amp; "_black_" &amp; A32 &amp; "_mm_length_hex_head"</f>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>"hardware_" &amp; B42 &amp; "_" &amp; C42 &amp; "_black_" &amp; A42 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_10_mm_length_hex_head</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E42" s="1">
         <v>1901250</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F42" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490010</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="43" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>"hardware_" &amp; B33 &amp; "_" &amp; C33 &amp; "_black_" &amp; A33 &amp; "_mm_length_hex_head"</f>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>"hardware_" &amp; B43 &amp; "_" &amp; C43 &amp; "_black_" &amp; A43 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_12_mm_length_hex_head</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E43" s="1">
         <v>1901260</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F43" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490012</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="44" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>16</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>"hardware_" &amp; B34 &amp; "_" &amp; C34 &amp; "_black_" &amp; A34 &amp; "_mm_length_hex_head"</f>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>"hardware_" &amp; B44 &amp; "_" &amp; C44 &amp; "_black_" &amp; A44 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_16_mm_length_hex_head</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E44" s="1">
         <v>1901270</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F44" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490016</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="45" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>20</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>"hardware_" &amp; B35 &amp; "_" &amp; C35 &amp; "_black_" &amp; A35 &amp; "_mm_length_hex_head"</f>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>"hardware_" &amp; B45 &amp; "_" &amp; C45 &amp; "_black_" &amp; A45 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_20_mm_length_hex_head</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E45" s="1">
         <v>1901280</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F45" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490020</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="46" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f>"hardware_" &amp; B36 &amp; "_" &amp; C36 &amp; "_black_" &amp; A36 &amp; "_mm_length_hex_head"</f>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>"hardware_" &amp; B46 &amp; "_" &amp; C46 &amp; "_black_" &amp; A46 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_25_mm_length_hex_head</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E46" s="1">
         <v>1901290</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F46" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490025</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="47" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f>"hardware_" &amp; B37 &amp; "_" &amp; C37 &amp; "_black_" &amp; A37 &amp; "_mm_length_hex_head"</f>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>"hardware_" &amp; B47 &amp; "_" &amp; C47 &amp; "_black_" &amp; A47 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_30_mm_length_hex_head</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E47" s="1">
         <v>1901300</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F47" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490030</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="48" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f>"hardware_" &amp; B38 &amp; "_" &amp; C38 &amp; "_black_" &amp; A38 &amp; "_mm_length_hex_head"</f>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>"hardware_" &amp; B48 &amp; "_" &amp; C48 &amp; "_black_" &amp; A48 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_35_mm_length_hex_head</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E48" s="1">
         <v>1901310</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F48" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490035</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f>"hardware_" &amp; B39 &amp; "_" &amp; C39 &amp; "_black_" &amp; A39 &amp; "_mm_length_hex_head"</f>
+    <row r="49" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>"hardware_" &amp; B49 &amp; "_" &amp; C49 &amp; "_black_" &amp; A49 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_40_mm_length_hex_head</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E49" s="1">
         <v>1901320</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F49" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490040</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="50" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>45</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f>"hardware_" &amp; B40 &amp; "_" &amp; C40 &amp; "_black_" &amp; A40 &amp; "_mm_length_hex_head"</f>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>"hardware_" &amp; B50 &amp; "_" &amp; C50 &amp; "_black_" &amp; A50 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_45_mm_length_hex_head</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E50" s="1">
         <v>1901321</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F50" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490045</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="51" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f>"hardware_" &amp; B41 &amp; "_" &amp; C41 &amp; "_black_" &amp; A41 &amp; "_mm_length_hex_head"</f>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>"hardware_" &amp; B51 &amp; "_" &amp; C51 &amp; "_black_" &amp; A51 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_50_mm_length_hex_head</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E51" s="1">
         <v>1901322</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F51" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490050</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="52" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>55</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f>"hardware_" &amp; B42 &amp; "_" &amp; C42 &amp; "_black_" &amp; A42 &amp; "_mm_length_hex_head"</f>
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>"hardware_" &amp; B52 &amp; "_" &amp; C52 &amp; "_black_" &amp; A52 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_55_mm_length_hex_head</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E52" s="1">
         <v>1901323</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F52" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490055</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="53" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>60</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f>"hardware_" &amp; B43 &amp; "_" &amp; C43 &amp; "_black_" &amp; A43 &amp; "_mm_length_hex_head"</f>
+      <c r="B53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>"hardware_" &amp; B53 &amp; "_" &amp; C53 &amp; "_black_" &amp; A53 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_60_mm_length_hex_head</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E53" s="1">
         <v>1901324</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F53" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490060</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="54" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>70</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f>"hardware_" &amp; B44 &amp; "_" &amp; C44 &amp; "_black_" &amp; A44 &amp; "_mm_length_hex_head"</f>
+      <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_black_" &amp; A54 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_70_mm_length_hex_head</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E54" s="1">
         <v>1901325</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F54" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490070</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="55" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>8</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f>"hardware_" &amp; B45 &amp; "_" &amp; C45 &amp; "_black_" &amp; A45 &amp; "_mm_length_hex_head"</f>
+      <c r="B55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>"hardware_" &amp; B55 &amp; "_" &amp; C55 &amp; "_black_" &amp; A55 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_8_mm_length_hex_head</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E55" s="1">
         <v>1901240</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="56" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>80</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f>"hardware_" &amp; B46 &amp; "_" &amp; C46 &amp; "_black_" &amp; A46 &amp; "_mm_length_hex_head"</f>
+      <c r="B56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>"hardware_" &amp; B56 &amp; "_" &amp; C56 &amp; "_black_" &amp; A56 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_80_mm_length_hex_head</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E56" s="1">
         <v>1901326</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="F56" s="1" t="str">
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490080</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="57" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>10</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f>"hardware_" &amp; B47 &amp; "_" &amp; C47 &amp; "_black_" &amp; A47 &amp; "_mm_length_hex_head"</f>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>"hardware_" &amp; B57 &amp; "_" &amp; C57 &amp; "_black_" &amp; A57 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
-      <c r="E47" s="1">
-        <f>E46+10</f>
+      <c r="E57" s="1">
+        <f>E56+10</f>
         <v>1901336</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="F57" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390010</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>12</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <f>"hardware_" &amp; B48 &amp; "_" &amp; C48 &amp; "_black_" &amp; A48 &amp; "_mm_length_hex_head"</f>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>"hardware_" &amp; B58 &amp; "_" &amp; C58 &amp; "_black_" &amp; A58 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
-      <c r="E48" s="1">
-        <f>E47+10</f>
+      <c r="E58" s="1">
+        <f>E57+10</f>
         <v>1901346</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F58" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390012</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="59" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f>"hardware_" &amp; B49 &amp; "_" &amp; C49 &amp; "_black_" &amp; A49 &amp; "_mm_length_hex_head"</f>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>"hardware_" &amp; B59 &amp; "_" &amp; C59 &amp; "_black_" &amp; A59 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
-      <c r="E49" s="1">
-        <f>E48+10</f>
+      <c r="E59" s="1">
+        <f>E58+10</f>
         <v>1901356</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="F59" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390016</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="60" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>20</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f>"hardware_" &amp; B50 &amp; "_" &amp; C50 &amp; "_black_" &amp; A50 &amp; "_mm_length_hex_head"</f>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>"hardware_" &amp; B60 &amp; "_" &amp; C60 &amp; "_black_" &amp; A60 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
-      <c r="E50" s="1">
-        <f>E49+10</f>
+      <c r="E60" s="1">
+        <f>E59+10</f>
         <v>1901366</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="F60" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390020</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="61" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>25</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f>"hardware_" &amp; B51 &amp; "_" &amp; C51 &amp; "_black_" &amp; A51 &amp; "_mm_length_hex_head"</f>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>"hardware_" &amp; B61 &amp; "_" &amp; C61 &amp; "_black_" &amp; A61 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E61" s="1">
         <v>1891052</v>
       </c>
-      <c r="F51" s="1" t="str">
+      <c r="F61" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390025</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="62" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f>"hardware_" &amp; B52 &amp; "_" &amp; C52 &amp; "_black_" &amp; A52 &amp; "_mm_length_hex_head"</f>
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>"hardware_" &amp; B62 &amp; "_" &amp; C62 &amp; "_black_" &amp; A62 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E62" s="1">
         <v>1891054</v>
       </c>
-      <c r="F52" s="1" t="str">
+      <c r="F62" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390030</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="63" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>35</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f>"hardware_" &amp; B53 &amp; "_" &amp; C53 &amp; "_black_" &amp; A53 &amp; "_mm_length_hex_head"</f>
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>"hardware_" &amp; B63 &amp; "_" &amp; C63 &amp; "_black_" &amp; A63 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E63" s="1">
         <v>1891056</v>
       </c>
-      <c r="F53" s="1" t="str">
+      <c r="F63" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390035</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>40</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <f>"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_black_" &amp; A54 &amp; "_mm_length_hex_head"</f>
+    <row r="64" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>40</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_black_" &amp; A64 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E64" s="1">
         <v>1891057</v>
       </c>
-      <c r="F54" s="1" t="str">
+      <c r="F64" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390040</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="65" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>45</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <f>"hardware_" &amp; B55 &amp; "_" &amp; C55 &amp; "_black_" &amp; A55 &amp; "_mm_length_hex_head"</f>
+      <c r="B65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>"hardware_" &amp; B65 &amp; "_" &amp; C65 &amp; "_black_" &amp; A65 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
       </c>
-      <c r="F55" s="1" t="str">
+      <c r="F65" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390045</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>5</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f>"hardware_" &amp; B56 &amp; "_" &amp; C56 &amp; "_black_" &amp; A56 &amp; "_mm_length_hex_head"</f>
+      <c r="B66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_black_" &amp; A66 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
       </c>
-      <c r="F56" s="1" t="str">
+      <c r="F66" s="1" t="str">
         <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>50</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f>"hardware_" &amp; B57 &amp; "_" &amp; C57 &amp; "_black_" &amp; A57 &amp; "_mm_length_hex_head"</f>
+      <c r="B67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>"hardware_" &amp; B67 &amp; "_" &amp; C67 &amp; "_black_" &amp; A67 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E67" s="1">
         <v>1891058</v>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F67" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390050</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="68" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f>"hardware_" &amp; B58 &amp; "_" &amp; C58 &amp; "_black_" &amp; A58 &amp; "_mm_length_hex_head"</f>
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_black_" &amp; A68 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E68" s="1">
         <v>1891000</v>
       </c>
-      <c r="F58" s="1" t="str">
+      <c r="F68" s="1" t="str">
         <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390006</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="69" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>60</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f>"hardware_" &amp; B59 &amp; "_" &amp; C59 &amp; "_black_" &amp; A59 &amp; "_mm_length_hex_head"</f>
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>"hardware_" &amp; B69 &amp; "_" &amp; C69 &amp; "_black_" &amp; A69 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F69" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390060</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>8</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_black_" &amp; A70 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E70" s="1">
         <v>1891010</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>8</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f>"hardware_" &amp; B61 &amp; "_" &amp; C61 &amp; "_black_" &amp; A61 &amp; "_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1891010</v>
-      </c>
-      <c r="F61" s="1" t="str">
+      <c r="F70" s="1" t="str">
         <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390008</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>10</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <f>"hardware_" &amp; B62 &amp; "_" &amp; C62 &amp; "_" &amp; A62 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_10_mm_length</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1850810</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f>"hardware_" &amp; B63 &amp; "_" &amp; C63 &amp; "_" &amp; A63 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_12_mm_length</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1850820</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>16</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_" &amp; A64 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_16_mm_length</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1850830</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>20</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <f>"hardware_" &amp; B65 &amp; "_" &amp; C65 &amp; "_" &amp; A65 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_20_mm_length</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1850840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>25</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_" &amp; A66 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_25_mm_length</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1850850</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>30</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f>"hardware_" &amp; B67 &amp; "_" &amp; C67 &amp; "_" &amp; A67 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_30_mm_length</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1851050</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>8</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_" &amp; A68 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m3_8_mm_length</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1850800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>10</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f>"hardware_" &amp; B69 &amp; "_" &amp; C69 &amp; "_" &amp; A69 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_10_mm_length</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1851000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>12</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_" &amp; A70 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_12_mm_length</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1851010</v>
-      </c>
-    </row>
     <row r="71" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>"hardware_" &amp; B71 &amp; "_" &amp; C71 &amp; "_" &amp; A71 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_16_mm_length</v>
+        <f>"hardware_" &amp; B71 &amp; "_" &amp; C71 &amp; "_black_" &amp; A71 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_10_mm_length_hex_head</v>
       </c>
       <c r="E71" s="1">
-        <v>1851020</v>
+        <v>1891080</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_" &amp; A72 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_20_mm_length</v>
+        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_black_" &amp; A72 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_12_mm_length_hex_head</v>
       </c>
       <c r="E72" s="1">
-        <v>1851030</v>
+        <v>1891090</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>"hardware_" &amp; B73 &amp; "_" &amp; C73 &amp; "_" &amp; A73 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_25_mm_length</v>
+        <f>"hardware_" &amp; B73 &amp; "_" &amp; C73 &amp; "_black_" &amp; A73 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_14_mm_length_hex_head</v>
       </c>
       <c r="E73" s="1">
-        <v>1851040</v>
+        <v>1891095</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_" &amp; A74 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_30_mm_length</v>
+        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_black_" &amp; A74 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_16_mm_length_hex_head</v>
       </c>
       <c r="E74" s="1">
-        <v>1851050</v>
+        <v>1891100</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>"hardware_" &amp; B75 &amp; "_" &amp; C75 &amp; "_" &amp; A75 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_35_mm_length</v>
+        <f>"hardware_" &amp; B75 &amp; "_" &amp; C75 &amp; "_black_" &amp; A75 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_20_mm_length_hex_head</v>
       </c>
       <c r="E75" s="1">
-        <v>1851051</v>
+        <v>1891110</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_" &amp; A76 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_40_mm_length</v>
+        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_black_" &amp; A76 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_25_mm_length_hex_head</v>
       </c>
       <c r="E76" s="1">
-        <v>1851052</v>
+        <v>1891120</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_" &amp; A77 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_50_mm_length</v>
+        <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_black_" &amp; A77 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_30_mm_length_hex_head</v>
       </c>
       <c r="E77" s="1">
-        <v>1851054</v>
+        <v>1891130</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_" &amp; A78 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m4_8_mm_length</v>
+        <f>"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_black_" &amp; A78 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_35_mm_length_hex_head</v>
       </c>
       <c r="E78" s="1">
-        <v>1850990</v>
+        <v>1891140</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
+        <v>40</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>"hardware_" &amp; B79 &amp; "_" &amp; C79 &amp; "_black_" &amp; A79 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1891150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>"hardware_" &amp; B80 &amp; "_" &amp; C80 &amp; "_black_" &amp; A80 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1891145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>50</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>"hardware_" &amp; B81 &amp; "_" &amp; C81 &amp; "_black_" &amp; A81 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_50_mm_length_hex_head</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1891160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>"hardware_" &amp; B82 &amp; "_" &amp; C82 &amp; "_black_" &amp; A82 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_6_mm_length_hex_head</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1891060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>60</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>"hardware_" &amp; B83 &amp; "_" &amp; C83 &amp; "_black_" &amp; A83 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_60_mm_length_hex_head</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1891146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>65</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_black_" &amp; A84 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_65_mm_length_hex_head</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1891147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>70</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_black_" &amp; A85 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_70_mm_length_hex_head</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1891148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>75</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_black_" &amp; A86 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_75_mm_length_hex_head</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1891149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>"hardware_" &amp; B87 &amp; "_" &amp; C87 &amp; "_black_" &amp; A87 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m4_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1891070</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>10</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>"hardware_" &amp; B88 &amp; "_" &amp; C88 &amp; "_black_" &amp; A88 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_10_mm_length_hex_head</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1891180</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>"hardware_" &amp; B89 &amp; "_" &amp; C89 &amp; "_black_" &amp; A89 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_100_mm_length_hex_head</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1891268</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f>"1150M470" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>110</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>"hardware_" &amp; B90 &amp; "_" &amp; C90 &amp; "_black_" &amp; A90 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_110_mm_length_hex_head</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1891269</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>"1150M470" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>12</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f>"hardware_" &amp; B91 &amp; "_" &amp; C91 &amp; "_black_" &amp; A91 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_12_mm_length_hex_head</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1891190</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>120</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f>"hardware_" &amp; B92 &amp; "_" &amp; C92 &amp; "_black_" &amp; A92 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_120_mm_length_hex_head</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1891274</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f>"1150M470" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>14</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f>"hardware_" &amp; B93 &amp; "_" &amp; C93 &amp; "_black_" &amp; A93 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_14_mm_length_hex_head</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1891195</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>16</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f>"hardware_" &amp; B94 &amp; "_" &amp; C94 &amp; "_black_" &amp; A94 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_16_mm_length_hex_head</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1891200</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>20</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f>"hardware_" &amp; B95 &amp; "_" &amp; C95 &amp; "_black_" &amp; A95 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_20_mm_length_hex_head</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1891210</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>25</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>"hardware_" &amp; B96 &amp; "_" &amp; C96 &amp; "_black_" &amp; A96 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_25_mm_length_hex_head</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1891220</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470025</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>30</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>"hardware_" &amp; B97 &amp; "_" &amp; C97 &amp; "_black_" &amp; A97 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_30_mm_length_hex_head</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1891230</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470030</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>35</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>"hardware_" &amp; B98 &amp; "_" &amp; C98 &amp; "_black_" &amp; A98 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1891240</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>40</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_black_" &amp; A99 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1891250</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470040</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>45</v>
       </c>
-      <c r="D79" s="1" t="str">
-        <f>"hardware_" &amp; B79 &amp; "_" &amp; C79 &amp; "_" &amp; A79 &amp; "_mm_length"</f>
+      <c r="B100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>"hardware_" &amp; B100 &amp; "_" &amp; C100 &amp; "_black_" &amp; A100 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1891251</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470045</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>50</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>"hardware_" &amp; B101 &amp; "_" &amp; C101 &amp; "_black_" &amp; A101 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_50_mm_length_hex_head</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1891260</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470050</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>6</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f>"hardware_" &amp; B102 &amp; "_" &amp; C102 &amp; "_black_" &amp; A102 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_6_mm_length_hex_head</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1891165</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f>"1150M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>60</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>"hardware_" &amp; B103 &amp; "_" &amp; C103 &amp; "_black_" &amp; A103 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_60_mm_length_hex_head</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1891263</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470060</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>65</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>"hardware_" &amp; B104 &amp; "_" &amp; C104 &amp; "_black_" &amp; A104 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_65_mm_length_hex_head</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1891264</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470065</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>70</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f>"hardware_" &amp; B105 &amp; "_" &amp; C105 &amp; "_black_" &amp; A105 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_70_mm_length_hex_head</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1891265</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470070</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>75</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f>"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_black_" &amp; A106 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_75_mm_length_hex_head</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1891272</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470075</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f>"hardware_" &amp; B107 &amp; "_" &amp; C107 &amp; "_black_" &amp; A107 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1891170</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f>"1150M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>80</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f>"hardware_" &amp; B108 &amp; "_" &amp; C108 &amp; "_black_" &amp; A108 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_80_mm_length_hex_head</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1891266</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470080</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>90</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f>"hardware_" &amp; B109 &amp; "_" &amp; C109 &amp; "_black_" &amp; A109 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m5_black_90_mm_length_hex_head</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1891267</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M470090</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f>"hardware_" &amp; B110 &amp; "_" &amp; C110 &amp; "_black_" &amp; A110 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_10_mm_length_hex_head</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1891270</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900010</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>100</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f>"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_black_" &amp; A111 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_100_mm_length_hex_head</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1891377</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M49000100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f>"hardware_" &amp; B112 &amp; "_" &amp; C112 &amp; "_black_" &amp; A112 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_110_mm_length_hex_head</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1891378</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M49000110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>12</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f>"hardware_" &amp; B113 &amp; "_" &amp; C113 &amp; "_black_" &amp; A113 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_12_mm_length_hex_head</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1891280</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>16</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>"hardware_" &amp; B114 &amp; "_" &amp; C114 &amp; "_black_" &amp; A114 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_16_mm_length_hex_head</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1891290</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900016</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>20</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f>"hardware_" &amp; B115 &amp; "_" &amp; C115 &amp; "_black_" &amp; A115 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_20_mm_length_hex_head</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1891300</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f>"hardware_" &amp; B116 &amp; "_" &amp; C116 &amp; "_black_" &amp; A116 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_25_mm_length_hex_head</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1891310</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>30</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f>"hardware_" &amp; B117 &amp; "_" &amp; C117 &amp; "_black_" &amp; A117 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_30_mm_length_hex_head</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1891320</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900030</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>35</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f>"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_black_" &amp; A118 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_35_mm_length_hex_head</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1891330</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>40</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f>"hardware_" &amp; B119 &amp; "_" &amp; C119 &amp; "_black_" &amp; A119 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_40_mm_length_hex_head</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1891340</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900040</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f>"hardware_" &amp; B120 &amp; "_" &amp; C120 &amp; "_black_" &amp; A120 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1891350</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900045</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>50</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f>"hardware_" &amp; B121 &amp; "_" &amp; C121 &amp; "_black_" &amp; A121 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_50_mm_length_hex_head</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1891360</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900050</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>60</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f>"hardware_" &amp; B122 &amp; "_" &amp; C122 &amp; "_black_" &amp; A122 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_60_mm_length_hex_head</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1891370</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900060</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>65</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f>"hardware_" &amp; B123 &amp; "_" &amp; C123 &amp; "_black_" &amp; A123 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_65_mm_length_hex_head</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1891374</v>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900065</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f>"hardware_" &amp; B124 &amp; "_" &amp; C124 &amp; "_black_" &amp; A124 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_70_mm_length_hex_head</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1891372</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900070</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>75</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f>"hardware_" &amp; B125 &amp; "_" &amp; C125 &amp; "_black_" &amp; A125 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_75_mm_length_hex_head</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1891373</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900075</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f>"hardware_" &amp; B126 &amp; "_" &amp; C126 &amp; "_black_" &amp; A126 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_8_mm_length_hex_head</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1891271</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M490008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>80</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f>"hardware_" &amp; B127 &amp; "_" &amp; C127 &amp; "_black_" &amp; A127 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_80_mm_length_hex_head</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1891375</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900080</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>90</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f>"hardware_" &amp; B128 &amp; "_" &amp; C128 &amp; "_black_" &amp; A128 &amp; "_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m6_black_90_mm_length_hex_head</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1891376</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>1150M4900090</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f>"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_" &amp; A129 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_10_mm_length</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1850810</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f>"hardware_" &amp; B130 &amp; "_" &amp; C130 &amp; "_" &amp; A130 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_12_mm_length</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1850820</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>16</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="1" t="str">
+        <f>"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_" &amp; A131 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_16_mm_length</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1850830</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>20</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f>"hardware_" &amp; B132 &amp; "_" &amp; C132 &amp; "_" &amp; A132 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_20_mm_length</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1850840</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f>"hardware_" &amp; B133 &amp; "_" &amp; C133 &amp; "_" &amp; A133 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_25_mm_length</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1850850</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>30</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f>"hardware_" &amp; B134 &amp; "_" &amp; C134 &amp; "_" &amp; A134 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_30_mm_length</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1851050</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f>"hardware_" &amp; B135 &amp; "_" &amp; C135 &amp; "_" &amp; A135 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m3_8_mm_length</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1850800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="1" t="str">
+        <f>"hardware_" &amp; B136 &amp; "_" &amp; C136 &amp; "_" &amp; A136 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_10_mm_length</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1851000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" s="1" t="str">
+        <f>"hardware_" &amp; B137 &amp; "_" &amp; C137 &amp; "_" &amp; A137 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_12_mm_length</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1851010</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>16</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" s="1" t="str">
+        <f>"hardware_" &amp; B138 &amp; "_" &amp; C138 &amp; "_" &amp; A138 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_16_mm_length</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1851020</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>20</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="1" t="str">
+        <f>"hardware_" &amp; B139 &amp; "_" &amp; C139 &amp; "_" &amp; A139 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_20_mm_length</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1851030</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>25</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f>"hardware_" &amp; B140 &amp; "_" &amp; C140 &amp; "_" &amp; A140 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_25_mm_length</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1851040</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>30</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" s="1" t="str">
+        <f>"hardware_" &amp; B141 &amp; "_" &amp; C141 &amp; "_" &amp; A141 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_30_mm_length</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1851050</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>35</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <f>"hardware_" &amp; B142 &amp; "_" &amp; C142 &amp; "_" &amp; A142 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_35_mm_length</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1851051</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>40</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143" s="1" t="str">
+        <f>"hardware_" &amp; B143 &amp; "_" &amp; C143 &amp; "_" &amp; A143 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_40_mm_length</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1851052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>50</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="1" t="str">
+        <f>"hardware_" &amp; B144 &amp; "_" &amp; C144 &amp; "_" &amp; A144 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_50_mm_length</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1851054</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f>"hardware_" &amp; B145 &amp; "_" &amp; C145 &amp; "_" &amp; A145 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m4_8_mm_length</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1850990</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f>"hardware_" &amp; B146 &amp; "_" &amp; C146 &amp; "_" &amp; A146 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_10_mm_length</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E146" s="1">
         <v>1851070</v>
       </c>
-      <c r="F79" s="1" t="str">
+      <c r="F146" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470010</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
         <v>12</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f>"hardware_" &amp; B80 &amp; "_" &amp; C80 &amp; "_" &amp; A80 &amp; "_mm_length"</f>
+      <c r="B147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f>"hardware_" &amp; B147 &amp; "_" &amp; C147 &amp; "_" &amp; A147 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_12_mm_length</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E147" s="1">
         <v>1851080</v>
       </c>
-      <c r="F80" s="1" t="str">
+      <c r="F147" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470012</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="148" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
         <v>16</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f>"hardware_" &amp; B81 &amp; "_" &amp; C81 &amp; "_" &amp; A81 &amp; "_mm_length"</f>
+      <c r="B148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f>"hardware_" &amp; B148 &amp; "_" &amp; C148 &amp; "_" &amp; A148 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_16_mm_length</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E148" s="1">
         <v>1851090</v>
       </c>
-      <c r="F81" s="1" t="str">
+      <c r="F148" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="149" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
         <v>18</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="1" t="str">
-        <f>"hardware_" &amp; B82 &amp; "_" &amp; C82 &amp; "_" &amp; A82 &amp; "_mm_length"</f>
+      <c r="B149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D149" s="1" t="str">
+        <f>"hardware_" &amp; B149 &amp; "_" &amp; C149 &amp; "_" &amp; A149 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_18_mm_length</v>
       </c>
-      <c r="F82" s="1" t="str">
+      <c r="F149" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470018</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="150" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
         <v>20</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="1" t="str">
-        <f>"hardware_" &amp; B83 &amp; "_" &amp; C83 &amp; "_" &amp; A83 &amp; "_mm_length"</f>
+      <c r="B150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="1" t="str">
+        <f>"hardware_" &amp; B150 &amp; "_" &amp; C150 &amp; "_" &amp; A150 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_20_mm_length</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E150" s="1">
         <v>1851100</v>
       </c>
-      <c r="F83" s="1" t="str">
+      <c r="F150" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470020</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="151" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
         <v>22</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" s="1" t="str">
-        <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_" &amp; A84 &amp; "_mm_length"</f>
+      <c r="B151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f>"hardware_" &amp; B151 &amp; "_" &amp; C151 &amp; "_" &amp; A151 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_22_mm_length</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E151" s="1">
         <v>1851105</v>
       </c>
-      <c r="F84" s="1" t="str">
+      <c r="F151" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470022</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="152" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
         <v>25</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" s="1" t="str">
-        <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_" &amp; A85 &amp; "_mm_length"</f>
+      <c r="B152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="1" t="str">
+        <f>"hardware_" &amp; B152 &amp; "_" &amp; C152 &amp; "_" &amp; A152 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_25_mm_length</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E152" s="1">
         <v>1851110</v>
       </c>
-      <c r="F85" s="1" t="str">
+      <c r="F152" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470025</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="153" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
         <v>30</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" s="1" t="str">
-        <f>"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
+      <c r="B153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="1" t="str">
+        <f>"hardware_" &amp; B153 &amp; "_" &amp; C153 &amp; "_" &amp; A153 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_30_mm_length</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E153" s="1">
         <v>1851120</v>
       </c>
-      <c r="F86" s="1" t="str">
+      <c r="F153" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470030</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="154" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
         <v>35</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D87" s="1" t="str">
-        <f>"hardware_" &amp; B87 &amp; "_" &amp; C87 &amp; "_" &amp; A87 &amp; "_mm_length"</f>
+      <c r="B154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="1" t="str">
+        <f>"hardware_" &amp; B154 &amp; "_" &amp; C154 &amp; "_" &amp; A154 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_35_mm_length</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E154" s="1">
         <v>1851130</v>
       </c>
-      <c r="F87" s="1" t="str">
+      <c r="F154" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470035</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>40</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="1" t="str">
-        <f>"hardware_" &amp; B88 &amp; "_" &amp; C88 &amp; "_" &amp; A88 &amp; "_mm_length"</f>
+    <row r="155" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>40</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="1" t="str">
+        <f>"hardware_" &amp; B155 &amp; "_" &amp; C155 &amp; "_" &amp; A155 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_40_mm_length</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E155" s="1">
         <v>1851140</v>
       </c>
-      <c r="F88" s="1" t="str">
+      <c r="F155" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470040</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="156" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
         <v>45</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" s="1" t="str">
-        <f>"hardware_" &amp; B89 &amp; "_" &amp; C89 &amp; "_" &amp; A89 &amp; "_mm_length"</f>
+      <c r="B156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="1" t="str">
+        <f>"hardware_" &amp; B156 &amp; "_" &amp; C156 &amp; "_" &amp; A156 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_45_mm_length</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E156" s="1">
         <v>1851142</v>
       </c>
-      <c r="F89" s="1" t="str">
+      <c r="F156" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470045</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="157" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
         <v>50</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" s="1" t="str">
-        <f>"hardware_" &amp; B90 &amp; "_" &amp; C90 &amp; "_" &amp; A90 &amp; "_mm_length"</f>
+      <c r="B157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="1" t="str">
+        <f>"hardware_" &amp; B157 &amp; "_" &amp; C157 &amp; "_" &amp; A157 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_50_mm_length</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E157" s="1">
         <v>1851141</v>
       </c>
-      <c r="F90" s="1" t="str">
+      <c r="F157" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470050</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="158" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
         <v>55</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="1" t="str">
-        <f>"hardware_" &amp; B91 &amp; "_" &amp; C91 &amp; "_" &amp; A91 &amp; "_mm_length"</f>
+      <c r="B158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="1" t="str">
+        <f>"hardware_" &amp; B158 &amp; "_" &amp; C158 &amp; "_" &amp; A158 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_55_mm_length</v>
       </c>
-      <c r="F91" s="1" t="str">
+      <c r="F158" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470055</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="159" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
         <v>60</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D92" s="1" t="str">
-        <f>"hardware_" &amp; B92 &amp; "_" &amp; C92 &amp; "_" &amp; A92 &amp; "_mm_length"</f>
+      <c r="B159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="1" t="str">
+        <f>"hardware_" &amp; B159 &amp; "_" &amp; C159 &amp; "_" &amp; A159 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_60_mm_length</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E159" s="1">
         <v>1851143</v>
       </c>
-      <c r="F92" s="1" t="str">
+      <c r="F159" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470060</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="160" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
         <v>70</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="1" t="str">
-        <f>"hardware_" &amp; B93 &amp; "_" &amp; C93 &amp; "_" &amp; A93 &amp; "_mm_length"</f>
+      <c r="B160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="1" t="str">
+        <f>"hardware_" &amp; B160 &amp; "_" &amp; C160 &amp; "_" &amp; A160 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_70_mm_length</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E160" s="1">
         <v>1851145</v>
       </c>
-      <c r="F93" s="1" t="str">
+      <c r="F160" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470070</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="161" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
         <v>8</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="1" t="str">
-        <f>"hardware_" &amp; B94 &amp; "_" &amp; C94 &amp; "_" &amp; A94 &amp; "_mm_length"</f>
+      <c r="B161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="1" t="str">
+        <f>"hardware_" &amp; B161 &amp; "_" &amp; C161 &amp; "_" &amp; A161 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_8_mm_length</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E161" s="1">
         <v>1851060</v>
       </c>
-      <c r="F94" s="1" t="str">
+      <c r="F161" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M47008</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="162" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
         <v>80</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="1" t="str">
-        <f>"hardware_" &amp; B95 &amp; "_" &amp; C95 &amp; "_" &amp; A95 &amp; "_mm_length"</f>
+      <c r="B162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="1" t="str">
+        <f>"hardware_" &amp; B162 &amp; "_" &amp; C162 &amp; "_" &amp; A162 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_80_mm_length</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E162" s="1">
         <v>1851147</v>
       </c>
-      <c r="F95" s="1" t="str">
+      <c r="F162" s="1" t="str">
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470080</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="163" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
         <v>10</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D96" s="1" t="str">
-        <f>"hardware_" &amp; B96 &amp; "_" &amp; C96 &amp; "_" &amp; A96 &amp; "_mm_length"</f>
+      <c r="B163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="1" t="str">
+        <f>"hardware_" &amp; B163 &amp; "_" &amp; C163 &amp; "_" &amp; A163 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_10_mm_length</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E163" s="1">
         <v>1851150</v>
       </c>
-      <c r="F96" s="1" t="str">
+      <c r="F163" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490010</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="164" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
         <v>100</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="1" t="str">
+        <f>"hardware_" &amp; B164 &amp; "_" &amp; C164 &amp; "_" &amp; A164 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m6_100_mm_length</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1851253</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" s="1" t="str">
-        <f>"hardware_" &amp; B97 &amp; "_" &amp; C97 &amp; "_" &amp; A97 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_100_mm_length</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1851253</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    </row>
+    <row r="165" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
         <v>12</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D98" s="1" t="str">
-        <f>"hardware_" &amp; B98 &amp; "_" &amp; C98 &amp; "_" &amp; A98 &amp; "_mm_length"</f>
+      <c r="B165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="1" t="str">
+        <f>"hardware_" &amp; B165 &amp; "_" &amp; C165 &amp; "_" &amp; A165 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_12_mm_length</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E165" s="1">
         <v>1851160</v>
       </c>
-      <c r="F98" s="1" t="str">
+      <c r="F165" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490012</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="166" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
         <v>16</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D99" s="1" t="str">
-        <f>"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_" &amp; A99 &amp; "_mm_length"</f>
+      <c r="B166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="1" t="str">
+        <f>"hardware_" &amp; B166 &amp; "_" &amp; C166 &amp; "_" &amp; A166 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_16_mm_length</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E166" s="1">
         <v>1851170</v>
       </c>
-      <c r="F99" s="1" t="str">
+      <c r="F166" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490016</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="167" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
         <v>18</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D100" s="1" t="str">
-        <f>"hardware_" &amp; B100 &amp; "_" &amp; C100 &amp; "_" &amp; A100 &amp; "_mm_length"</f>
+      <c r="B167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="1" t="str">
+        <f>"hardware_" &amp; B167 &amp; "_" &amp; C167 &amp; "_" &amp; A167 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_18_mm_length</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E167" s="1">
         <v>1851178</v>
       </c>
-      <c r="F100" s="1" t="str">
+      <c r="F167" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490018</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="168" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
         <v>20</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D101" s="1" t="str">
-        <f>"hardware_" &amp; B101 &amp; "_" &amp; C101 &amp; "_" &amp; A101 &amp; "_mm_length"</f>
+      <c r="B168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="1" t="str">
+        <f>"hardware_" &amp; B168 &amp; "_" &amp; C168 &amp; "_" &amp; A168 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_20_mm_length</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E168" s="1">
         <v>1851180</v>
       </c>
-      <c r="F101" s="1" t="str">
+      <c r="F168" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490020</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="169" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
         <v>22</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D102" s="1" t="str">
-        <f>"hardware_" &amp; B102 &amp; "_" &amp; C102 &amp; "_" &amp; A102 &amp; "_mm_length"</f>
+      <c r="B169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="1" t="str">
+        <f>"hardware_" &amp; B169 &amp; "_" &amp; C169 &amp; "_" &amp; A169 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_22_mm_length</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E169" s="1">
         <v>1851182</v>
       </c>
-      <c r="F102" s="1" t="str">
+      <c r="F169" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490022</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="170" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
         <v>25</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" s="1" t="str">
-        <f>"hardware_" &amp; B103 &amp; "_" &amp; C103 &amp; "_" &amp; A103 &amp; "_mm_length"</f>
+      <c r="B170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="1" t="str">
+        <f>"hardware_" &amp; B170 &amp; "_" &amp; C170 &amp; "_" &amp; A170 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_25_mm_length</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E170" s="1">
         <v>1851190</v>
       </c>
-      <c r="F103" s="1" t="str">
+      <c r="F170" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490025</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="171" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
         <v>30</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" s="1" t="str">
-        <f>"hardware_" &amp; B104 &amp; "_" &amp; C104 &amp; "_" &amp; A104 &amp; "_mm_length"</f>
+      <c r="B171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" s="1" t="str">
+        <f>"hardware_" &amp; B171 &amp; "_" &amp; C171 &amp; "_" &amp; A171 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_30_mm_length</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E171" s="1">
         <v>1851200</v>
       </c>
-      <c r="F104" s="1" t="str">
+      <c r="F171" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490030</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="172" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
         <v>35</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D105" s="1" t="str">
-        <f>"hardware_" &amp; B105 &amp; "_" &amp; C105 &amp; "_" &amp; A105 &amp; "_mm_length"</f>
+      <c r="B172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="1" t="str">
+        <f>"hardware_" &amp; B172 &amp; "_" &amp; C172 &amp; "_" &amp; A172 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_35_mm_length</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E172" s="1">
         <v>1851210</v>
       </c>
-      <c r="F105" s="1" t="str">
+      <c r="F172" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490035</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>40</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" s="1" t="str">
-        <f>"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_" &amp; A106 &amp; "_mm_length"</f>
+    <row r="173" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>40</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" s="1" t="str">
+        <f>"hardware_" &amp; B173 &amp; "_" &amp; C173 &amp; "_" &amp; A173 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_40_mm_length</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E173" s="1">
         <v>1851220</v>
       </c>
-      <c r="F106" s="1" t="str">
+      <c r="F173" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490040</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row r="174" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
         <v>45</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107" s="1" t="str">
-        <f>"hardware_" &amp; B107 &amp; "_" &amp; C107 &amp; "_" &amp; A107 &amp; "_mm_length"</f>
+      <c r="B174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" s="1" t="str">
+        <f>"hardware_" &amp; B174 &amp; "_" &amp; C174 &amp; "_" &amp; A174 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_45_mm_length</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E174" s="1">
         <v>1851225</v>
       </c>
-      <c r="F107" s="1" t="str">
+      <c r="F174" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490045</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="175" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
         <v>50</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D108" s="1" t="str">
-        <f>"hardware_" &amp; B108 &amp; "_" &amp; C108 &amp; "_" &amp; A108 &amp; "_mm_length"</f>
+      <c r="B175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" s="1" t="str">
+        <f>"hardware_" &amp; B175 &amp; "_" &amp; C175 &amp; "_" &amp; A175 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_50_mm_length</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E175" s="1">
         <v>1851230</v>
       </c>
-      <c r="F108" s="1" t="str">
+      <c r="F175" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490050</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row r="176" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
         <v>55</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109" s="1" t="str">
-        <f>"hardware_" &amp; B109 &amp; "_" &amp; C109 &amp; "_" &amp; A109 &amp; "_mm_length"</f>
+      <c r="B176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" s="1" t="str">
+        <f>"hardware_" &amp; B176 &amp; "_" &amp; C176 &amp; "_" &amp; A176 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_55_mm_length</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E176" s="1">
         <v>1851235</v>
       </c>
-      <c r="F109" s="1" t="str">
+      <c r="F176" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490055</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+    <row r="177" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
         <v>60</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D110" s="1" t="str">
-        <f>"hardware_" &amp; B110 &amp; "_" &amp; C110 &amp; "_" &amp; A110 &amp; "_mm_length"</f>
+      <c r="B177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D177" s="1" t="str">
+        <f>"hardware_" &amp; B177 &amp; "_" &amp; C177 &amp; "_" &amp; A177 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_60_mm_length</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E177" s="1">
         <v>1851240</v>
       </c>
-      <c r="F110" s="1" t="str">
+      <c r="F177" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490060</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+    <row r="178" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
         <v>65</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D111" s="1" t="str">
-        <f>"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_" &amp; A111 &amp; "_mm_length"</f>
+      <c r="B178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" s="1" t="str">
+        <f>"hardware_" &amp; B178 &amp; "_" &amp; C178 &amp; "_" &amp; A178 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_65_mm_length</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E178" s="1">
         <v>1851245</v>
       </c>
-      <c r="F111" s="1" t="str">
+      <c r="F178" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490065</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+    <row r="179" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
         <v>70</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D112" s="1" t="str">
-        <f>"hardware_" &amp; B112 &amp; "_" &amp; C112 &amp; "_" &amp; A112 &amp; "_mm_length"</f>
+      <c r="B179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" s="1" t="str">
+        <f>"hardware_" &amp; B179 &amp; "_" &amp; C179 &amp; "_" &amp; A179 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_70_mm_length</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E179" s="1">
         <v>1851250</v>
       </c>
-      <c r="F112" s="1" t="str">
+      <c r="F179" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490070</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+    <row r="180" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
         <v>75</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" s="1" t="str">
-        <f>"hardware_" &amp; B113 &amp; "_" &amp; C113 &amp; "_" &amp; A113 &amp; "_mm_length"</f>
+      <c r="B180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" s="1" t="str">
+        <f>"hardware_" &amp; B180 &amp; "_" &amp; C180 &amp; "_" &amp; A180 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_75_mm_length</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E180" s="1">
         <v>1851247</v>
       </c>
-      <c r="F113" s="1" t="str">
+      <c r="F180" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490075</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+    <row r="181" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
         <v>8</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" s="1" t="str">
+        <f>"hardware_" &amp; B181 &amp; "_" &amp; C181 &amp; "_" &amp; A181 &amp; "_mm_length"</f>
+        <v>hardware_set_screw_m6_8_mm_length</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1851149</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="1" t="str">
-        <f>"hardware_" &amp; B114 &amp; "_" &amp; C114 &amp; "_" &amp; A114 &amp; "_mm_length"</f>
-        <v>hardware_set_screw_m6_8_mm_length</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1851149</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+    </row>
+    <row r="182" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
         <v>80</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="1" t="str">
-        <f>"hardware_" &amp; B115 &amp; "_" &amp; C115 &amp; "_" &amp; A115 &amp; "_mm_length"</f>
+      <c r="B182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" s="1" t="str">
+        <f>"hardware_" &amp; B182 &amp; "_" &amp; C182 &amp; "_" &amp; A182 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_80_mm_length</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E182" s="1">
         <v>1851251</v>
       </c>
-      <c r="F115" s="1" t="str">
+      <c r="F182" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490080</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+    <row r="183" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
         <v>90</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D116" s="1" t="str">
-        <f>"hardware_" &amp; B116 &amp; "_" &amp; C116 &amp; "_" &amp; A116 &amp; "_mm_length"</f>
+      <c r="B183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" s="1" t="str">
+        <f>"hardware_" &amp; B183 &amp; "_" &amp; C183 &amp; "_" &amp; A183 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_90_mm_length</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E183" s="1">
         <v>1851252</v>
       </c>
-      <c r="F116" s="1" t="str">
+      <c r="F183" s="1" t="str">
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490090</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+    <row r="184" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
         <v>10</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D117" s="1" t="str">
-        <f>"hardware_" &amp; B117 &amp; "_" &amp; C117 &amp; "_" &amp; A117 &amp; "_mm_length"</f>
+      <c r="B184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D184" s="1" t="str">
+        <f>"hardware_" &amp; B184 &amp; "_" &amp; C184 &amp; "_" &amp; A184 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_10_mm_length</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E184" s="1">
         <v>1851254</v>
       </c>
-      <c r="F117" s="1" t="str">
+      <c r="F184" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540010</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+    <row r="185" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
         <v>100</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D118" s="1" t="str">
-        <f>"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_" &amp; A118 &amp; "_mm_length"</f>
+      <c r="B185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" s="1" t="str">
+        <f>"hardware_" &amp; B185 &amp; "_" &amp; C185 &amp; "_" &amp; A185 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E185" s="1">
         <v>1851253</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+    <row r="186" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
         <v>100</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D119" s="1" t="str">
-        <f>"hardware_" &amp; B119 &amp; "_" &amp; C119 &amp; "_" &amp; A119 &amp; "_mm_length"</f>
+      <c r="B186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D186" s="1" t="str">
+        <f>"hardware_" &amp; B186 &amp; "_" &amp; C186 &amp; "_" &amp; A186 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E186" s="1">
         <v>1851412</v>
       </c>
-      <c r="F119" s="1" t="str">
+      <c r="F186" s="1" t="str">
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540100</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+    <row r="187" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
         <v>110</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D120" s="1" t="str">
-        <f>"hardware_" &amp; B120 &amp; "_" &amp; C120 &amp; "_" &amp; A120 &amp; "_mm_length"</f>
+      <c r="B187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D187" s="1" t="str">
+        <f>"hardware_" &amp; B187 &amp; "_" &amp; C187 &amp; "_" &amp; A187 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_110_mm_length</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E187" s="1">
         <v>1851413</v>
       </c>
-      <c r="F120" s="1" t="str">
+      <c r="F187" s="1" t="str">
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540110</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+    <row r="188" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
         <v>12</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D121" s="1" t="str">
-        <f>"hardware_" &amp; B121 &amp; "_" &amp; C121 &amp; "_" &amp; A121 &amp; "_mm_length"</f>
+      <c r="B188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D188" s="1" t="str">
+        <f>"hardware_" &amp; B188 &amp; "_" &amp; C188 &amp; "_" &amp; A188 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_12_mm_length</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E188" s="1">
         <v>1851270</v>
       </c>
-      <c r="F121" s="1" t="str">
+      <c r="F188" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540012</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+    <row r="189" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D122" s="1" t="str">
-        <f>"hardware_" &amp; B122 &amp; "_" &amp; C122 &amp; "_" &amp; A122 &amp; "_mm_length"</f>
+      <c r="B189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D189" s="1" t="str">
+        <f>"hardware_" &amp; B189 &amp; "_" &amp; C189 &amp; "_" &amp; A189 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_120_mm_length</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E189" s="1">
         <v>1851414</v>
       </c>
-      <c r="F122" s="1" t="str">
+      <c r="F189" s="1" t="str">
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540120</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+    <row r="190" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
         <v>130</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D123" s="1" t="str">
-        <f>"hardware_" &amp; B123 &amp; "_" &amp; C123 &amp; "_" &amp; A123 &amp; "_mm_length"</f>
+      <c r="B190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D190" s="1" t="str">
+        <f>"hardware_" &amp; B190 &amp; "_" &amp; C190 &amp; "_" &amp; A190 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_130_mm_length</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E190" s="1">
         <v>1851415</v>
       </c>
-      <c r="F123" s="1" t="str">
+      <c r="F190" s="1" t="str">
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540130</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+    <row r="191" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
         <v>140</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124" s="1" t="str">
-        <f>"hardware_" &amp; B124 &amp; "_" &amp; C124 &amp; "_" &amp; A124 &amp; "_mm_length"</f>
+      <c r="B191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" s="1" t="str">
+        <f>"hardware_" &amp; B191 &amp; "_" &amp; C191 &amp; "_" &amp; A191 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_140_mm_length</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E191" s="1">
         <v>1851416</v>
       </c>
-      <c r="F124" s="1" t="str">
+      <c r="F191" s="1" t="str">
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540140</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+    <row r="192" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
         <v>150</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D125" s="1" t="str">
-        <f>"hardware_" &amp; B125 &amp; "_" &amp; C125 &amp; "_" &amp; A125 &amp; "_mm_length"</f>
+      <c r="B192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" s="1" t="str">
+        <f>"hardware_" &amp; B192 &amp; "_" &amp; C192 &amp; "_" &amp; A192 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_150_mm_length</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E192" s="1">
         <v>1851417</v>
       </c>
-      <c r="F125" s="1" t="str">
+      <c r="F192" s="1" t="str">
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540150</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+    <row r="193" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
         <v>16</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D126" s="1" t="str">
-        <f>"hardware_" &amp; B126 &amp; "_" &amp; C126 &amp; "_" &amp; A126 &amp; "_mm_length"</f>
+      <c r="B193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D193" s="1" t="str">
+        <f>"hardware_" &amp; B193 &amp; "_" &amp; C193 &amp; "_" &amp; A193 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_16_mm_length</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E193" s="1">
         <v>1851280</v>
       </c>
-      <c r="F126" s="1" t="str">
+      <c r="F193" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540016</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+    <row r="194" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
         <v>20</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D127" s="1" t="str">
-        <f>"hardware_" &amp; B127 &amp; "_" &amp; C127 &amp; "_" &amp; A127 &amp; "_mm_length"</f>
+      <c r="B194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D194" s="1" t="str">
+        <f>"hardware_" &amp; B194 &amp; "_" &amp; C194 &amp; "_" &amp; A194 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_20_mm_length</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E194" s="1">
         <v>1851290</v>
       </c>
-      <c r="F127" s="1" t="str">
+      <c r="F194" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540020</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+    <row r="195" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
         <v>25</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D128" s="1" t="str">
-        <f>"hardware_" &amp; B128 &amp; "_" &amp; C128 &amp; "_" &amp; A128 &amp; "_mm_length"</f>
+      <c r="B195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D195" s="1" t="str">
+        <f>"hardware_" &amp; B195 &amp; "_" &amp; C195 &amp; "_" &amp; A195 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_25_mm_length</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E195" s="1">
         <v>1851300</v>
       </c>
-      <c r="F128" s="1" t="str">
+      <c r="F195" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540025</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+    <row r="196" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
         <v>30</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D129" s="1" t="str">
-        <f>"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_" &amp; A129 &amp; "_mm_length"</f>
+      <c r="B196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D196" s="1" t="str">
+        <f>"hardware_" &amp; B196 &amp; "_" &amp; C196 &amp; "_" &amp; A196 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_30_mm_length</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E196" s="1">
         <v>1851310</v>
       </c>
-      <c r="F129" s="1" t="str">
+      <c r="F196" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540030</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+    <row r="197" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
         <v>35</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D130" s="1" t="str">
-        <f>"hardware_" &amp; B130 &amp; "_" &amp; C130 &amp; "_" &amp; A130 &amp; "_mm_length"</f>
+      <c r="B197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D197" s="1" t="str">
+        <f>"hardware_" &amp; B197 &amp; "_" &amp; C197 &amp; "_" &amp; A197 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_35_mm_length</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E197" s="1">
         <v>1851320</v>
       </c>
-      <c r="F130" s="1" t="str">
+      <c r="F197" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540035</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>40</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D131" s="1" t="str">
-        <f>"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_" &amp; A131 &amp; "_mm_length"</f>
+    <row r="198" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>40</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" s="1" t="str">
+        <f>"hardware_" &amp; B198 &amp; "_" &amp; C198 &amp; "_" &amp; A198 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_40_mm_length</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E198" s="1">
         <v>1851330</v>
       </c>
-      <c r="F131" s="1" t="str">
+      <c r="F198" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540040</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+    <row r="199" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
         <v>45</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D132" s="1" t="str">
-        <f>"hardware_" &amp; B132 &amp; "_" &amp; C132 &amp; "_" &amp; A132 &amp; "_mm_length"</f>
+      <c r="B199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199" s="1" t="str">
+        <f>"hardware_" &amp; B199 &amp; "_" &amp; C199 &amp; "_" &amp; A199 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_45_mm_length</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E199" s="1">
         <v>1851340</v>
       </c>
-      <c r="F132" s="1" t="str">
+      <c r="F199" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540045</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+    <row r="200" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
         <v>50</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D133" s="1" t="str">
-        <f>"hardware_" &amp; B133 &amp; "_" &amp; C133 &amp; "_" &amp; A133 &amp; "_mm_length"</f>
+      <c r="B200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" s="1" t="str">
+        <f>"hardware_" &amp; B200 &amp; "_" &amp; C200 &amp; "_" &amp; A200 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_50_mm_length</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E200" s="1">
         <v>1851350</v>
       </c>
-      <c r="F133" s="1" t="str">
+      <c r="F200" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540050</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+    <row r="201" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
         <v>55</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D134" s="1" t="str">
-        <f>"hardware_" &amp; B134 &amp; "_" &amp; C134 &amp; "_" &amp; A134 &amp; "_mm_length"</f>
+      <c r="B201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" s="1" t="str">
+        <f>"hardware_" &amp; B201 &amp; "_" &amp; C201 &amp; "_" &amp; A201 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_55_mm_length</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E201" s="1">
         <v>1851360</v>
       </c>
-      <c r="F134" s="1" t="str">
+      <c r="F201" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540055</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+    <row r="202" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
         <v>60</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D135" s="1" t="str">
-        <f>"hardware_" &amp; B135 &amp; "_" &amp; C135 &amp; "_" &amp; A135 &amp; "_mm_length"</f>
+      <c r="B202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D202" s="1" t="str">
+        <f>"hardware_" &amp; B202 &amp; "_" &amp; C202 &amp; "_" &amp; A202 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_60_mm_length</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E202" s="1">
         <v>1851370</v>
       </c>
-      <c r="F135" s="1" t="str">
+      <c r="F202" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540060</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row r="203" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
         <v>65</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="1" t="str">
-        <f>"hardware_" &amp; B136 &amp; "_" &amp; C136 &amp; "_" &amp; A136 &amp; "_mm_length"</f>
+      <c r="B203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" s="1" t="str">
+        <f>"hardware_" &amp; B203 &amp; "_" &amp; C203 &amp; "_" &amp; A203 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_65_mm_length</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E203" s="1">
         <v>1851380</v>
       </c>
-      <c r="F136" s="1" t="str">
+      <c r="F203" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540065</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+    <row r="204" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
         <v>70</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D137" s="1" t="str">
-        <f>"hardware_" &amp; B137 &amp; "_" &amp; C137 &amp; "_" &amp; A137 &amp; "_mm_length"</f>
+      <c r="B204" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D204" s="1" t="str">
+        <f>"hardware_" &amp; B204 &amp; "_" &amp; C204 &amp; "_" &amp; A204 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_70_mm_length</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E204" s="1">
         <v>1851390</v>
       </c>
-      <c r="F137" s="1" t="str">
+      <c r="F204" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540070</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+    <row r="205" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
         <v>75</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D138" s="1" t="str">
-        <f>"hardware_" &amp; B138 &amp; "_" &amp; C138 &amp; "_" &amp; A138 &amp; "_mm_length"</f>
+      <c r="B205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D205" s="1" t="str">
+        <f>"hardware_" &amp; B205 &amp; "_" &amp; C205 &amp; "_" &amp; A205 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_75_mm_length</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E205" s="1">
         <v>1851400</v>
       </c>
-      <c r="F138" s="1" t="str">
+      <c r="F205" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540075</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+    <row r="206" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
         <v>80</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139" s="1" t="str">
-        <f>"hardware_" &amp; B139 &amp; "_" &amp; C139 &amp; "_" &amp; A139 &amp; "_mm_length"</f>
+      <c r="B206" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" s="1" t="str">
+        <f>"hardware_" &amp; B206 &amp; "_" &amp; C206 &amp; "_" &amp; A206 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_80_mm_length</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E206" s="1">
         <v>1851410</v>
       </c>
-      <c r="F139" s="1" t="str">
+      <c r="F206" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540080</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+    <row r="207" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
         <v>90</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" s="1" t="str">
-        <f>"hardware_" &amp; B140 &amp; "_" &amp; C140 &amp; "_" &amp; A140 &amp; "_mm_length"</f>
+      <c r="B207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D207" s="1" t="str">
+        <f>"hardware_" &amp; B207 &amp; "_" &amp; C207 &amp; "_" &amp; A207 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_90_mm_length</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E207" s="1">
         <v>1851411</v>
       </c>
-      <c r="F140" s="1" t="str">
+      <c r="F207" s="1" t="str">
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540090</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="1" t="s">
+    <row r="208" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1711000</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D209" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E141" s="1">
-        <v>1711000</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="E209" s="1">
+        <v>1731000</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" s="1">
+      <c r="D210" s="1" t="str">
+        <f>"hardware_" &amp; B210 &amp; "_" &amp; C210 &amp; "_" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_washer_m3_penny</v>
+      </c>
+      <c r="E210" s="1">
         <v>1731000</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="1">
-        <v>100</v>
+    </row>
+    <row r="211" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D211" s="1" t="str">
+        <f>"hardware_" &amp; B211 &amp; "_" &amp; C211</f>
+        <v>hardware_washer_m4</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1711010</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D212" s="1" t="str">
+        <f>"hardware_" &amp; B212 &amp; "_" &amp; C212 &amp; "_" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_washer_m4_penny</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1731010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D213" s="1" t="str">
+        <f>"hardware_" &amp; B213 &amp; "_" &amp; C213</f>
+        <v>hardware_washer_m5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1711020</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D214" s="1" t="str">
+        <f>"hardware_" &amp; B214 &amp; "_" &amp; C214 &amp; "_" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_washer_m5_penny</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1731050</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D215" s="1" t="str">
+        <f>"hardware_" &amp; B215 &amp; "_" &amp; C215</f>
+        <v>hardware_washer_m6</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1711030</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216" s="1" t="str">
+        <f>"hardware_" &amp; B216 &amp; "_" &amp; C216 &amp; "_" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_washer_m6_penny</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1731090</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D217" s="1" t="str">
+        <f>"hardware_" &amp; B217 &amp; "_" &amp; C217</f>
+        <v>hardware_washer_m8</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1711040</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D218" s="1" t="str">
+        <f>"hardware_" &amp; B218 &amp; "_" &amp; C218 &amp; "_" &amp; Table1[[#This Row],[working_1_length]]</f>
+        <v>hardware_washer_m8_penny</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1731116</v>
       </c>
     </row>
   </sheetData>

--- a/working_xlsx.xlsx
+++ b/working_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81023836-A0BE-4180-BAEA-E2395026A971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88648BC4-7216-4240-8056-8DE593B61934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-690" windowWidth="29040" windowHeight="16440" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
   </bookViews>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162B66-111D-4E55-92AB-8A3902FD99ED}">
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1936,7 +1936,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_black_" &amp; A22 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D22:D53" si="0">"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_black_" &amp; A22 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_10_mm_length_hex_head</v>
       </c>
       <c r="E22" s="1">
@@ -1958,7 +1958,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>"hardware_" &amp; B23 &amp; "_" &amp; C23 &amp; "_black_" &amp; A23 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_12_mm_length_hex_head</v>
       </c>
       <c r="E23" s="1">
@@ -1980,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>"hardware_" &amp; B24 &amp; "_" &amp; C24 &amp; "_black_" &amp; A24 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_16_mm_length_hex_head</v>
       </c>
       <c r="E24" s="1">
@@ -2002,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>"hardware_" &amp; B25 &amp; "_" &amp; C25 &amp; "_black_" &amp; A25 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_20_mm_length_hex_head</v>
       </c>
       <c r="E25" s="1">
@@ -2024,7 +2024,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>"hardware_" &amp; B26 &amp; "_" &amp; C26 &amp; "_black_" &amp; A26 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_25_mm_length_hex_head</v>
       </c>
       <c r="E26" s="1">
@@ -2046,7 +2046,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>"hardware_" &amp; B27 &amp; "_" &amp; C27 &amp; "_black_" &amp; A27 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_30_mm_length_hex_head</v>
       </c>
       <c r="E27" s="1">
@@ -2068,7 +2068,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>"hardware_" &amp; B28 &amp; "_" &amp; C28 &amp; "_black_" &amp; A28 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_35_mm_length_hex_head</v>
       </c>
       <c r="E28" s="1">
@@ -2090,7 +2090,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>"hardware_" &amp; B29 &amp; "_" &amp; C29 &amp; "_black_" &amp; A29 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_40_mm_length_hex_head</v>
       </c>
       <c r="E29" s="1">
@@ -2112,7 +2112,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_black_" &amp; A30 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m4_black_6_mm_length_hex_head</v>
       </c>
       <c r="E30" s="1">
@@ -2134,7 +2134,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_black_" &amp; A31 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_10_mm_length_hex_head</v>
       </c>
       <c r="E31" s="1">
@@ -2156,7 +2156,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>"hardware_" &amp; B32 &amp; "_" &amp; C32 &amp; "_black_" &amp; A32 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_12_mm_length_hex_head</v>
       </c>
       <c r="E32" s="1">
@@ -2178,7 +2178,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>"hardware_" &amp; B33 &amp; "_" &amp; C33 &amp; "_black_" &amp; A33 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_16_mm_length_hex_head</v>
       </c>
       <c r="E33" s="1">
@@ -2200,7 +2200,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>"hardware_" &amp; B34 &amp; "_" &amp; C34 &amp; "_black_" &amp; A34 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_20_mm_length_hex_head</v>
       </c>
       <c r="E34" s="1">
@@ -2222,7 +2222,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>"hardware_" &amp; B35 &amp; "_" &amp; C35 &amp; "_black_" &amp; A35 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_25_mm_length_hex_head</v>
       </c>
       <c r="E35" s="1">
@@ -2244,7 +2244,7 @@
         <v>43</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>"hardware_" &amp; B36 &amp; "_" &amp; C36 &amp; "_black_" &amp; A36 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_30_mm_length_hex_head</v>
       </c>
       <c r="E36" s="1">
@@ -2266,7 +2266,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>"hardware_" &amp; B37 &amp; "_" &amp; C37 &amp; "_black_" &amp; A37 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_35_mm_length_hex_head</v>
       </c>
       <c r="E37" s="1">
@@ -2288,7 +2288,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>"hardware_" &amp; B38 &amp; "_" &amp; C38 &amp; "_black_" &amp; A38 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_40_mm_length_hex_head</v>
       </c>
       <c r="E38" s="1">
@@ -2310,7 +2310,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>"hardware_" &amp; B39 &amp; "_" &amp; C39 &amp; "_black_" &amp; A39 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_45_mm_length_hex_head</v>
       </c>
       <c r="E39" s="1">
@@ -2332,7 +2332,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>"hardware_" &amp; B40 &amp; "_" &amp; C40 &amp; "_black_" &amp; A40 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_50_mm_length_hex_head</v>
       </c>
       <c r="E40" s="1">
@@ -2354,7 +2354,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>"hardware_" &amp; B41 &amp; "_" &amp; C41 &amp; "_black_" &amp; A41 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m5_black_8_mm_length_hex_head</v>
       </c>
       <c r="E41" s="1">
@@ -2376,7 +2376,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>"hardware_" &amp; B42 &amp; "_" &amp; C42 &amp; "_black_" &amp; A42 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_10_mm_length_hex_head</v>
       </c>
       <c r="E42" s="1">
@@ -2398,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>"hardware_" &amp; B43 &amp; "_" &amp; C43 &amp; "_black_" &amp; A43 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_12_mm_length_hex_head</v>
       </c>
       <c r="E43" s="1">
@@ -2420,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>"hardware_" &amp; B44 &amp; "_" &amp; C44 &amp; "_black_" &amp; A44 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_16_mm_length_hex_head</v>
       </c>
       <c r="E44" s="1">
@@ -2442,7 +2442,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>"hardware_" &amp; B45 &amp; "_" &amp; C45 &amp; "_black_" &amp; A45 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_20_mm_length_hex_head</v>
       </c>
       <c r="E45" s="1">
@@ -2464,7 +2464,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>"hardware_" &amp; B46 &amp; "_" &amp; C46 &amp; "_black_" &amp; A46 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_25_mm_length_hex_head</v>
       </c>
       <c r="E46" s="1">
@@ -2486,7 +2486,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>"hardware_" &amp; B47 &amp; "_" &amp; C47 &amp; "_black_" &amp; A47 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_30_mm_length_hex_head</v>
       </c>
       <c r="E47" s="1">
@@ -2508,7 +2508,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>"hardware_" &amp; B48 &amp; "_" &amp; C48 &amp; "_black_" &amp; A48 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_35_mm_length_hex_head</v>
       </c>
       <c r="E48" s="1">
@@ -2530,7 +2530,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>"hardware_" &amp; B49 &amp; "_" &amp; C49 &amp; "_black_" &amp; A49 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_40_mm_length_hex_head</v>
       </c>
       <c r="E49" s="1">
@@ -2552,7 +2552,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>"hardware_" &amp; B50 &amp; "_" &amp; C50 &amp; "_black_" &amp; A50 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_45_mm_length_hex_head</v>
       </c>
       <c r="E50" s="1">
@@ -2574,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>"hardware_" &amp; B51 &amp; "_" &amp; C51 &amp; "_black_" &amp; A51 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_50_mm_length_hex_head</v>
       </c>
       <c r="E51" s="1">
@@ -2596,7 +2596,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>"hardware_" &amp; B52 &amp; "_" &amp; C52 &amp; "_black_" &amp; A52 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_55_mm_length_hex_head</v>
       </c>
       <c r="E52" s="1">
@@ -2618,7 +2618,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>"hardware_" &amp; B53 &amp; "_" &amp; C53 &amp; "_black_" &amp; A53 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m6_black_60_mm_length_hex_head</v>
       </c>
       <c r="E53" s="1">
@@ -2640,7 +2640,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_black_" &amp; A54 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D54:D85" si="1">"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_black_" &amp; A54 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m6_black_70_mm_length_hex_head</v>
       </c>
       <c r="E54" s="1">
@@ -2662,7 +2662,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>"hardware_" &amp; B55 &amp; "_" &amp; C55 &amp; "_black_" &amp; A55 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_countersunk_m6_black_8_mm_length_hex_head</v>
       </c>
       <c r="E55" s="1">
@@ -2680,7 +2680,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>"hardware_" &amp; B56 &amp; "_" &amp; C56 &amp; "_black_" &amp; A56 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_countersunk_m6_black_80_mm_length_hex_head</v>
       </c>
       <c r="E56" s="1">
@@ -2702,12 +2702,11 @@
         <v>37</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>"hardware_" &amp; B57 &amp; "_" &amp; C57 &amp; "_black_" &amp; A57 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
       <c r="E57" s="1">
-        <f>E56+10</f>
-        <v>1901336</v>
+        <v>1891020</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
@@ -2725,12 +2724,11 @@
         <v>37</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>"hardware_" &amp; B58 &amp; "_" &amp; C58 &amp; "_black_" &amp; A58 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
       <c r="E58" s="1">
-        <f>E57+10</f>
-        <v>1901346</v>
+        <v>1891030</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
@@ -2748,12 +2746,11 @@
         <v>37</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>"hardware_" &amp; B59 &amp; "_" &amp; C59 &amp; "_black_" &amp; A59 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
       <c r="E59" s="1">
-        <f>E58+10</f>
-        <v>1901356</v>
+        <v>1891040</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
@@ -2771,12 +2768,11 @@
         <v>37</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>"hardware_" &amp; B60 &amp; "_" &amp; C60 &amp; "_black_" &amp; A60 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
       <c r="E60" s="1">
-        <f>E59+10</f>
-        <v>1901366</v>
+        <v>1891050</v>
       </c>
       <c r="F60" s="1" t="str">
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
@@ -2794,7 +2790,7 @@
         <v>37</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>"hardware_" &amp; B61 &amp; "_" &amp; C61 &amp; "_black_" &amp; A61 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
       <c r="E61" s="1">
@@ -2816,7 +2812,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>"hardware_" &amp; B62 &amp; "_" &amp; C62 &amp; "_black_" &amp; A62 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
       <c r="E62" s="1">
@@ -2838,7 +2834,7 @@
         <v>37</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>"hardware_" &amp; B63 &amp; "_" &amp; C63 &amp; "_black_" &amp; A63 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
       </c>
       <c r="E63" s="1">
@@ -2860,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_black_" &amp; A64 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
       <c r="E64" s="1">
@@ -2882,7 +2878,7 @@
         <v>37</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>"hardware_" &amp; B65 &amp; "_" &amp; C65 &amp; "_black_" &amp; A65 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
       </c>
       <c r="F65" s="1" t="str">
@@ -2901,7 +2897,7 @@
         <v>37</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_black_" &amp; A66 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
       </c>
       <c r="F66" s="1" t="str">
@@ -2920,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>"hardware_" &amp; B67 &amp; "_" &amp; C67 &amp; "_black_" &amp; A67 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
       <c r="E67" s="1">
@@ -2942,7 +2938,7 @@
         <v>37</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_black_" &amp; A68 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
       </c>
       <c r="E68" s="1">
@@ -2964,7 +2960,7 @@
         <v>37</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>"hardware_" &amp; B69 &amp; "_" &amp; C69 &amp; "_black_" &amp; A69 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
       </c>
       <c r="F69" s="1" t="str">
@@ -2983,7 +2979,7 @@
         <v>37</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_black_" &amp; A70 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
       </c>
       <c r="E70" s="1">
@@ -3005,7 +3001,7 @@
         <v>44</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>"hardware_" &amp; B71 &amp; "_" &amp; C71 &amp; "_black_" &amp; A71 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_10_mm_length_hex_head</v>
       </c>
       <c r="E71" s="1">
@@ -3023,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_black_" &amp; A72 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_12_mm_length_hex_head</v>
       </c>
       <c r="E72" s="1">
@@ -3041,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>"hardware_" &amp; B73 &amp; "_" &amp; C73 &amp; "_black_" &amp; A73 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_14_mm_length_hex_head</v>
       </c>
       <c r="E73" s="1">
@@ -3059,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_black_" &amp; A74 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_16_mm_length_hex_head</v>
       </c>
       <c r="E74" s="1">
@@ -3077,7 +3073,7 @@
         <v>44</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>"hardware_" &amp; B75 &amp; "_" &amp; C75 &amp; "_black_" &amp; A75 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_20_mm_length_hex_head</v>
       </c>
       <c r="E75" s="1">
@@ -3095,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_black_" &amp; A76 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_25_mm_length_hex_head</v>
       </c>
       <c r="E76" s="1">
@@ -3113,7 +3109,7 @@
         <v>44</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_black_" &amp; A77 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_30_mm_length_hex_head</v>
       </c>
       <c r="E77" s="1">
@@ -3131,7 +3127,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_black_" &amp; A78 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_35_mm_length_hex_head</v>
       </c>
       <c r="E78" s="1">
@@ -3149,7 +3145,7 @@
         <v>44</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>"hardware_" &amp; B79 &amp; "_" &amp; C79 &amp; "_black_" &amp; A79 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_40_mm_length_hex_head</v>
       </c>
       <c r="E79" s="1">
@@ -3167,7 +3163,7 @@
         <v>44</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f>"hardware_" &amp; B80 &amp; "_" &amp; C80 &amp; "_black_" &amp; A80 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_45_mm_length_hex_head</v>
       </c>
       <c r="E80" s="1">
@@ -3185,7 +3181,7 @@
         <v>44</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>"hardware_" &amp; B81 &amp; "_" &amp; C81 &amp; "_black_" &amp; A81 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_50_mm_length_hex_head</v>
       </c>
       <c r="E81" s="1">
@@ -3203,7 +3199,7 @@
         <v>44</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>"hardware_" &amp; B82 &amp; "_" &amp; C82 &amp; "_black_" &amp; A82 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_6_mm_length_hex_head</v>
       </c>
       <c r="E82" s="1">
@@ -3221,7 +3217,7 @@
         <v>44</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>"hardware_" &amp; B83 &amp; "_" &amp; C83 &amp; "_black_" &amp; A83 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_60_mm_length_hex_head</v>
       </c>
       <c r="E83" s="1">
@@ -3239,7 +3235,7 @@
         <v>44</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_black_" &amp; A84 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_65_mm_length_hex_head</v>
       </c>
       <c r="E84" s="1">
@@ -3257,7 +3253,7 @@
         <v>44</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_black_" &amp; A85 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m4_black_70_mm_length_hex_head</v>
       </c>
       <c r="E85" s="1">
@@ -3275,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_black_" &amp; A86 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D86:D117" si="2">"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_black_" &amp; A86 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m4_black_75_mm_length_hex_head</v>
       </c>
       <c r="E86" s="1">
@@ -3293,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>"hardware_" &amp; B87 &amp; "_" &amp; C87 &amp; "_black_" &amp; A87 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m4_black_8_mm_length_hex_head</v>
       </c>
       <c r="E87" s="1">
@@ -3311,7 +3307,7 @@
         <v>43</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>"hardware_" &amp; B88 &amp; "_" &amp; C88 &amp; "_black_" &amp; A88 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_10_mm_length_hex_head</v>
       </c>
       <c r="E88" s="1">
@@ -3333,7 +3329,7 @@
         <v>43</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>"hardware_" &amp; B89 &amp; "_" &amp; C89 &amp; "_black_" &amp; A89 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_100_mm_length_hex_head</v>
       </c>
       <c r="E89" s="1">
@@ -3355,7 +3351,7 @@
         <v>43</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>"hardware_" &amp; B90 &amp; "_" &amp; C90 &amp; "_black_" &amp; A90 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_110_mm_length_hex_head</v>
       </c>
       <c r="E90" s="1">
@@ -3377,7 +3373,7 @@
         <v>43</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>"hardware_" &amp; B91 &amp; "_" &amp; C91 &amp; "_black_" &amp; A91 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_12_mm_length_hex_head</v>
       </c>
       <c r="E91" s="1">
@@ -3399,7 +3395,7 @@
         <v>43</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>"hardware_" &amp; B92 &amp; "_" &amp; C92 &amp; "_black_" &amp; A92 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_120_mm_length_hex_head</v>
       </c>
       <c r="E92" s="1">
@@ -3421,7 +3417,7 @@
         <v>43</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f>"hardware_" &amp; B93 &amp; "_" &amp; C93 &amp; "_black_" &amp; A93 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_14_mm_length_hex_head</v>
       </c>
       <c r="E93" s="1">
@@ -3443,7 +3439,7 @@
         <v>43</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f>"hardware_" &amp; B94 &amp; "_" &amp; C94 &amp; "_black_" &amp; A94 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_16_mm_length_hex_head</v>
       </c>
       <c r="E94" s="1">
@@ -3465,7 +3461,7 @@
         <v>43</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>"hardware_" &amp; B95 &amp; "_" &amp; C95 &amp; "_black_" &amp; A95 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_20_mm_length_hex_head</v>
       </c>
       <c r="E95" s="1">
@@ -3487,7 +3483,7 @@
         <v>43</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f>"hardware_" &amp; B96 &amp; "_" &amp; C96 &amp; "_black_" &amp; A96 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_25_mm_length_hex_head</v>
       </c>
       <c r="E96" s="1">
@@ -3509,7 +3505,7 @@
         <v>43</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f>"hardware_" &amp; B97 &amp; "_" &amp; C97 &amp; "_black_" &amp; A97 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_30_mm_length_hex_head</v>
       </c>
       <c r="E97" s="1">
@@ -3531,7 +3527,7 @@
         <v>43</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f>"hardware_" &amp; B98 &amp; "_" &amp; C98 &amp; "_black_" &amp; A98 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_35_mm_length_hex_head</v>
       </c>
       <c r="E98" s="1">
@@ -3553,7 +3549,7 @@
         <v>43</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f>"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_black_" &amp; A99 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_40_mm_length_hex_head</v>
       </c>
       <c r="E99" s="1">
@@ -3575,7 +3571,7 @@
         <v>43</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f>"hardware_" &amp; B100 &amp; "_" &amp; C100 &amp; "_black_" &amp; A100 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_45_mm_length_hex_head</v>
       </c>
       <c r="E100" s="1">
@@ -3597,7 +3593,7 @@
         <v>43</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>"hardware_" &amp; B101 &amp; "_" &amp; C101 &amp; "_black_" &amp; A101 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_50_mm_length_hex_head</v>
       </c>
       <c r="E101" s="1">
@@ -3619,7 +3615,7 @@
         <v>43</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f>"hardware_" &amp; B102 &amp; "_" &amp; C102 &amp; "_black_" &amp; A102 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_6_mm_length_hex_head</v>
       </c>
       <c r="E102" s="1">
@@ -3641,7 +3637,7 @@
         <v>43</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f>"hardware_" &amp; B103 &amp; "_" &amp; C103 &amp; "_black_" &amp; A103 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_60_mm_length_hex_head</v>
       </c>
       <c r="E103" s="1">
@@ -3663,7 +3659,7 @@
         <v>43</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f>"hardware_" &amp; B104 &amp; "_" &amp; C104 &amp; "_black_" &amp; A104 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_65_mm_length_hex_head</v>
       </c>
       <c r="E104" s="1">
@@ -3685,7 +3681,7 @@
         <v>43</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>"hardware_" &amp; B105 &amp; "_" &amp; C105 &amp; "_black_" &amp; A105 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_70_mm_length_hex_head</v>
       </c>
       <c r="E105" s="1">
@@ -3707,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f>"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_black_" &amp; A106 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_75_mm_length_hex_head</v>
       </c>
       <c r="E106" s="1">
@@ -3729,7 +3725,7 @@
         <v>43</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f>"hardware_" &amp; B107 &amp; "_" &amp; C107 &amp; "_black_" &amp; A107 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_8_mm_length_hex_head</v>
       </c>
       <c r="E107" s="1">
@@ -3751,7 +3747,7 @@
         <v>43</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f>"hardware_" &amp; B108 &amp; "_" &amp; C108 &amp; "_black_" &amp; A108 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_80_mm_length_hex_head</v>
       </c>
       <c r="E108" s="1">
@@ -3773,7 +3769,7 @@
         <v>43</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f>"hardware_" &amp; B109 &amp; "_" &amp; C109 &amp; "_black_" &amp; A109 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m5_black_90_mm_length_hex_head</v>
       </c>
       <c r="E109" s="1">
@@ -3795,7 +3791,7 @@
         <v>39</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f>"hardware_" &amp; B110 &amp; "_" &amp; C110 &amp; "_black_" &amp; A110 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_10_mm_length_hex_head</v>
       </c>
       <c r="E110" s="1">
@@ -3817,7 +3813,7 @@
         <v>39</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f>"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_black_" &amp; A111 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_100_mm_length_hex_head</v>
       </c>
       <c r="E111" s="1">
@@ -3839,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f>"hardware_" &amp; B112 &amp; "_" &amp; C112 &amp; "_black_" &amp; A112 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_110_mm_length_hex_head</v>
       </c>
       <c r="E112" s="1">
@@ -3861,7 +3857,7 @@
         <v>39</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f>"hardware_" &amp; B113 &amp; "_" &amp; C113 &amp; "_black_" &amp; A113 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_12_mm_length_hex_head</v>
       </c>
       <c r="E113" s="1">
@@ -3883,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f>"hardware_" &amp; B114 &amp; "_" &amp; C114 &amp; "_black_" &amp; A114 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_16_mm_length_hex_head</v>
       </c>
       <c r="E114" s="1">
@@ -3905,7 +3901,7 @@
         <v>39</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f>"hardware_" &amp; B115 &amp; "_" &amp; C115 &amp; "_black_" &amp; A115 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_20_mm_length_hex_head</v>
       </c>
       <c r="E115" s="1">
@@ -3927,7 +3923,7 @@
         <v>39</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>"hardware_" &amp; B116 &amp; "_" &amp; C116 &amp; "_black_" &amp; A116 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_25_mm_length_hex_head</v>
       </c>
       <c r="E116" s="1">
@@ -3949,7 +3945,7 @@
         <v>39</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f>"hardware_" &amp; B117 &amp; "_" &amp; C117 &amp; "_black_" &amp; A117 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="2"/>
         <v>hardware_screw_socket_cap_m6_black_30_mm_length_hex_head</v>
       </c>
       <c r="E117" s="1">
@@ -3971,7 +3967,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f>"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_black_" &amp; A118 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D118:D149" si="3">"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_black_" &amp; A118 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m6_black_35_mm_length_hex_head</v>
       </c>
       <c r="E118" s="1">
@@ -3993,7 +3989,7 @@
         <v>39</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f>"hardware_" &amp; B119 &amp; "_" &amp; C119 &amp; "_black_" &amp; A119 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_40_mm_length_hex_head</v>
       </c>
       <c r="E119" s="1">
@@ -4015,7 +4011,7 @@
         <v>39</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f>"hardware_" &amp; B120 &amp; "_" &amp; C120 &amp; "_black_" &amp; A120 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_45_mm_length_hex_head</v>
       </c>
       <c r="E120" s="1">
@@ -4037,7 +4033,7 @@
         <v>39</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f>"hardware_" &amp; B121 &amp; "_" &amp; C121 &amp; "_black_" &amp; A121 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_50_mm_length_hex_head</v>
       </c>
       <c r="E121" s="1">
@@ -4059,7 +4055,7 @@
         <v>39</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f>"hardware_" &amp; B122 &amp; "_" &amp; C122 &amp; "_black_" &amp; A122 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_60_mm_length_hex_head</v>
       </c>
       <c r="E122" s="1">
@@ -4081,7 +4077,7 @@
         <v>39</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f>"hardware_" &amp; B123 &amp; "_" &amp; C123 &amp; "_black_" &amp; A123 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_65_mm_length_hex_head</v>
       </c>
       <c r="E123" s="1">
@@ -4103,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>"hardware_" &amp; B124 &amp; "_" &amp; C124 &amp; "_black_" &amp; A124 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_70_mm_length_hex_head</v>
       </c>
       <c r="E124" s="1">
@@ -4125,7 +4121,7 @@
         <v>39</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f>"hardware_" &amp; B125 &amp; "_" &amp; C125 &amp; "_black_" &amp; A125 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_75_mm_length_hex_head</v>
       </c>
       <c r="E125" s="1">
@@ -4147,7 +4143,7 @@
         <v>39</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>"hardware_" &amp; B126 &amp; "_" &amp; C126 &amp; "_black_" &amp; A126 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_8_mm_length_hex_head</v>
       </c>
       <c r="E126" s="1">
@@ -4169,7 +4165,7 @@
         <v>39</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f>"hardware_" &amp; B127 &amp; "_" &amp; C127 &amp; "_black_" &amp; A127 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_80_mm_length_hex_head</v>
       </c>
       <c r="E127" s="1">
@@ -4191,7 +4187,7 @@
         <v>39</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f>"hardware_" &amp; B128 &amp; "_" &amp; C128 &amp; "_black_" &amp; A128 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m6_black_90_mm_length_hex_head</v>
       </c>
       <c r="E128" s="1">
@@ -4213,7 +4209,7 @@
         <v>37</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f>"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_" &amp; A129 &amp; "_mm_length"</f>
+        <f t="shared" ref="D129:D160" si="4">"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_" &amp; A129 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m3_10_mm_length</v>
       </c>
       <c r="E129" s="1">
@@ -4231,7 +4227,7 @@
         <v>37</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f>"hardware_" &amp; B130 &amp; "_" &amp; C130 &amp; "_" &amp; A130 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m3_12_mm_length</v>
       </c>
       <c r="E130" s="1">
@@ -4249,7 +4245,7 @@
         <v>37</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f>"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_" &amp; A131 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m3_16_mm_length</v>
       </c>
       <c r="E131" s="1">
@@ -4267,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>"hardware_" &amp; B132 &amp; "_" &amp; C132 &amp; "_" &amp; A132 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m3_20_mm_length</v>
       </c>
       <c r="E132" s="1">
@@ -4285,7 +4281,7 @@
         <v>37</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>"hardware_" &amp; B133 &amp; "_" &amp; C133 &amp; "_" &amp; A133 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m3_25_mm_length</v>
       </c>
       <c r="E133" s="1">
@@ -4303,7 +4299,7 @@
         <v>37</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>"hardware_" &amp; B134 &amp; "_" &amp; C134 &amp; "_" &amp; A134 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m3_30_mm_length</v>
       </c>
       <c r="E134" s="1">
@@ -4321,7 +4317,7 @@
         <v>37</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>"hardware_" &amp; B135 &amp; "_" &amp; C135 &amp; "_" &amp; A135 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m3_8_mm_length</v>
       </c>
       <c r="E135" s="1">
@@ -4339,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>"hardware_" &amp; B136 &amp; "_" &amp; C136 &amp; "_" &amp; A136 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_10_mm_length</v>
       </c>
       <c r="E136" s="1">
@@ -4357,7 +4353,7 @@
         <v>44</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>"hardware_" &amp; B137 &amp; "_" &amp; C137 &amp; "_" &amp; A137 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_12_mm_length</v>
       </c>
       <c r="E137" s="1">
@@ -4375,7 +4371,7 @@
         <v>44</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>"hardware_" &amp; B138 &amp; "_" &amp; C138 &amp; "_" &amp; A138 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_16_mm_length</v>
       </c>
       <c r="E138" s="1">
@@ -4393,7 +4389,7 @@
         <v>44</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f>"hardware_" &amp; B139 &amp; "_" &amp; C139 &amp; "_" &amp; A139 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_20_mm_length</v>
       </c>
       <c r="E139" s="1">
@@ -4411,7 +4407,7 @@
         <v>44</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f>"hardware_" &amp; B140 &amp; "_" &amp; C140 &amp; "_" &amp; A140 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_25_mm_length</v>
       </c>
       <c r="E140" s="1">
@@ -4429,7 +4425,7 @@
         <v>44</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f>"hardware_" &amp; B141 &amp; "_" &amp; C141 &amp; "_" &amp; A141 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_30_mm_length</v>
       </c>
       <c r="E141" s="1">
@@ -4447,7 +4443,7 @@
         <v>44</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f>"hardware_" &amp; B142 &amp; "_" &amp; C142 &amp; "_" &amp; A142 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_35_mm_length</v>
       </c>
       <c r="E142" s="1">
@@ -4465,7 +4461,7 @@
         <v>44</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f>"hardware_" &amp; B143 &amp; "_" &amp; C143 &amp; "_" &amp; A143 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_40_mm_length</v>
       </c>
       <c r="E143" s="1">
@@ -4483,7 +4479,7 @@
         <v>44</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f>"hardware_" &amp; B144 &amp; "_" &amp; C144 &amp; "_" &amp; A144 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_50_mm_length</v>
       </c>
       <c r="E144" s="1">
@@ -4501,7 +4497,7 @@
         <v>44</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f>"hardware_" &amp; B145 &amp; "_" &amp; C145 &amp; "_" &amp; A145 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m4_8_mm_length</v>
       </c>
       <c r="E145" s="1">
@@ -4519,7 +4515,7 @@
         <v>43</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f>"hardware_" &amp; B146 &amp; "_" &amp; C146 &amp; "_" &amp; A146 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_10_mm_length</v>
       </c>
       <c r="E146" s="1">
@@ -4541,7 +4537,7 @@
         <v>43</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f>"hardware_" &amp; B147 &amp; "_" &amp; C147 &amp; "_" &amp; A147 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_12_mm_length</v>
       </c>
       <c r="E147" s="1">
@@ -4563,7 +4559,7 @@
         <v>43</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f>"hardware_" &amp; B148 &amp; "_" &amp; C148 &amp; "_" &amp; A148 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_16_mm_length</v>
       </c>
       <c r="E148" s="1">
@@ -4585,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f>"hardware_" &amp; B149 &amp; "_" &amp; C149 &amp; "_" &amp; A149 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_18_mm_length</v>
       </c>
       <c r="F149" s="1" t="str">
@@ -4604,7 +4600,7 @@
         <v>43</v>
       </c>
       <c r="D150" s="1" t="str">
-        <f>"hardware_" &amp; B150 &amp; "_" &amp; C150 &amp; "_" &amp; A150 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_20_mm_length</v>
       </c>
       <c r="E150" s="1">
@@ -4626,7 +4622,7 @@
         <v>43</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f>"hardware_" &amp; B151 &amp; "_" &amp; C151 &amp; "_" &amp; A151 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_22_mm_length</v>
       </c>
       <c r="E151" s="1">
@@ -4648,7 +4644,7 @@
         <v>43</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f>"hardware_" &amp; B152 &amp; "_" &amp; C152 &amp; "_" &amp; A152 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_25_mm_length</v>
       </c>
       <c r="E152" s="1">
@@ -4670,7 +4666,7 @@
         <v>43</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f>"hardware_" &amp; B153 &amp; "_" &amp; C153 &amp; "_" &amp; A153 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_30_mm_length</v>
       </c>
       <c r="E153" s="1">
@@ -4692,7 +4688,7 @@
         <v>43</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f>"hardware_" &amp; B154 &amp; "_" &amp; C154 &amp; "_" &amp; A154 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_35_mm_length</v>
       </c>
       <c r="E154" s="1">
@@ -4714,7 +4710,7 @@
         <v>43</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f>"hardware_" &amp; B155 &amp; "_" &amp; C155 &amp; "_" &amp; A155 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_40_mm_length</v>
       </c>
       <c r="E155" s="1">
@@ -4736,7 +4732,7 @@
         <v>43</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f>"hardware_" &amp; B156 &amp; "_" &amp; C156 &amp; "_" &amp; A156 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_45_mm_length</v>
       </c>
       <c r="E156" s="1">
@@ -4758,7 +4754,7 @@
         <v>43</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f>"hardware_" &amp; B157 &amp; "_" &amp; C157 &amp; "_" &amp; A157 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_50_mm_length</v>
       </c>
       <c r="E157" s="1">
@@ -4780,7 +4776,7 @@
         <v>43</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f>"hardware_" &amp; B158 &amp; "_" &amp; C158 &amp; "_" &amp; A158 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_55_mm_length</v>
       </c>
       <c r="F158" s="1" t="str">
@@ -4799,7 +4795,7 @@
         <v>43</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f>"hardware_" &amp; B159 &amp; "_" &amp; C159 &amp; "_" &amp; A159 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_60_mm_length</v>
       </c>
       <c r="E159" s="1">
@@ -4821,7 +4817,7 @@
         <v>43</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f>"hardware_" &amp; B160 &amp; "_" &amp; C160 &amp; "_" &amp; A160 &amp; "_mm_length"</f>
+        <f t="shared" si="4"/>
         <v>hardware_set_screw_m5_70_mm_length</v>
       </c>
       <c r="E160" s="1">
@@ -4843,7 +4839,7 @@
         <v>43</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f>"hardware_" &amp; B161 &amp; "_" &amp; C161 &amp; "_" &amp; A161 &amp; "_mm_length"</f>
+        <f t="shared" ref="D161:D192" si="5">"hardware_" &amp; B161 &amp; "_" &amp; C161 &amp; "_" &amp; A161 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m5_8_mm_length</v>
       </c>
       <c r="E161" s="1">
@@ -4865,7 +4861,7 @@
         <v>43</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f>"hardware_" &amp; B162 &amp; "_" &amp; C162 &amp; "_" &amp; A162 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m5_80_mm_length</v>
       </c>
       <c r="E162" s="1">
@@ -4887,7 +4883,7 @@
         <v>39</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f>"hardware_" &amp; B163 &amp; "_" &amp; C163 &amp; "_" &amp; A163 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_10_mm_length</v>
       </c>
       <c r="E163" s="1">
@@ -4909,7 +4905,7 @@
         <v>39</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f>"hardware_" &amp; B164 &amp; "_" &amp; C164 &amp; "_" &amp; A164 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_100_mm_length</v>
       </c>
       <c r="E164" s="1">
@@ -4930,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f>"hardware_" &amp; B165 &amp; "_" &amp; C165 &amp; "_" &amp; A165 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_12_mm_length</v>
       </c>
       <c r="E165" s="1">
@@ -4952,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="D166" s="1" t="str">
-        <f>"hardware_" &amp; B166 &amp; "_" &amp; C166 &amp; "_" &amp; A166 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_16_mm_length</v>
       </c>
       <c r="E166" s="1">
@@ -4974,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f>"hardware_" &amp; B167 &amp; "_" &amp; C167 &amp; "_" &amp; A167 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_18_mm_length</v>
       </c>
       <c r="E167" s="1">
@@ -4996,7 +4992,7 @@
         <v>39</v>
       </c>
       <c r="D168" s="1" t="str">
-        <f>"hardware_" &amp; B168 &amp; "_" &amp; C168 &amp; "_" &amp; A168 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_20_mm_length</v>
       </c>
       <c r="E168" s="1">
@@ -5018,7 +5014,7 @@
         <v>39</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f>"hardware_" &amp; B169 &amp; "_" &amp; C169 &amp; "_" &amp; A169 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_22_mm_length</v>
       </c>
       <c r="E169" s="1">
@@ -5040,7 +5036,7 @@
         <v>39</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f>"hardware_" &amp; B170 &amp; "_" &amp; C170 &amp; "_" &amp; A170 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_25_mm_length</v>
       </c>
       <c r="E170" s="1">
@@ -5062,7 +5058,7 @@
         <v>39</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f>"hardware_" &amp; B171 &amp; "_" &amp; C171 &amp; "_" &amp; A171 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_30_mm_length</v>
       </c>
       <c r="E171" s="1">
@@ -5084,7 +5080,7 @@
         <v>39</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f>"hardware_" &amp; B172 &amp; "_" &amp; C172 &amp; "_" &amp; A172 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_35_mm_length</v>
       </c>
       <c r="E172" s="1">
@@ -5106,7 +5102,7 @@
         <v>39</v>
       </c>
       <c r="D173" s="1" t="str">
-        <f>"hardware_" &amp; B173 &amp; "_" &amp; C173 &amp; "_" &amp; A173 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_40_mm_length</v>
       </c>
       <c r="E173" s="1">
@@ -5128,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f>"hardware_" &amp; B174 &amp; "_" &amp; C174 &amp; "_" &amp; A174 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_45_mm_length</v>
       </c>
       <c r="E174" s="1">
@@ -5150,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="D175" s="1" t="str">
-        <f>"hardware_" &amp; B175 &amp; "_" &amp; C175 &amp; "_" &amp; A175 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_50_mm_length</v>
       </c>
       <c r="E175" s="1">
@@ -5172,7 +5168,7 @@
         <v>39</v>
       </c>
       <c r="D176" s="1" t="str">
-        <f>"hardware_" &amp; B176 &amp; "_" &amp; C176 &amp; "_" &amp; A176 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_55_mm_length</v>
       </c>
       <c r="E176" s="1">
@@ -5194,7 +5190,7 @@
         <v>39</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f>"hardware_" &amp; B177 &amp; "_" &amp; C177 &amp; "_" &amp; A177 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_60_mm_length</v>
       </c>
       <c r="E177" s="1">
@@ -5216,7 +5212,7 @@
         <v>39</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f>"hardware_" &amp; B178 &amp; "_" &amp; C178 &amp; "_" &amp; A178 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_65_mm_length</v>
       </c>
       <c r="E178" s="1">
@@ -5238,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f>"hardware_" &amp; B179 &amp; "_" &amp; C179 &amp; "_" &amp; A179 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_70_mm_length</v>
       </c>
       <c r="E179" s="1">
@@ -5260,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="D180" s="1" t="str">
-        <f>"hardware_" &amp; B180 &amp; "_" &amp; C180 &amp; "_" &amp; A180 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_75_mm_length</v>
       </c>
       <c r="E180" s="1">
@@ -5282,7 +5278,7 @@
         <v>39</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f>"hardware_" &amp; B181 &amp; "_" &amp; C181 &amp; "_" &amp; A181 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_8_mm_length</v>
       </c>
       <c r="E181" s="1">
@@ -5303,7 +5299,7 @@
         <v>39</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f>"hardware_" &amp; B182 &amp; "_" &amp; C182 &amp; "_" &amp; A182 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_80_mm_length</v>
       </c>
       <c r="E182" s="1">
@@ -5325,7 +5321,7 @@
         <v>39</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f>"hardware_" &amp; B183 &amp; "_" &amp; C183 &amp; "_" &amp; A183 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m6_90_mm_length</v>
       </c>
       <c r="E183" s="1">
@@ -5347,7 +5343,7 @@
         <v>45</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f>"hardware_" &amp; B184 &amp; "_" &amp; C184 &amp; "_" &amp; A184 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_10_mm_length</v>
       </c>
       <c r="E184" s="1">
@@ -5369,7 +5365,7 @@
         <v>45</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f>"hardware_" &amp; B185 &amp; "_" &amp; C185 &amp; "_" &amp; A185 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
       <c r="E185" s="1">
@@ -5387,7 +5383,7 @@
         <v>45</v>
       </c>
       <c r="D186" s="1" t="str">
-        <f>"hardware_" &amp; B186 &amp; "_" &amp; C186 &amp; "_" &amp; A186 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
       <c r="E186" s="1">
@@ -5409,7 +5405,7 @@
         <v>45</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f>"hardware_" &amp; B187 &amp; "_" &amp; C187 &amp; "_" &amp; A187 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_110_mm_length</v>
       </c>
       <c r="E187" s="1">
@@ -5431,7 +5427,7 @@
         <v>45</v>
       </c>
       <c r="D188" s="1" t="str">
-        <f>"hardware_" &amp; B188 &amp; "_" &amp; C188 &amp; "_" &amp; A188 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_12_mm_length</v>
       </c>
       <c r="E188" s="1">
@@ -5453,7 +5449,7 @@
         <v>45</v>
       </c>
       <c r="D189" s="1" t="str">
-        <f>"hardware_" &amp; B189 &amp; "_" &amp; C189 &amp; "_" &amp; A189 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_120_mm_length</v>
       </c>
       <c r="E189" s="1">
@@ -5475,7 +5471,7 @@
         <v>45</v>
       </c>
       <c r="D190" s="1" t="str">
-        <f>"hardware_" &amp; B190 &amp; "_" &amp; C190 &amp; "_" &amp; A190 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_130_mm_length</v>
       </c>
       <c r="E190" s="1">
@@ -5497,7 +5493,7 @@
         <v>45</v>
       </c>
       <c r="D191" s="1" t="str">
-        <f>"hardware_" &amp; B191 &amp; "_" &amp; C191 &amp; "_" &amp; A191 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_140_mm_length</v>
       </c>
       <c r="E191" s="1">
@@ -5519,7 +5515,7 @@
         <v>45</v>
       </c>
       <c r="D192" s="1" t="str">
-        <f>"hardware_" &amp; B192 &amp; "_" &amp; C192 &amp; "_" &amp; A192 &amp; "_mm_length"</f>
+        <f t="shared" si="5"/>
         <v>hardware_set_screw_m8_150_mm_length</v>
       </c>
       <c r="E192" s="1">
@@ -5541,7 +5537,7 @@
         <v>45</v>
       </c>
       <c r="D193" s="1" t="str">
-        <f>"hardware_" &amp; B193 &amp; "_" &amp; C193 &amp; "_" &amp; A193 &amp; "_mm_length"</f>
+        <f t="shared" ref="D193:D224" si="6">"hardware_" &amp; B193 &amp; "_" &amp; C193 &amp; "_" &amp; A193 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_16_mm_length</v>
       </c>
       <c r="E193" s="1">
@@ -5563,7 +5559,7 @@
         <v>45</v>
       </c>
       <c r="D194" s="1" t="str">
-        <f>"hardware_" &amp; B194 &amp; "_" &amp; C194 &amp; "_" &amp; A194 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_20_mm_length</v>
       </c>
       <c r="E194" s="1">
@@ -5585,7 +5581,7 @@
         <v>45</v>
       </c>
       <c r="D195" s="1" t="str">
-        <f>"hardware_" &amp; B195 &amp; "_" &amp; C195 &amp; "_" &amp; A195 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_25_mm_length</v>
       </c>
       <c r="E195" s="1">
@@ -5607,7 +5603,7 @@
         <v>45</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f>"hardware_" &amp; B196 &amp; "_" &amp; C196 &amp; "_" &amp; A196 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_30_mm_length</v>
       </c>
       <c r="E196" s="1">
@@ -5629,7 +5625,7 @@
         <v>45</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f>"hardware_" &amp; B197 &amp; "_" &amp; C197 &amp; "_" &amp; A197 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_35_mm_length</v>
       </c>
       <c r="E197" s="1">
@@ -5651,7 +5647,7 @@
         <v>45</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f>"hardware_" &amp; B198 &amp; "_" &amp; C198 &amp; "_" &amp; A198 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_40_mm_length</v>
       </c>
       <c r="E198" s="1">
@@ -5673,7 +5669,7 @@
         <v>45</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f>"hardware_" &amp; B199 &amp; "_" &amp; C199 &amp; "_" &amp; A199 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_45_mm_length</v>
       </c>
       <c r="E199" s="1">
@@ -5695,7 +5691,7 @@
         <v>45</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f>"hardware_" &amp; B200 &amp; "_" &amp; C200 &amp; "_" &amp; A200 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_50_mm_length</v>
       </c>
       <c r="E200" s="1">
@@ -5717,7 +5713,7 @@
         <v>45</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f>"hardware_" &amp; B201 &amp; "_" &amp; C201 &amp; "_" &amp; A201 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_55_mm_length</v>
       </c>
       <c r="E201" s="1">
@@ -5739,7 +5735,7 @@
         <v>45</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f>"hardware_" &amp; B202 &amp; "_" &amp; C202 &amp; "_" &amp; A202 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_60_mm_length</v>
       </c>
       <c r="E202" s="1">
@@ -5761,7 +5757,7 @@
         <v>45</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f>"hardware_" &amp; B203 &amp; "_" &amp; C203 &amp; "_" &amp; A203 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_65_mm_length</v>
       </c>
       <c r="E203" s="1">
@@ -5783,7 +5779,7 @@
         <v>45</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f>"hardware_" &amp; B204 &amp; "_" &amp; C204 &amp; "_" &amp; A204 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_70_mm_length</v>
       </c>
       <c r="E204" s="1">
@@ -5805,7 +5801,7 @@
         <v>45</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f>"hardware_" &amp; B205 &amp; "_" &amp; C205 &amp; "_" &amp; A205 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_75_mm_length</v>
       </c>
       <c r="E205" s="1">
@@ -5827,7 +5823,7 @@
         <v>45</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f>"hardware_" &amp; B206 &amp; "_" &amp; C206 &amp; "_" &amp; A206 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_80_mm_length</v>
       </c>
       <c r="E206" s="1">
@@ -5849,7 +5845,7 @@
         <v>45</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f>"hardware_" &amp; B207 &amp; "_" &amp; C207 &amp; "_" &amp; A207 &amp; "_mm_length"</f>
+        <f t="shared" si="6"/>
         <v>hardware_set_screw_m8_90_mm_length</v>
       </c>
       <c r="E207" s="1">

--- a/working_xlsx.xlsx
+++ b/working_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GH\oomlout_oomp_data_injector_bolt_part_numbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403D8EE0-0AB7-40BB-AA2F-7364A63347CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A07132-4589-4167-B2D7-88659B5073B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
+    <workbookView xWindow="25080" yWindow="-690" windowWidth="29040" windowHeight="16440" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
   </bookViews>
   <sheets>
     <sheet name="working_xlsx" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="63">
   <si>
     <t>working_1_length</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>penny</t>
+  </si>
+  <si>
+    <t>part_number_distributor_accu</t>
+  </si>
+  <si>
+    <t>part_number_distributor_accu_search</t>
   </si>
 </sst>
 </file>
@@ -764,7 +770,45 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1007,26 +1051,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}" name="Table1" displayName="Table1" ref="A1:N1048561" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N1048561" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}" name="Table1" displayName="Table1" ref="A1:P1048561" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P1048561" xr:uid="{C2670A9D-A965-4F90-B229-35A2C74F093A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P219">
     <sortCondition ref="E2:E219"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{81BE6127-1FAC-43B6-B435-E83C50450D0E}" name="working_1_length" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{AD31165A-B9BC-43B1-A178-60348134D26A}" name="working_2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{8AA0B9DF-F3F3-4C28-A334-01760066E8A8}" name="working_3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5E4082F3-AD77-4E7C-A3F3-4CD8F7057670}" name="oomp_id" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{098FFFE0-FE9E-4655-89EA-FF2B51360897}" name="part_number_distributor_orbital_fasteners" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{30B64515-6334-4244-82BF-4B5965586509}" name="part_number_manufacturer_metalmate" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{39C3AE81-4AC3-41B0-AD8A-25243F651F64}" name="distributor_current" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{12AA45DA-70CF-4FE6-A3E4-679540A49DE8}" name="quantity_current" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{5E489A5F-A3EA-43A1-871A-901CDE892CB9}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{491B2930-0BA2-4856-89B6-B4268B24D34F}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{ABEC4A19-636B-46C5-8B57-D656FDE2708B}" name="project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{96ACED9B-D966-4A24-9746-F7A2B39A9464}" name="tray_capacity" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{9CB7EDF0-0823-414A-92FB-48268C90FEA7}" name="weight" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{55D16526-5017-459C-AEF4-09897FF0EEE8}" name="weight_10" dataDxfId="0"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{81BE6127-1FAC-43B6-B435-E83C50450D0E}" name="working_1_length" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AD31165A-B9BC-43B1-A178-60348134D26A}" name="working_2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8AA0B9DF-F3F3-4C28-A334-01760066E8A8}" name="working_3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5E4082F3-AD77-4E7C-A3F3-4CD8F7057670}" name="oomp_id" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{098FFFE0-FE9E-4655-89EA-FF2B51360897}" name="part_number_distributor_orbital_fasteners" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{30B64515-6334-4244-82BF-4B5965586509}" name="part_number_manufacturer_metalmate" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{B40656A9-C7A9-4EBF-B3EF-194283553316}" name="part_number_distributor_accu" dataDxfId="0">
+      <calculatedColumnFormula>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{ECB5C2EA-9660-4D50-B118-5C20B232E66A}" name="part_number_distributor_accu_search" dataDxfId="1">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{39C3AE81-4AC3-41B0-AD8A-25243F651F64}" name="distributor_current" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{12AA45DA-70CF-4FE6-A3E4-679540A49DE8}" name="quantity_current" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{5E489A5F-A3EA-43A1-871A-901CDE892CB9}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{491B2930-0BA2-4856-89B6-B4268B24D34F}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{ABEC4A19-636B-46C5-8B57-D656FDE2708B}" name="project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{96ACED9B-D966-4A24-9746-F7A2B39A9464}" name="tray_capacity" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{9CB7EDF0-0823-414A-92FB-48268C90FEA7}" name="weight" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{55D16526-5017-459C-AEF4-09897FF0EEE8}" name="weight_10" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1349,10 +1399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162B66-111D-4E55-92AB-8A3902FD99ED}">
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H3:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <pane xSplit="8745" ySplit="12000" topLeftCell="G11" activePane="topRight"/>
+      <selection activeCell="B168" sqref="B168"/>
+      <selection pane="topRight" activeCell="G168" sqref="G168:H211"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1362,14 +1416,14 @@
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="79.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1389,31 +1443,37 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1423,14 +1483,22 @@
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF---12.9</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF---12.9+-zinc</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1444,14 +1512,22 @@
       <c r="E3" s="1">
         <v>1711010</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4--12.9</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4--12.9+-zinc</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1465,14 +1541,22 @@
       <c r="E4" s="1">
         <v>1711020</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5--12.9</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5--12.9+-zinc</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1486,14 +1570,22 @@
       <c r="E5" s="1">
         <v>1711030</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6--12.9</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6--12.9+-zinc</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1507,28 +1599,44 @@
       <c r="E6" s="1">
         <v>1711040</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8--12.9</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8--12.9+-zinc</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>1731000</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF---12.9</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF---12.9+-zinc</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1545,14 +1653,22 @@
       <c r="E8" s="1">
         <v>1731000</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-penny-12.9</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-penny-12.9+-zinc</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1569,14 +1685,22 @@
       <c r="E9" s="1">
         <v>1731010</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-penny-12.9</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-penny-12.9+-zinc</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1593,14 +1717,22 @@
       <c r="E10" s="1">
         <v>1731050</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-penny-12.9</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-penny-12.9+-zinc</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1617,14 +1749,22 @@
       <c r="E11" s="1">
         <v>1731090</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-penny-12.9</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-penny-12.9+-zinc</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1641,14 +1781,22 @@
       <c r="E12" s="1">
         <v>1731116</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-penny-12.9</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-penny-12.9+-zinc</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1658,29 +1806,37 @@
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF---12.9</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF---12.9+-zinc</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1">
         <v>1000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>250</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>79.666666669999998</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>125</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>0.31866666700000001</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>3.1866666669999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1697,14 +1853,22 @@
       <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4--12.9</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4--12.9+-zinc</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1721,14 +1885,22 @@
       <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5--12.9</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5--12.9+-zinc</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1745,14 +1917,22 @@
       <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6--12.9</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6--12.9+-zinc</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1769,14 +1949,22 @@
       <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8--12.9</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8--12.9+-zinc</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1796,14 +1984,22 @@
       <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-locking-12.9</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-locking-12.9+-zinc</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1823,14 +2019,22 @@
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-locking-12.9</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-locking-12.9+-zinc</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1850,14 +2054,22 @@
       <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-locking-12.9</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-locking-12.9+-zinc</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1877,14 +2089,22 @@
       <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-locking-12.9</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-locking-12.9+-zinc</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1895,20 +2115,28 @@
         <v>37</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_" &amp; A22 &amp; "_mm_length"</f>
+        <f t="shared" ref="D22:D53" si="0">"hardware_" &amp; B22 &amp; "_" &amp; C22 &amp; "_" &amp; A22 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m3_8_mm_length</v>
       </c>
       <c r="E22" s="1">
         <v>1850800</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-8-12.9</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-8-12.9+-zinc</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -1919,20 +2147,28 @@
         <v>37</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>"hardware_" &amp; B23 &amp; "_" &amp; C23 &amp; "_" &amp; A23 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m3_10_mm_length</v>
       </c>
       <c r="E23" s="1">
         <v>1850810</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-10-12.9</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-10-12.9+-zinc</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -1943,20 +2179,28 @@
         <v>37</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>"hardware_" &amp; B24 &amp; "_" &amp; C24 &amp; "_" &amp; A24 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m3_12_mm_length</v>
       </c>
       <c r="E24" s="1">
         <v>1850820</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-12-12.9</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-12-12.9+-zinc</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>16</v>
       </c>
@@ -1967,20 +2211,28 @@
         <v>37</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>"hardware_" &amp; B25 &amp; "_" &amp; C25 &amp; "_" &amp; A25 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m3_16_mm_length</v>
       </c>
       <c r="E25" s="1">
         <v>1850830</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-16-12.9</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-16-12.9+-zinc</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1991,20 +2243,28 @@
         <v>37</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>"hardware_" &amp; B26 &amp; "_" &amp; C26 &amp; "_" &amp; A26 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m3_20_mm_length</v>
       </c>
       <c r="E26" s="1">
         <v>1850840</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-20-12.9</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-20-12.9+-zinc</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2015,20 +2275,28 @@
         <v>37</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>"hardware_" &amp; B27 &amp; "_" &amp; C27 &amp; "_" &amp; A27 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m3_25_mm_length</v>
       </c>
       <c r="E27" s="1">
         <v>1850850</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-25-12.9</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-25-12.9+-zinc</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -2039,20 +2307,28 @@
         <v>44</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>"hardware_" &amp; B28 &amp; "_" &amp; C28 &amp; "_" &amp; A28 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_8_mm_length</v>
       </c>
       <c r="E28" s="1">
         <v>1850990</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-8-12.9</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-8-12.9+-zinc</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -2063,20 +2339,28 @@
         <v>44</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>"hardware_" &amp; B29 &amp; "_" &amp; C29 &amp; "_" &amp; A29 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_10_mm_length</v>
       </c>
       <c r="E29" s="1">
         <v>1851000</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-10-12.9</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-10-12.9+-zinc</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>12</v>
       </c>
@@ -2087,20 +2371,28 @@
         <v>44</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>"hardware_" &amp; B30 &amp; "_" &amp; C30 &amp; "_" &amp; A30 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_12_mm_length</v>
       </c>
       <c r="E30" s="1">
         <v>1851010</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-12-12.9</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-12-12.9+-zinc</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -2111,20 +2403,28 @@
         <v>44</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>"hardware_" &amp; B31 &amp; "_" &amp; C31 &amp; "_" &amp; A31 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_16_mm_length</v>
       </c>
       <c r="E31" s="1">
         <v>1851020</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-16-12.9</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-16-12.9+-zinc</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>20</v>
       </c>
@@ -2135,20 +2435,28 @@
         <v>44</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>"hardware_" &amp; B32 &amp; "_" &amp; C32 &amp; "_" &amp; A32 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_20_mm_length</v>
       </c>
       <c r="E32" s="1">
         <v>1851030</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-20-12.9</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-20-12.9+-zinc</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -2159,20 +2467,28 @@
         <v>44</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>"hardware_" &amp; B33 &amp; "_" &amp; C33 &amp; "_" &amp; A33 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_25_mm_length</v>
       </c>
       <c r="E33" s="1">
         <v>1851040</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-25-12.9</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-25-12.9+-zinc</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2183,20 +2499,28 @@
         <v>37</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>"hardware_" &amp; B34 &amp; "_" &amp; C34 &amp; "_" &amp; A34 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m3_30_mm_length</v>
       </c>
       <c r="E34" s="1">
         <v>1851050</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-30-12.9</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-30-12.9+-zinc</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -2207,20 +2531,28 @@
         <v>44</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>"hardware_" &amp; B35 &amp; "_" &amp; C35 &amp; "_" &amp; A35 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_30_mm_length</v>
       </c>
       <c r="E35" s="1">
         <v>1851050</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-30-12.9</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-30-12.9+-zinc</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2231,20 +2563,28 @@
         <v>44</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>"hardware_" &amp; B36 &amp; "_" &amp; C36 &amp; "_" &amp; A36 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_35_mm_length</v>
       </c>
       <c r="E36" s="1">
         <v>1851051</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-35-12.9</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-35-12.9+-zinc</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>40</v>
       </c>
@@ -2255,20 +2595,28 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>"hardware_" &amp; B37 &amp; "_" &amp; C37 &amp; "_" &amp; A37 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_40_mm_length</v>
       </c>
       <c r="E37" s="1">
         <v>1851052</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-40-12.9</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-40-12.9+-zinc</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>50</v>
       </c>
@@ -2279,20 +2627,28 @@
         <v>44</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>"hardware_" &amp; B38 &amp; "_" &amp; C38 &amp; "_" &amp; A38 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m4_50_mm_length</v>
       </c>
       <c r="E38" s="1">
         <v>1851054</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-50-12.9</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-50-12.9+-zinc</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -2303,7 +2659,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>"hardware_" &amp; B39 &amp; "_" &amp; C39 &amp; "_" &amp; A39 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_8_mm_length</v>
       </c>
       <c r="E39" s="1">
@@ -2313,14 +2669,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M47008</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-8-12.9</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-8-12.9+-zinc</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -2331,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>"hardware_" &amp; B40 &amp; "_" &amp; C40 &amp; "_" &amp; A40 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_10_mm_length</v>
       </c>
       <c r="E40" s="1">
@@ -2341,14 +2705,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470010</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-10-12.9</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-10-12.9+-zinc</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -2359,7 +2731,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>"hardware_" &amp; B41 &amp; "_" &amp; C41 &amp; "_" &amp; A41 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_12_mm_length</v>
       </c>
       <c r="E41" s="1">
@@ -2369,14 +2741,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470012</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-12-12.9</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-12-12.9+-zinc</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -2387,7 +2767,7 @@
         <v>43</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>"hardware_" &amp; B42 &amp; "_" &amp; C42 &amp; "_" &amp; A42 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_16_mm_length</v>
       </c>
       <c r="E42" s="1">
@@ -2397,14 +2777,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470016</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-16-12.9</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-16-12.9+-zinc</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>20</v>
       </c>
@@ -2415,7 +2803,7 @@
         <v>43</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>"hardware_" &amp; B43 &amp; "_" &amp; C43 &amp; "_" &amp; A43 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_20_mm_length</v>
       </c>
       <c r="E43" s="1">
@@ -2425,14 +2813,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470020</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-20-12.9</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-20-12.9+-zinc</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>22</v>
       </c>
@@ -2443,7 +2839,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>"hardware_" &amp; B44 &amp; "_" &amp; C44 &amp; "_" &amp; A44 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_22_mm_length</v>
       </c>
       <c r="E44" s="1">
@@ -2453,14 +2849,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470022</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-22-12.9</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-22-12.9+-zinc</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>25</v>
       </c>
@@ -2471,7 +2875,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>"hardware_" &amp; B45 &amp; "_" &amp; C45 &amp; "_" &amp; A45 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_25_mm_length</v>
       </c>
       <c r="E45" s="1">
@@ -2481,14 +2885,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470025</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-25-12.9</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-25-12.9+-zinc</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>30</v>
       </c>
@@ -2499,7 +2911,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>"hardware_" &amp; B46 &amp; "_" &amp; C46 &amp; "_" &amp; A46 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_30_mm_length</v>
       </c>
       <c r="E46" s="1">
@@ -2509,14 +2921,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470030</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-30-12.9</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-30-12.9+-zinc</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>35</v>
       </c>
@@ -2527,7 +2947,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>"hardware_" &amp; B47 &amp; "_" &amp; C47 &amp; "_" &amp; A47 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_35_mm_length</v>
       </c>
       <c r="E47" s="1">
@@ -2537,14 +2957,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470035</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-35-12.9</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-35-12.9+-zinc</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>40</v>
       </c>
@@ -2555,7 +2983,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>"hardware_" &amp; B48 &amp; "_" &amp; C48 &amp; "_" &amp; A48 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_40_mm_length</v>
       </c>
       <c r="E48" s="1">
@@ -2565,14 +2993,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470040</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-40-12.9</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-40-12.9+-zinc</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -2583,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>"hardware_" &amp; B49 &amp; "_" &amp; C49 &amp; "_" &amp; A49 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_50_mm_length</v>
       </c>
       <c r="E49" s="1">
@@ -2593,14 +3029,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470050</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-50-12.9</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-50-12.9+-zinc</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -2611,7 +3055,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>"hardware_" &amp; B50 &amp; "_" &amp; C50 &amp; "_" &amp; A50 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_45_mm_length</v>
       </c>
       <c r="E50" s="1">
@@ -2621,14 +3065,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470045</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-45-12.9</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-45-12.9+-zinc</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>60</v>
       </c>
@@ -2639,7 +3091,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>"hardware_" &amp; B51 &amp; "_" &amp; C51 &amp; "_" &amp; A51 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_60_mm_length</v>
       </c>
       <c r="E51" s="1">
@@ -2649,14 +3101,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470060</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-60-12.9</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-60-12.9+-zinc</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>70</v>
       </c>
@@ -2667,7 +3127,7 @@
         <v>43</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>"hardware_" &amp; B52 &amp; "_" &amp; C52 &amp; "_" &amp; A52 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_70_mm_length</v>
       </c>
       <c r="E52" s="1">
@@ -2677,14 +3137,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470070</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-70-12.9</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-70-12.9+-zinc</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>80</v>
       </c>
@@ -2695,7 +3163,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>"hardware_" &amp; B53 &amp; "_" &amp; C53 &amp; "_" &amp; A53 &amp; "_mm_length"</f>
+        <f t="shared" si="0"/>
         <v>hardware_set_screw_m5_80_mm_length</v>
       </c>
       <c r="E53" s="1">
@@ -2705,14 +3173,22 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470080</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-80-12.9</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-80-12.9+-zinc</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -2723,7 +3199,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_" &amp; A54 &amp; "_mm_length"</f>
+        <f t="shared" ref="D54:D85" si="1">"hardware_" &amp; B54 &amp; "_" &amp; C54 &amp; "_" &amp; A54 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m6_8_mm_length</v>
       </c>
       <c r="E54" s="1">
@@ -2732,14 +3208,22 @@
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-8-12.9</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-8-12.9+-zinc</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2750,7 +3234,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>"hardware_" &amp; B55 &amp; "_" &amp; C55 &amp; "_" &amp; A55 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_10_mm_length</v>
       </c>
       <c r="E55" s="1">
@@ -2760,14 +3244,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490010</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-10-12.9</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-10-12.9+-zinc</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>12</v>
       </c>
@@ -2778,7 +3270,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>"hardware_" &amp; B56 &amp; "_" &amp; C56 &amp; "_" &amp; A56 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_12_mm_length</v>
       </c>
       <c r="E56" s="1">
@@ -2788,14 +3280,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490012</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-12-12.9</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-12-12.9+-zinc</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>16</v>
       </c>
@@ -2806,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>"hardware_" &amp; B57 &amp; "_" &amp; C57 &amp; "_" &amp; A57 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_16_mm_length</v>
       </c>
       <c r="E57" s="1">
@@ -2816,14 +3316,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490016</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-16-12.9</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-16-12.9+-zinc</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>18</v>
       </c>
@@ -2834,7 +3342,7 @@
         <v>39</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>"hardware_" &amp; B58 &amp; "_" &amp; C58 &amp; "_" &amp; A58 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_18_mm_length</v>
       </c>
       <c r="E58" s="1">
@@ -2844,14 +3352,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490018</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-18-12.9</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-18-12.9+-zinc</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>20</v>
       </c>
@@ -2862,7 +3378,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>"hardware_" &amp; B59 &amp; "_" &amp; C59 &amp; "_" &amp; A59 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_20_mm_length</v>
       </c>
       <c r="E59" s="1">
@@ -2872,14 +3388,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490020</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-20-12.9</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-20-12.9+-zinc</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -2890,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>"hardware_" &amp; B60 &amp; "_" &amp; C60 &amp; "_" &amp; A60 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_22_mm_length</v>
       </c>
       <c r="E60" s="1">
@@ -2900,14 +3424,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490022</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-22-12.9</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-22-12.9+-zinc</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>25</v>
       </c>
@@ -2918,7 +3450,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>"hardware_" &amp; B61 &amp; "_" &amp; C61 &amp; "_" &amp; A61 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_25_mm_length</v>
       </c>
       <c r="E61" s="1">
@@ -2928,14 +3460,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490025</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-25-12.9</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-25-12.9+-zinc</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>30</v>
       </c>
@@ -2946,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>"hardware_" &amp; B62 &amp; "_" &amp; C62 &amp; "_" &amp; A62 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_30_mm_length</v>
       </c>
       <c r="E62" s="1">
@@ -2956,14 +3496,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490030</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-30-12.9</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-30-12.9+-zinc</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>35</v>
       </c>
@@ -2974,7 +3522,7 @@
         <v>39</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>"hardware_" &amp; B63 &amp; "_" &amp; C63 &amp; "_" &amp; A63 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_35_mm_length</v>
       </c>
       <c r="E63" s="1">
@@ -2984,14 +3532,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490035</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-35-12.9</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-35-12.9+-zinc</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>40</v>
       </c>
@@ -3002,7 +3558,7 @@
         <v>39</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>"hardware_" &amp; B64 &amp; "_" &amp; C64 &amp; "_" &amp; A64 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_40_mm_length</v>
       </c>
       <c r="E64" s="1">
@@ -3012,14 +3568,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490040</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-40-12.9</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-40-12.9+-zinc</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45</v>
       </c>
@@ -3030,7 +3594,7 @@
         <v>39</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>"hardware_" &amp; B65 &amp; "_" &amp; C65 &amp; "_" &amp; A65 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_45_mm_length</v>
       </c>
       <c r="E65" s="1">
@@ -3040,14 +3604,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490045</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-45-12.9</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-45-12.9+-zinc</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>50</v>
       </c>
@@ -3058,7 +3630,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>"hardware_" &amp; B66 &amp; "_" &amp; C66 &amp; "_" &amp; A66 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_50_mm_length</v>
       </c>
       <c r="E66" s="1">
@@ -3068,14 +3640,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490050</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-50-12.9</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-50-12.9+-zinc</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>55</v>
       </c>
@@ -3086,7 +3666,7 @@
         <v>39</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>"hardware_" &amp; B67 &amp; "_" &amp; C67 &amp; "_" &amp; A67 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_55_mm_length</v>
       </c>
       <c r="E67" s="1">
@@ -3096,14 +3676,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490055</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-55-12.9</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-55-12.9+-zinc</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>60</v>
       </c>
@@ -3114,7 +3702,7 @@
         <v>39</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>"hardware_" &amp; B68 &amp; "_" &amp; C68 &amp; "_" &amp; A68 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_60_mm_length</v>
       </c>
       <c r="E68" s="1">
@@ -3124,14 +3712,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490060</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-60-12.9</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-60-12.9+-zinc</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -3142,7 +3738,7 @@
         <v>39</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>"hardware_" &amp; B69 &amp; "_" &amp; C69 &amp; "_" &amp; A69 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_65_mm_length</v>
       </c>
       <c r="E69" s="1">
@@ -3152,14 +3748,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490065</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-65-12.9</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-65-12.9+-zinc</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -3170,7 +3774,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>"hardware_" &amp; B70 &amp; "_" &amp; C70 &amp; "_" &amp; A70 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_75_mm_length</v>
       </c>
       <c r="E70" s="1">
@@ -3180,14 +3784,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490075</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-75-12.9</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-75-12.9+-zinc</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3198,7 +3810,7 @@
         <v>39</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>"hardware_" &amp; B71 &amp; "_" &amp; C71 &amp; "_" &amp; A71 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_70_mm_length</v>
       </c>
       <c r="E71" s="1">
@@ -3208,14 +3820,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490070</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-70-12.9</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-70-12.9+-zinc</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>80</v>
       </c>
@@ -3226,7 +3846,7 @@
         <v>39</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>"hardware_" &amp; B72 &amp; "_" &amp; C72 &amp; "_" &amp; A72 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_80_mm_length</v>
       </c>
       <c r="E72" s="1">
@@ -3236,14 +3856,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490080</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-80-12.9</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-80-12.9+-zinc</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>90</v>
       </c>
@@ -3254,7 +3882,7 @@
         <v>39</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>"hardware_" &amp; B73 &amp; "_" &amp; C73 &amp; "_" &amp; A73 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_90_mm_length</v>
       </c>
       <c r="E73" s="1">
@@ -3264,14 +3892,22 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490090</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-90-12.9</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-90-12.9+-zinc</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>100</v>
       </c>
@@ -3282,7 +3918,7 @@
         <v>39</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>"hardware_" &amp; B74 &amp; "_" &amp; C74 &amp; "_" &amp; A74 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m6_100_mm_length</v>
       </c>
       <c r="E74" s="1">
@@ -3291,14 +3927,22 @@
       <c r="F74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-100-12.9</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-100-12.9+-zinc</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>100</v>
       </c>
@@ -3309,20 +3953,28 @@
         <v>45</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>"hardware_" &amp; B75 &amp; "_" &amp; C75 &amp; "_" &amp; A75 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
       <c r="E75" s="1">
         <v>1851253</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-100-12.9</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-100-12.9+-zinc</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>10</v>
       </c>
@@ -3333,7 +3985,7 @@
         <v>45</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>"hardware_" &amp; B76 &amp; "_" &amp; C76 &amp; "_" &amp; A76 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_10_mm_length</v>
       </c>
       <c r="E76" s="1">
@@ -3343,14 +3995,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540010</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-10-12.9</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-10-12.9+-zinc</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>12</v>
       </c>
@@ -3361,7 +4021,7 @@
         <v>45</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>"hardware_" &amp; B77 &amp; "_" &amp; C77 &amp; "_" &amp; A77 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_12_mm_length</v>
       </c>
       <c r="E77" s="1">
@@ -3371,14 +4031,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540012</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-12-12.9</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-12-12.9+-zinc</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>16</v>
       </c>
@@ -3389,7 +4057,7 @@
         <v>45</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>"hardware_" &amp; B78 &amp; "_" &amp; C78 &amp; "_" &amp; A78 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_16_mm_length</v>
       </c>
       <c r="E78" s="1">
@@ -3399,14 +4067,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540016</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-16-12.9</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-16-12.9+-zinc</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>20</v>
       </c>
@@ -3417,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>"hardware_" &amp; B79 &amp; "_" &amp; C79 &amp; "_" &amp; A79 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_20_mm_length</v>
       </c>
       <c r="E79" s="1">
@@ -3427,14 +4103,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540020</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-20-12.9</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-20-12.9+-zinc</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>25</v>
       </c>
@@ -3445,7 +4129,7 @@
         <v>45</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f>"hardware_" &amp; B80 &amp; "_" &amp; C80 &amp; "_" &amp; A80 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_25_mm_length</v>
       </c>
       <c r="E80" s="1">
@@ -3455,14 +4139,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540025</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-25-12.9</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-25-12.9+-zinc</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>30</v>
       </c>
@@ -3473,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>"hardware_" &amp; B81 &amp; "_" &amp; C81 &amp; "_" &amp; A81 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_30_mm_length</v>
       </c>
       <c r="E81" s="1">
@@ -3483,14 +4175,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540030</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-30-12.9</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-30-12.9+-zinc</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>35</v>
       </c>
@@ -3501,7 +4201,7 @@
         <v>45</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>"hardware_" &amp; B82 &amp; "_" &amp; C82 &amp; "_" &amp; A82 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_35_mm_length</v>
       </c>
       <c r="E82" s="1">
@@ -3511,14 +4211,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540035</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-35-12.9</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-35-12.9+-zinc</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>40</v>
       </c>
@@ -3529,7 +4237,7 @@
         <v>45</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>"hardware_" &amp; B83 &amp; "_" &amp; C83 &amp; "_" &amp; A83 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_40_mm_length</v>
       </c>
       <c r="E83" s="1">
@@ -3539,14 +4247,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540040</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-40-12.9</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-40-12.9+-zinc</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45</v>
       </c>
@@ -3557,7 +4273,7 @@
         <v>45</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>"hardware_" &amp; B84 &amp; "_" &amp; C84 &amp; "_" &amp; A84 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_45_mm_length</v>
       </c>
       <c r="E84" s="1">
@@ -3567,14 +4283,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540045</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-45-12.9</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-45-12.9+-zinc</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>50</v>
       </c>
@@ -3585,7 +4309,7 @@
         <v>45</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>"hardware_" &amp; B85 &amp; "_" &amp; C85 &amp; "_" &amp; A85 &amp; "_mm_length"</f>
+        <f t="shared" si="1"/>
         <v>hardware_set_screw_m8_50_mm_length</v>
       </c>
       <c r="E85" s="1">
@@ -3595,14 +4319,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540050</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-50-12.9</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-50-12.9+-zinc</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>55</v>
       </c>
@@ -3613,7 +4345,7 @@
         <v>45</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
+        <f t="shared" ref="D86:D117" si="2">"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_55_mm_length</v>
       </c>
       <c r="E86" s="1">
@@ -3623,14 +4355,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540055</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-55-12.9</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-55-12.9+-zinc</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>60</v>
       </c>
@@ -3641,7 +4381,7 @@
         <v>45</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>"hardware_" &amp; B87 &amp; "_" &amp; C87 &amp; "_" &amp; A87 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_60_mm_length</v>
       </c>
       <c r="E87" s="1">
@@ -3651,14 +4391,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540060</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-60-12.9</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-60-12.9+-zinc</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>65</v>
       </c>
@@ -3669,7 +4417,7 @@
         <v>45</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>"hardware_" &amp; B88 &amp; "_" &amp; C88 &amp; "_" &amp; A88 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_65_mm_length</v>
       </c>
       <c r="E88" s="1">
@@ -3679,14 +4427,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540065</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-65-12.9</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-65-12.9+-zinc</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>70</v>
       </c>
@@ -3697,7 +4453,7 @@
         <v>45</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>"hardware_" &amp; B89 &amp; "_" &amp; C89 &amp; "_" &amp; A89 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_70_mm_length</v>
       </c>
       <c r="E89" s="1">
@@ -3707,14 +4463,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540070</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-70-12.9</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-70-12.9+-zinc</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>75</v>
       </c>
@@ -3725,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>"hardware_" &amp; B90 &amp; "_" &amp; C90 &amp; "_" &amp; A90 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_75_mm_length</v>
       </c>
       <c r="E90" s="1">
@@ -3735,14 +4499,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540075</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-75-12.9</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-75-12.9+-zinc</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>80</v>
       </c>
@@ -3753,7 +4525,7 @@
         <v>45</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>"hardware_" &amp; B91 &amp; "_" &amp; C91 &amp; "_" &amp; A91 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_80_mm_length</v>
       </c>
       <c r="E91" s="1">
@@ -3763,14 +4535,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540080</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-80-12.9</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-80-12.9+-zinc</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3781,7 +4561,7 @@
         <v>45</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>"hardware_" &amp; B92 &amp; "_" &amp; C92 &amp; "_" &amp; A92 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_90_mm_length</v>
       </c>
       <c r="E92" s="1">
@@ -3791,14 +4571,22 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540090</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-90-12.9</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-90-12.9+-zinc</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>100</v>
       </c>
@@ -3809,7 +4597,7 @@
         <v>45</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f>"hardware_" &amp; B93 &amp; "_" &amp; C93 &amp; "_" &amp; A93 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_100_mm_length</v>
       </c>
       <c r="E93" s="1">
@@ -3819,14 +4607,22 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540100</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-100-12.9</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-100-12.9+-zinc</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>110</v>
       </c>
@@ -3837,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f>"hardware_" &amp; B94 &amp; "_" &amp; C94 &amp; "_" &amp; A94 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_110_mm_length</v>
       </c>
       <c r="E94" s="1">
@@ -3847,14 +4643,22 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540110</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-110-12.9</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-110-12.9+-zinc</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>120</v>
       </c>
@@ -3865,7 +4669,7 @@
         <v>45</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>"hardware_" &amp; B95 &amp; "_" &amp; C95 &amp; "_" &amp; A95 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_120_mm_length</v>
       </c>
       <c r="E95" s="1">
@@ -3875,14 +4679,22 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540120</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H95" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-120-12.9</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-120-12.9+-zinc</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>130</v>
       </c>
@@ -3893,7 +4705,7 @@
         <v>45</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f>"hardware_" &amp; B96 &amp; "_" &amp; C96 &amp; "_" &amp; A96 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_130_mm_length</v>
       </c>
       <c r="E96" s="1">
@@ -3903,14 +4715,22 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540130</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H96" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-130-12.9</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-130-12.9+-zinc</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>140</v>
       </c>
@@ -3921,7 +4741,7 @@
         <v>45</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f>"hardware_" &amp; B97 &amp; "_" &amp; C97 &amp; "_" &amp; A97 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_140_mm_length</v>
       </c>
       <c r="E97" s="1">
@@ -3931,14 +4751,22 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540140</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-140-12.9</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-140-12.9+-zinc</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>150</v>
       </c>
@@ -3949,7 +4777,7 @@
         <v>45</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f>"hardware_" &amp; B98 &amp; "_" &amp; C98 &amp; "_" &amp; A98 &amp; "_mm_length"</f>
+        <f t="shared" si="2"/>
         <v>hardware_set_screw_m8_150_mm_length</v>
       </c>
       <c r="E98" s="1">
@@ -3959,14 +4787,22 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540150</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M8-150-12.9</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M8-150-12.9+-zinc</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>6</v>
       </c>
@@ -3977,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f>"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_black_" &amp; A99 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D99:D130" si="3">"hardware_" &amp; B99 &amp; "_" &amp; C99 &amp; "_black_" &amp; A99 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
       </c>
       <c r="E99" s="1">
@@ -3987,14 +4823,22 @@
         <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390006</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-6-12.9</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-6-12.9+-zinc</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>8</v>
       </c>
@@ -4005,7 +4849,7 @@
         <v>37</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f>"hardware_" &amp; B100 &amp; "_" &amp; C100 &amp; "_black_" &amp; A100 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
       </c>
       <c r="E100" s="1">
@@ -4015,14 +4859,22 @@
         <f>"1150M39000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390008</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-8-12.9</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-8-12.9+-zinc</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>10</v>
       </c>
@@ -4033,7 +4885,7 @@
         <v>37</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>"hardware_" &amp; B101 &amp; "_" &amp; C101 &amp; "_black_" &amp; A101 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
       <c r="E101" s="1">
@@ -4043,14 +4895,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390010</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-10-12.9</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-10-12.9+-zinc</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>12</v>
       </c>
@@ -4061,7 +4921,7 @@
         <v>37</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f>"hardware_" &amp; B102 &amp; "_" &amp; C102 &amp; "_black_" &amp; A102 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
       <c r="E102" s="1">
@@ -4071,14 +4931,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390012</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-12-12.9</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-12-12.9+-zinc</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>16</v>
       </c>
@@ -4089,7 +4957,7 @@
         <v>37</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f>"hardware_" &amp; B103 &amp; "_" &amp; C103 &amp; "_black_" &amp; A103 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
       <c r="E103" s="1">
@@ -4099,14 +4967,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390016</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-16-12.9</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-16-12.9+-zinc</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>20</v>
       </c>
@@ -4117,7 +4993,7 @@
         <v>37</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f>"hardware_" &amp; B104 &amp; "_" &amp; C104 &amp; "_black_" &amp; A104 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
       <c r="E104" s="1">
@@ -4127,14 +5003,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390020</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-20-12.9</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-20-12.9+-zinc</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>25</v>
       </c>
@@ -4145,7 +5029,7 @@
         <v>37</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>"hardware_" &amp; B105 &amp; "_" &amp; C105 &amp; "_black_" &amp; A105 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
       <c r="E105" s="1">
@@ -4155,14 +5039,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390025</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-25-12.9</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-25-12.9+-zinc</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>30</v>
       </c>
@@ -4173,7 +5065,7 @@
         <v>37</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f>"hardware_" &amp; B106 &amp; "_" &amp; C106 &amp; "_black_" &amp; A106 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
       <c r="E106" s="1">
@@ -4183,14 +5075,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390030</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-30-12.9</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-30-12.9+-zinc</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>35</v>
       </c>
@@ -4201,7 +5101,7 @@
         <v>37</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f>"hardware_" &amp; B107 &amp; "_" &amp; C107 &amp; "_black_" &amp; A107 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
       </c>
       <c r="E107" s="1">
@@ -4211,14 +5111,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390035</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-35-12.9</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-35-12.9+-zinc</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>40</v>
       </c>
@@ -4229,7 +5137,7 @@
         <v>37</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f>"hardware_" &amp; B108 &amp; "_" &amp; C108 &amp; "_black_" &amp; A108 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
       <c r="E108" s="1">
@@ -4239,14 +5147,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390040</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-40-12.9</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-40-12.9+-zinc</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>50</v>
       </c>
@@ -4257,7 +5173,7 @@
         <v>37</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f>"hardware_" &amp; B109 &amp; "_" &amp; C109 &amp; "_black_" &amp; A109 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
       <c r="E109" s="1">
@@ -4267,14 +5183,22 @@
         <f>"1150M3900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M390050</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M3-50-12.9</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M3-50-12.9+-zinc</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -4285,20 +5209,28 @@
         <v>44</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f>"hardware_" &amp; B110 &amp; "_" &amp; C110 &amp; "_black_" &amp; A110 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_6_mm_length_hex_head</v>
       </c>
       <c r="E110" s="1">
         <v>1891060</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-6-12.9</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-6-12.9+-zinc</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>8</v>
       </c>
@@ -4309,20 +5241,28 @@
         <v>44</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f>"hardware_" &amp; B111 &amp; "_" &amp; C111 &amp; "_black_" &amp; A111 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_8_mm_length_hex_head</v>
       </c>
       <c r="E111" s="1">
         <v>1891070</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G111" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-8-12.9</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-8-12.9+-zinc</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>10</v>
       </c>
@@ -4333,20 +5273,28 @@
         <v>44</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f>"hardware_" &amp; B112 &amp; "_" &amp; C112 &amp; "_black_" &amp; A112 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_10_mm_length_hex_head</v>
       </c>
       <c r="E112" s="1">
         <v>1891080</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-10-12.9</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-10-12.9+-zinc</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>12</v>
       </c>
@@ -4357,20 +5305,28 @@
         <v>44</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f>"hardware_" &amp; B113 &amp; "_" &amp; C113 &amp; "_black_" &amp; A113 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_12_mm_length_hex_head</v>
       </c>
       <c r="E113" s="1">
         <v>1891090</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-12-12.9</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-12-12.9+-zinc</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>14</v>
       </c>
@@ -4381,20 +5337,28 @@
         <v>44</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f>"hardware_" &amp; B114 &amp; "_" &amp; C114 &amp; "_black_" &amp; A114 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_14_mm_length_hex_head</v>
       </c>
       <c r="E114" s="1">
         <v>1891095</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-14-12.9</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-14-12.9+-zinc</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -4405,20 +5369,28 @@
         <v>44</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f>"hardware_" &amp; B115 &amp; "_" &amp; C115 &amp; "_black_" &amp; A115 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_16_mm_length_hex_head</v>
       </c>
       <c r="E115" s="1">
         <v>1891100</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-16-12.9</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-16-12.9+-zinc</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -4429,20 +5401,28 @@
         <v>44</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>"hardware_" &amp; B116 &amp; "_" &amp; C116 &amp; "_black_" &amp; A116 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_20_mm_length_hex_head</v>
       </c>
       <c r="E116" s="1">
         <v>1891110</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-20-12.9</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-20-12.9+-zinc</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>25</v>
       </c>
@@ -4453,20 +5433,28 @@
         <v>44</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f>"hardware_" &amp; B117 &amp; "_" &amp; C117 &amp; "_black_" &amp; A117 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_25_mm_length_hex_head</v>
       </c>
       <c r="E117" s="1">
         <v>1891120</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-25-12.9</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-25-12.9+-zinc</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>30</v>
       </c>
@@ -4477,20 +5465,28 @@
         <v>44</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f>"hardware_" &amp; B118 &amp; "_" &amp; C118 &amp; "_black_" &amp; A118 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_30_mm_length_hex_head</v>
       </c>
       <c r="E118" s="1">
         <v>1891130</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-30-12.9</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-30-12.9+-zinc</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>35</v>
       </c>
@@ -4501,20 +5497,28 @@
         <v>44</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f>"hardware_" &amp; B119 &amp; "_" &amp; C119 &amp; "_black_" &amp; A119 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_35_mm_length_hex_head</v>
       </c>
       <c r="E119" s="1">
         <v>1891140</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-35-12.9</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-35-12.9+-zinc</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45</v>
       </c>
@@ -4525,20 +5529,28 @@
         <v>44</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f>"hardware_" &amp; B120 &amp; "_" &amp; C120 &amp; "_black_" &amp; A120 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_45_mm_length_hex_head</v>
       </c>
       <c r="E120" s="1">
         <v>1891145</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H120" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G120" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-45-12.9</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-45-12.9+-zinc</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>60</v>
       </c>
@@ -4549,20 +5561,28 @@
         <v>44</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f>"hardware_" &amp; B121 &amp; "_" &amp; C121 &amp; "_black_" &amp; A121 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_60_mm_length_hex_head</v>
       </c>
       <c r="E121" s="1">
         <v>1891146</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-60-12.9</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-60-12.9+-zinc</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>65</v>
       </c>
@@ -4573,20 +5593,28 @@
         <v>44</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f>"hardware_" &amp; B122 &amp; "_" &amp; C122 &amp; "_black_" &amp; A122 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_65_mm_length_hex_head</v>
       </c>
       <c r="E122" s="1">
         <v>1891147</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-65-12.9</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-65-12.9+-zinc</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>70</v>
       </c>
@@ -4597,20 +5625,28 @@
         <v>44</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f>"hardware_" &amp; B123 &amp; "_" &amp; C123 &amp; "_black_" &amp; A123 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_70_mm_length_hex_head</v>
       </c>
       <c r="E123" s="1">
         <v>1891148</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-70-12.9</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-70-12.9+-zinc</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>75</v>
       </c>
@@ -4621,20 +5657,28 @@
         <v>44</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>"hardware_" &amp; B124 &amp; "_" &amp; C124 &amp; "_black_" &amp; A124 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_75_mm_length_hex_head</v>
       </c>
       <c r="E124" s="1">
         <v>1891149</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-75-12.9</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-75-12.9+-zinc</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>40</v>
       </c>
@@ -4645,20 +5689,28 @@
         <v>44</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f>"hardware_" &amp; B125 &amp; "_" &amp; C125 &amp; "_black_" &amp; A125 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_40_mm_length_hex_head</v>
       </c>
       <c r="E125" s="1">
         <v>1891150</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-40-12.9</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-40-12.9+-zinc</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>50</v>
       </c>
@@ -4669,20 +5721,28 @@
         <v>44</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>"hardware_" &amp; B126 &amp; "_" &amp; C126 &amp; "_black_" &amp; A126 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m4_black_50_mm_length_hex_head</v>
       </c>
       <c r="E126" s="1">
         <v>1891160</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M4-50-12.9</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M4-50-12.9+-zinc</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -4693,7 +5753,7 @@
         <v>43</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f>"hardware_" &amp; B127 &amp; "_" &amp; C127 &amp; "_black_" &amp; A127 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m5_black_6_mm_length_hex_head</v>
       </c>
       <c r="E127" s="1">
@@ -4703,14 +5763,22 @@
         <f>"1150M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470006</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-6-12.9</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-6-12.9+-zinc</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>8</v>
       </c>
@@ -4721,7 +5789,7 @@
         <v>43</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f>"hardware_" &amp; B128 &amp; "_" &amp; C128 &amp; "_black_" &amp; A128 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m5_black_8_mm_length_hex_head</v>
       </c>
       <c r="E128" s="1">
@@ -4731,14 +5799,22 @@
         <f>"1150M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470008</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-8-12.9</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-8-12.9+-zinc</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>10</v>
       </c>
@@ -4749,7 +5825,7 @@
         <v>43</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f>"hardware_" &amp; B129 &amp; "_" &amp; C129 &amp; "_black_" &amp; A129 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m5_black_10_mm_length_hex_head</v>
       </c>
       <c r="E129" s="1">
@@ -4759,14 +5835,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470010</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-10-12.9</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-10-12.9+-zinc</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>12</v>
       </c>
@@ -4777,7 +5861,7 @@
         <v>43</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f>"hardware_" &amp; B130 &amp; "_" &amp; C130 &amp; "_black_" &amp; A130 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="3"/>
         <v>hardware_screw_socket_cap_m5_black_12_mm_length_hex_head</v>
       </c>
       <c r="E130" s="1">
@@ -4787,14 +5871,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470012</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-12-12.9</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-12-12.9+-zinc</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>14</v>
       </c>
@@ -4805,7 +5897,7 @@
         <v>43</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f>"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_black_" &amp; A131 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D131:D162" si="4">"hardware_" &amp; B131 &amp; "_" &amp; C131 &amp; "_black_" &amp; A131 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m5_black_14_mm_length_hex_head</v>
       </c>
       <c r="E131" s="1">
@@ -4815,14 +5907,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470014</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-14-12.9</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-14-12.9+-zinc</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>16</v>
       </c>
@@ -4833,7 +5933,7 @@
         <v>43</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>"hardware_" &amp; B132 &amp; "_" &amp; C132 &amp; "_black_" &amp; A132 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_16_mm_length_hex_head</v>
       </c>
       <c r="E132" s="1">
@@ -4843,14 +5943,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470016</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H132" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-16-12.9</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-16-12.9+-zinc</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>20</v>
       </c>
@@ -4861,7 +5969,7 @@
         <v>43</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>"hardware_" &amp; B133 &amp; "_" &amp; C133 &amp; "_black_" &amp; A133 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_20_mm_length_hex_head</v>
       </c>
       <c r="E133" s="1">
@@ -4871,14 +5979,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470020</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-20-12.9</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-20-12.9+-zinc</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>25</v>
       </c>
@@ -4889,7 +6005,7 @@
         <v>43</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>"hardware_" &amp; B134 &amp; "_" &amp; C134 &amp; "_black_" &amp; A134 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_25_mm_length_hex_head</v>
       </c>
       <c r="E134" s="1">
@@ -4899,14 +6015,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470025</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-25-12.9</v>
+      </c>
+      <c r="H134" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-25-12.9+-zinc</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>30</v>
       </c>
@@ -4917,7 +6041,7 @@
         <v>43</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>"hardware_" &amp; B135 &amp; "_" &amp; C135 &amp; "_black_" &amp; A135 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_30_mm_length_hex_head</v>
       </c>
       <c r="E135" s="1">
@@ -4927,14 +6051,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470030</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-30-12.9</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-30-12.9+-zinc</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>35</v>
       </c>
@@ -4945,7 +6077,7 @@
         <v>43</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>"hardware_" &amp; B136 &amp; "_" &amp; C136 &amp; "_black_" &amp; A136 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_35_mm_length_hex_head</v>
       </c>
       <c r="E136" s="1">
@@ -4955,14 +6087,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470035</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-35-12.9</v>
+      </c>
+      <c r="H136" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-35-12.9+-zinc</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>40</v>
       </c>
@@ -4973,7 +6113,7 @@
         <v>43</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>"hardware_" &amp; B137 &amp; "_" &amp; C137 &amp; "_black_" &amp; A137 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_40_mm_length_hex_head</v>
       </c>
       <c r="E137" s="1">
@@ -4983,14 +6123,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470040</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-40-12.9</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-40-12.9+-zinc</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45</v>
       </c>
@@ -5001,7 +6149,7 @@
         <v>43</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>"hardware_" &amp; B138 &amp; "_" &amp; C138 &amp; "_black_" &amp; A138 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_45_mm_length_hex_head</v>
       </c>
       <c r="E138" s="1">
@@ -5011,14 +6159,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470045</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-45-12.9</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-45-12.9+-zinc</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>50</v>
       </c>
@@ -5029,7 +6185,7 @@
         <v>43</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f>"hardware_" &amp; B139 &amp; "_" &amp; C139 &amp; "_black_" &amp; A139 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_50_mm_length_hex_head</v>
       </c>
       <c r="E139" s="1">
@@ -5039,14 +6195,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470050</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-50-12.9</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-50-12.9+-zinc</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>60</v>
       </c>
@@ -5057,7 +6221,7 @@
         <v>43</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f>"hardware_" &amp; B140 &amp; "_" &amp; C140 &amp; "_black_" &amp; A140 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_60_mm_length_hex_head</v>
       </c>
       <c r="E140" s="1">
@@ -5067,14 +6231,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470060</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G140" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-60-12.9</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-60-12.9+-zinc</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>65</v>
       </c>
@@ -5085,7 +6257,7 @@
         <v>43</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f>"hardware_" &amp; B141 &amp; "_" &amp; C141 &amp; "_black_" &amp; A141 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_65_mm_length_hex_head</v>
       </c>
       <c r="E141" s="1">
@@ -5095,14 +6267,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470065</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-65-12.9</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-65-12.9+-zinc</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>70</v>
       </c>
@@ -5113,7 +6293,7 @@
         <v>43</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f>"hardware_" &amp; B142 &amp; "_" &amp; C142 &amp; "_black_" &amp; A142 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_70_mm_length_hex_head</v>
       </c>
       <c r="E142" s="1">
@@ -5123,14 +6303,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470070</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-70-12.9</v>
+      </c>
+      <c r="H142" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-70-12.9+-zinc</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>80</v>
       </c>
@@ -5141,7 +6329,7 @@
         <v>43</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f>"hardware_" &amp; B143 &amp; "_" &amp; C143 &amp; "_black_" &amp; A143 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_80_mm_length_hex_head</v>
       </c>
       <c r="E143" s="1">
@@ -5151,14 +6339,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470080</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G143" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-80-12.9</v>
+      </c>
+      <c r="H143" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-80-12.9+-zinc</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>90</v>
       </c>
@@ -5169,7 +6365,7 @@
         <v>43</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f>"hardware_" &amp; B144 &amp; "_" &amp; C144 &amp; "_black_" &amp; A144 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_90_mm_length_hex_head</v>
       </c>
       <c r="E144" s="1">
@@ -5179,14 +6375,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470090</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G144" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-90-12.9</v>
+      </c>
+      <c r="H144" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-90-12.9+-zinc</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>100</v>
       </c>
@@ -5197,7 +6401,7 @@
         <v>43</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f>"hardware_" &amp; B145 &amp; "_" &amp; C145 &amp; "_black_" &amp; A145 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_100_mm_length_hex_head</v>
       </c>
       <c r="E145" s="1">
@@ -5207,14 +6411,22 @@
         <f>"1150M470" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470100</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G145" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-100-12.9</v>
+      </c>
+      <c r="H145" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-100-12.9+-zinc</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>110</v>
       </c>
@@ -5225,7 +6437,7 @@
         <v>43</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f>"hardware_" &amp; B146 &amp; "_" &amp; C146 &amp; "_black_" &amp; A146 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_110_mm_length_hex_head</v>
       </c>
       <c r="E146" s="1">
@@ -5235,14 +6447,22 @@
         <f>"1150M470" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470110</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-110-12.9</v>
+      </c>
+      <c r="H146" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-110-12.9+-zinc</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>10</v>
       </c>
@@ -5253,7 +6473,7 @@
         <v>39</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f>"hardware_" &amp; B147 &amp; "_" &amp; C147 &amp; "_black_" &amp; A147 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_10_mm_length_hex_head</v>
       </c>
       <c r="E147" s="1">
@@ -5263,14 +6483,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900010</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-10-12.9</v>
+      </c>
+      <c r="H147" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-10-12.9+-zinc</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>8</v>
       </c>
@@ -5281,7 +6509,7 @@
         <v>39</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f>"hardware_" &amp; B148 &amp; "_" &amp; C148 &amp; "_black_" &amp; A148 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_8_mm_length_hex_head</v>
       </c>
       <c r="E148" s="1">
@@ -5291,14 +6519,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M490008</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-8-12.9</v>
+      </c>
+      <c r="H148" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-8-12.9+-zinc</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>75</v>
       </c>
@@ -5309,7 +6545,7 @@
         <v>43</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f>"hardware_" &amp; B149 &amp; "_" &amp; C149 &amp; "_black_" &amp; A149 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_75_mm_length_hex_head</v>
       </c>
       <c r="E149" s="1">
@@ -5319,14 +6555,22 @@
         <f>"1150M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470075</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-75-12.9</v>
+      </c>
+      <c r="H149" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-75-12.9+-zinc</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>120</v>
       </c>
@@ -5337,7 +6581,7 @@
         <v>43</v>
       </c>
       <c r="D150" s="1" t="str">
-        <f>"hardware_" &amp; B150 &amp; "_" &amp; C150 &amp; "_black_" &amp; A150 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m5_black_120_mm_length_hex_head</v>
       </c>
       <c r="E150" s="1">
@@ -5347,14 +6591,22 @@
         <f>"1150M470" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M470120</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M5-120-12.9</v>
+      </c>
+      <c r="H150" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M5-120-12.9+-zinc</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>12</v>
       </c>
@@ -5365,7 +6617,7 @@
         <v>39</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f>"hardware_" &amp; B151 &amp; "_" &amp; C151 &amp; "_black_" &amp; A151 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_12_mm_length_hex_head</v>
       </c>
       <c r="E151" s="1">
@@ -5375,14 +6627,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900012</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-12-12.9</v>
+      </c>
+      <c r="H151" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-12-12.9+-zinc</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>16</v>
       </c>
@@ -5393,7 +6653,7 @@
         <v>39</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f>"hardware_" &amp; B152 &amp; "_" &amp; C152 &amp; "_black_" &amp; A152 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_16_mm_length_hex_head</v>
       </c>
       <c r="E152" s="1">
@@ -5403,14 +6663,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900016</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-16-12.9</v>
+      </c>
+      <c r="H152" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-16-12.9+-zinc</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>20</v>
       </c>
@@ -5421,7 +6689,7 @@
         <v>39</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f>"hardware_" &amp; B153 &amp; "_" &amp; C153 &amp; "_black_" &amp; A153 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_20_mm_length_hex_head</v>
       </c>
       <c r="E153" s="1">
@@ -5431,14 +6699,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900020</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-20-12.9</v>
+      </c>
+      <c r="H153" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-20-12.9+-zinc</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>25</v>
       </c>
@@ -5449,7 +6725,7 @@
         <v>39</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f>"hardware_" &amp; B154 &amp; "_" &amp; C154 &amp; "_black_" &amp; A154 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_25_mm_length_hex_head</v>
       </c>
       <c r="E154" s="1">
@@ -5459,14 +6735,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900025</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-25-12.9</v>
+      </c>
+      <c r="H154" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-25-12.9+-zinc</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>30</v>
       </c>
@@ -5477,7 +6761,7 @@
         <v>39</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f>"hardware_" &amp; B155 &amp; "_" &amp; C155 &amp; "_black_" &amp; A155 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_30_mm_length_hex_head</v>
       </c>
       <c r="E155" s="1">
@@ -5487,14 +6771,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900030</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H155" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-30-12.9</v>
+      </c>
+      <c r="H155" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-30-12.9+-zinc</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>35</v>
       </c>
@@ -5505,7 +6797,7 @@
         <v>39</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f>"hardware_" &amp; B156 &amp; "_" &amp; C156 &amp; "_black_" &amp; A156 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_35_mm_length_hex_head</v>
       </c>
       <c r="E156" s="1">
@@ -5515,14 +6807,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900035</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H156" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-35-12.9</v>
+      </c>
+      <c r="H156" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-35-12.9+-zinc</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>40</v>
       </c>
@@ -5533,7 +6833,7 @@
         <v>39</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f>"hardware_" &amp; B157 &amp; "_" &amp; C157 &amp; "_black_" &amp; A157 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_40_mm_length_hex_head</v>
       </c>
       <c r="E157" s="1">
@@ -5543,14 +6843,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900040</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-40-12.9</v>
+      </c>
+      <c r="H157" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-40-12.9+-zinc</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45</v>
       </c>
@@ -5561,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f>"hardware_" &amp; B158 &amp; "_" &amp; C158 &amp; "_black_" &amp; A158 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_45_mm_length_hex_head</v>
       </c>
       <c r="E158" s="1">
@@ -5571,14 +6879,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900045</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H158" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G158" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-45-12.9</v>
+      </c>
+      <c r="H158" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-45-12.9+-zinc</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>50</v>
       </c>
@@ -5589,7 +6905,7 @@
         <v>39</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f>"hardware_" &amp; B159 &amp; "_" &amp; C159 &amp; "_black_" &amp; A159 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_50_mm_length_hex_head</v>
       </c>
       <c r="E159" s="1">
@@ -5599,14 +6915,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900050</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H159" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G159" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-50-12.9</v>
+      </c>
+      <c r="H159" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-50-12.9+-zinc</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>60</v>
       </c>
@@ -5617,7 +6941,7 @@
         <v>39</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f>"hardware_" &amp; B160 &amp; "_" &amp; C160 &amp; "_black_" &amp; A160 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_60_mm_length_hex_head</v>
       </c>
       <c r="E160" s="1">
@@ -5627,14 +6951,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900060</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H160" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G160" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-60-12.9</v>
+      </c>
+      <c r="H160" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-60-12.9+-zinc</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>70</v>
       </c>
@@ -5645,7 +6977,7 @@
         <v>39</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f>"hardware_" &amp; B161 &amp; "_" &amp; C161 &amp; "_black_" &amp; A161 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_70_mm_length_hex_head</v>
       </c>
       <c r="E161" s="1">
@@ -5655,14 +6987,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900070</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-70-12.9</v>
+      </c>
+      <c r="H161" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-70-12.9+-zinc</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>75</v>
       </c>
@@ -5673,7 +7013,7 @@
         <v>39</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f>"hardware_" &amp; B162 &amp; "_" &amp; C162 &amp; "_black_" &amp; A162 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="4"/>
         <v>hardware_screw_socket_cap_m6_black_75_mm_length_hex_head</v>
       </c>
       <c r="E162" s="1">
@@ -5683,14 +7023,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900075</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H162" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G162" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-75-12.9</v>
+      </c>
+      <c r="H162" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-75-12.9+-zinc</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>65</v>
       </c>
@@ -5701,7 +7049,7 @@
         <v>39</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f>"hardware_" &amp; B163 &amp; "_" &amp; C163 &amp; "_black_" &amp; A163 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D163:D194" si="5">"hardware_" &amp; B163 &amp; "_" &amp; C163 &amp; "_black_" &amp; A163 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m6_black_65_mm_length_hex_head</v>
       </c>
       <c r="E163" s="1">
@@ -5711,14 +7059,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900065</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-65-12.9</v>
+      </c>
+      <c r="H163" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-65-12.9+-zinc</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>80</v>
       </c>
@@ -5729,7 +7085,7 @@
         <v>39</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f>"hardware_" &amp; B164 &amp; "_" &amp; C164 &amp; "_black_" &amp; A164 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="5"/>
         <v>hardware_screw_socket_cap_m6_black_80_mm_length_hex_head</v>
       </c>
       <c r="E164" s="1">
@@ -5739,14 +7095,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900080</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G164" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-80-12.9</v>
+      </c>
+      <c r="H164" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-80-12.9+-zinc</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>90</v>
       </c>
@@ -5757,7 +7121,7 @@
         <v>39</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f>"hardware_" &amp; B165 &amp; "_" &amp; C165 &amp; "_black_" &amp; A165 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="5"/>
         <v>hardware_screw_socket_cap_m6_black_90_mm_length_hex_head</v>
       </c>
       <c r="E165" s="1">
@@ -5767,14 +7131,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M4900090</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H165" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G165" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-90-12.9</v>
+      </c>
+      <c r="H165" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-90-12.9+-zinc</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>100</v>
       </c>
@@ -5785,7 +7157,7 @@
         <v>39</v>
       </c>
       <c r="D166" s="1" t="str">
-        <f>"hardware_" &amp; B166 &amp; "_" &amp; C166 &amp; "_black_" &amp; A166 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="5"/>
         <v>hardware_screw_socket_cap_m6_black_100_mm_length_hex_head</v>
       </c>
       <c r="E166" s="1">
@@ -5795,14 +7167,22 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M49000100</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H166" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G166" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-100-12.9</v>
+      </c>
+      <c r="H166" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-100-12.9+-zinc</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>110</v>
       </c>
@@ -5813,7 +7193,7 @@
         <v>39</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f>"hardware_" &amp; B167 &amp; "_" &amp; C167 &amp; "_black_" &amp; A167 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="5"/>
         <v>hardware_screw_socket_cap_m6_black_110_mm_length_hex_head</v>
       </c>
       <c r="E167" s="1">
@@ -5823,20 +7203,31 @@
         <f>"1150M49000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1150M49000110</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H167" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G167" s="1" t="str">
+        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
+        <v>SSCF-M6-110-12.9</v>
+      </c>
+      <c r="H167" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSCF-M6-110-12.9+-zinc</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C168" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
       </c>
@@ -5846,32 +7237,43 @@
       <c r="F168" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H168" s="1">
-        <v>200</v>
-      </c>
-      <c r="I168" s="1">
+      <c r="G168" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-6-10.9</v>
+      </c>
+      <c r="H168" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-6-10.9+-zinc</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="1">
+        <v>200</v>
+      </c>
+      <c r="K168" s="1">
         <v>150</v>
       </c>
-      <c r="J168" s="1">
+      <c r="L168" s="1">
         <v>53.7</v>
       </c>
-      <c r="K168" s="1">
+      <c r="M168" s="1">
         <v>75</v>
       </c>
-      <c r="M168" s="1">
+      <c r="O168" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="N168" s="1">
+      <c r="P168" s="1">
         <v>3.58</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>8</v>
       </c>
+      <c r="C169" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D169" s="1" t="s">
         <v>16</v>
       </c>
@@ -5881,32 +7283,43 @@
       <c r="F169" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H169" s="1">
-        <v>200</v>
-      </c>
-      <c r="I169" s="1">
+      <c r="G169" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-8-10.9</v>
+      </c>
+      <c r="H169" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-8-10.9+-zinc</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="1">
+        <v>200</v>
+      </c>
+      <c r="K169" s="1">
         <v>120</v>
       </c>
-      <c r="J169" s="1">
+      <c r="L169" s="1">
         <v>53.4</v>
       </c>
-      <c r="K169" s="1">
+      <c r="M169" s="1">
         <v>60</v>
       </c>
-      <c r="M169" s="1">
+      <c r="O169" s="1">
         <v>0.44500000000000001</v>
       </c>
-      <c r="N169" s="1">
+      <c r="P169" s="1">
         <v>4.45</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>10</v>
       </c>
+      <c r="C170" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D170" s="1" t="s">
         <v>18</v>
       </c>
@@ -5916,32 +7329,43 @@
       <c r="F170" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H170" s="1">
-        <v>200</v>
-      </c>
-      <c r="I170" s="1">
+      <c r="G170" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-10-10.9</v>
+      </c>
+      <c r="H170" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-10-10.9+-zinc</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="1">
+        <v>200</v>
+      </c>
+      <c r="K170" s="1">
         <v>110</v>
       </c>
-      <c r="J170" s="1">
+      <c r="L170" s="1">
         <v>57.64</v>
       </c>
-      <c r="K170" s="1">
+      <c r="M170" s="1">
         <v>55</v>
       </c>
-      <c r="M170" s="1">
+      <c r="O170" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="N170" s="1">
+      <c r="P170" s="1">
         <v>5.24</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>12</v>
       </c>
+      <c r="C171" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D171" s="1" t="s">
         <v>20</v>
       </c>
@@ -5951,32 +7375,43 @@
       <c r="F171" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H171" s="1">
-        <v>200</v>
-      </c>
-      <c r="I171" s="1">
+      <c r="G171" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-12-10.9</v>
+      </c>
+      <c r="H171" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-12-10.9+-zinc</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="1">
+        <v>200</v>
+      </c>
+      <c r="K171" s="1">
         <v>90</v>
       </c>
-      <c r="J171" s="1">
+      <c r="L171" s="1">
         <v>54.72</v>
       </c>
-      <c r="K171" s="1">
+      <c r="M171" s="1">
         <v>45</v>
       </c>
-      <c r="M171" s="1">
+      <c r="O171" s="1">
         <v>0.60799999999999998</v>
       </c>
-      <c r="N171" s="1">
+      <c r="P171" s="1">
         <v>6.08</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>16</v>
       </c>
+      <c r="C172" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D172" s="1" t="s">
         <v>22</v>
       </c>
@@ -5986,32 +7421,43 @@
       <c r="F172" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H172" s="1">
-        <v>200</v>
-      </c>
-      <c r="I172" s="1">
+      <c r="G172" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-16-10.9</v>
+      </c>
+      <c r="H172" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-16-10.9+-zinc</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="1">
+        <v>200</v>
+      </c>
+      <c r="K172" s="1">
         <v>70</v>
       </c>
-      <c r="J172" s="1">
+      <c r="L172" s="1">
         <v>53.76</v>
       </c>
-      <c r="K172" s="1">
+      <c r="M172" s="1">
         <v>35</v>
       </c>
-      <c r="M172" s="1">
+      <c r="O172" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="N172" s="1">
+      <c r="P172" s="1">
         <v>7.68</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>20</v>
       </c>
+      <c r="C173" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D173" s="1" t="s">
         <v>24</v>
       </c>
@@ -6021,32 +7467,43 @@
       <c r="F173" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H173" s="1">
-        <v>200</v>
-      </c>
-      <c r="I173" s="1">
+      <c r="G173" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-20-10.9</v>
+      </c>
+      <c r="H173" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-20-10.9+-zinc</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="1">
+        <v>200</v>
+      </c>
+      <c r="K173" s="1">
         <v>50</v>
       </c>
-      <c r="J173" s="1">
+      <c r="L173" s="1">
         <v>46.75</v>
       </c>
-      <c r="K173" s="1">
+      <c r="M173" s="1">
         <v>25</v>
       </c>
-      <c r="M173" s="1">
+      <c r="O173" s="1">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N173" s="1">
+      <c r="P173" s="1">
         <v>9.35</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>25</v>
       </c>
+      <c r="C174" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D174" s="1" t="s">
         <v>26</v>
       </c>
@@ -6056,32 +7513,43 @@
       <c r="F174" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H174" s="1">
-        <v>200</v>
-      </c>
-      <c r="I174" s="1">
-        <v>40</v>
+      <c r="G174" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-25-10.9</v>
+      </c>
+      <c r="H174" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-25-10.9+-zinc</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J174" s="1">
+        <v>200</v>
+      </c>
+      <c r="K174" s="1">
+        <v>40</v>
+      </c>
+      <c r="L174" s="1">
         <v>46.76</v>
       </c>
-      <c r="K174" s="1">
+      <c r="M174" s="1">
         <v>20</v>
       </c>
-      <c r="M174" s="1">
+      <c r="O174" s="1">
         <v>1.169</v>
       </c>
-      <c r="N174" s="1">
+      <c r="P174" s="1">
         <v>11.69</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>30</v>
       </c>
+      <c r="C175" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D175" s="1" t="s">
         <v>28</v>
       </c>
@@ -6091,17 +7559,28 @@
       <c r="F175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H175" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G175" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-30-10.9</v>
+      </c>
+      <c r="H175" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-30-10.9+-zinc</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>35</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D176" s="1" t="s">
         <v>30</v>
       </c>
@@ -6111,14 +7590,22 @@
       <c r="F176" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H176" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G176" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M3-35-10.9</v>
+      </c>
+      <c r="H176" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M3-35-10.9+-zinc</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -6129,7 +7616,7 @@
         <v>44</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f>"hardware_" &amp; B177 &amp; "_" &amp; C177 &amp; "_black_" &amp; A177 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D177:D211" si="6">"hardware_" &amp; B177 &amp; "_" &amp; C177 &amp; "_black_" &amp; A177 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m4_black_6_mm_length_hex_head</v>
       </c>
       <c r="E177" s="1">
@@ -6139,11 +7626,19 @@
         <f>"1151M45000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450006</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G177" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-6-10.9</v>
+      </c>
+      <c r="H177" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-6-10.9+-zinc</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>10</v>
       </c>
@@ -6154,7 +7649,7 @@
         <v>44</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f>"hardware_" &amp; B178 &amp; "_" &amp; C178 &amp; "_black_" &amp; A178 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_10_mm_length_hex_head</v>
       </c>
       <c r="E178" s="1">
@@ -6164,11 +7659,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450010</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G178" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-10-10.9</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-10-10.9+-zinc</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>12</v>
       </c>
@@ -6179,7 +7682,7 @@
         <v>44</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f>"hardware_" &amp; B179 &amp; "_" &amp; C179 &amp; "_black_" &amp; A179 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_12_mm_length_hex_head</v>
       </c>
       <c r="E179" s="1">
@@ -6189,11 +7692,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450012</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G179" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-12-10.9</v>
+      </c>
+      <c r="H179" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-12-10.9+-zinc</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>16</v>
       </c>
@@ -6204,7 +7715,7 @@
         <v>44</v>
       </c>
       <c r="D180" s="1" t="str">
-        <f>"hardware_" &amp; B180 &amp; "_" &amp; C180 &amp; "_black_" &amp; A180 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_16_mm_length_hex_head</v>
       </c>
       <c r="E180" s="1">
@@ -6214,11 +7725,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450016</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G180" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-16-10.9</v>
+      </c>
+      <c r="H180" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-16-10.9+-zinc</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>20</v>
       </c>
@@ -6229,7 +7748,7 @@
         <v>44</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f>"hardware_" &amp; B181 &amp; "_" &amp; C181 &amp; "_black_" &amp; A181 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_20_mm_length_hex_head</v>
       </c>
       <c r="E181" s="1">
@@ -6239,11 +7758,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450020</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G181" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-20-10.9</v>
+      </c>
+      <c r="H181" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-20-10.9+-zinc</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>25</v>
       </c>
@@ -6254,7 +7781,7 @@
         <v>44</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f>"hardware_" &amp; B182 &amp; "_" &amp; C182 &amp; "_black_" &amp; A182 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_25_mm_length_hex_head</v>
       </c>
       <c r="E182" s="1">
@@ -6264,11 +7791,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450025</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G182" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-25-10.9</v>
+      </c>
+      <c r="H182" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-25-10.9+-zinc</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>30</v>
       </c>
@@ -6279,7 +7814,7 @@
         <v>44</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f>"hardware_" &amp; B183 &amp; "_" &amp; C183 &amp; "_black_" &amp; A183 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_30_mm_length_hex_head</v>
       </c>
       <c r="E183" s="1">
@@ -6289,11 +7824,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450030</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G183" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-30-10.9</v>
+      </c>
+      <c r="H183" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-30-10.9+-zinc</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>35</v>
       </c>
@@ -6304,7 +7847,7 @@
         <v>44</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f>"hardware_" &amp; B184 &amp; "_" &amp; C184 &amp; "_black_" &amp; A184 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_35_mm_length_hex_head</v>
       </c>
       <c r="E184" s="1">
@@ -6314,11 +7857,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450035</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G184" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-35-10.9</v>
+      </c>
+      <c r="H184" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-35-10.9+-zinc</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>40</v>
       </c>
@@ -6329,7 +7880,7 @@
         <v>44</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f>"hardware_" &amp; B185 &amp; "_" &amp; C185 &amp; "_black_" &amp; A185 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m4_black_40_mm_length_hex_head</v>
       </c>
       <c r="E185" s="1">
@@ -6339,11 +7890,19 @@
         <f>"1151M4500" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M450040</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G185" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M4-40-10.9</v>
+      </c>
+      <c r="H185" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M4-40-10.9+-zinc</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -6354,7 +7913,7 @@
         <v>43</v>
       </c>
       <c r="D186" s="1" t="str">
-        <f>"hardware_" &amp; B186 &amp; "_" &amp; C186 &amp; "_black_" &amp; A186 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_8_mm_length_hex_head</v>
       </c>
       <c r="E186" s="1">
@@ -6364,11 +7923,19 @@
         <f>"1151M47000" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470008</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G186" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-8-10.9</v>
+      </c>
+      <c r="H186" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-8-10.9+-zinc</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>10</v>
       </c>
@@ -6379,7 +7946,7 @@
         <v>43</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f>"hardware_" &amp; B187 &amp; "_" &amp; C187 &amp; "_black_" &amp; A187 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_10_mm_length_hex_head</v>
       </c>
       <c r="E187" s="1">
@@ -6389,11 +7956,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470010</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G187" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-10-10.9</v>
+      </c>
+      <c r="H187" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-10-10.9+-zinc</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>12</v>
       </c>
@@ -6404,7 +7979,7 @@
         <v>43</v>
       </c>
       <c r="D188" s="1" t="str">
-        <f>"hardware_" &amp; B188 &amp; "_" &amp; C188 &amp; "_black_" &amp; A188 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_12_mm_length_hex_head</v>
       </c>
       <c r="E188" s="1">
@@ -6414,11 +7989,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470012</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G188" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-12-10.9</v>
+      </c>
+      <c r="H188" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-12-10.9+-zinc</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>16</v>
       </c>
@@ -6429,7 +8012,7 @@
         <v>43</v>
       </c>
       <c r="D189" s="1" t="str">
-        <f>"hardware_" &amp; B189 &amp; "_" &amp; C189 &amp; "_black_" &amp; A189 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_16_mm_length_hex_head</v>
       </c>
       <c r="E189" s="1">
@@ -6439,11 +8022,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470016</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G189" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-16-10.9</v>
+      </c>
+      <c r="H189" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-16-10.9+-zinc</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>20</v>
       </c>
@@ -6454,7 +8045,7 @@
         <v>43</v>
       </c>
       <c r="D190" s="1" t="str">
-        <f>"hardware_" &amp; B190 &amp; "_" &amp; C190 &amp; "_black_" &amp; A190 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_20_mm_length_hex_head</v>
       </c>
       <c r="E190" s="1">
@@ -6464,11 +8055,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470020</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G190" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-20-10.9</v>
+      </c>
+      <c r="H190" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-20-10.9+-zinc</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>25</v>
       </c>
@@ -6479,7 +8078,7 @@
         <v>43</v>
       </c>
       <c r="D191" s="1" t="str">
-        <f>"hardware_" &amp; B191 &amp; "_" &amp; C191 &amp; "_black_" &amp; A191 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_25_mm_length_hex_head</v>
       </c>
       <c r="E191" s="1">
@@ -6489,11 +8088,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470025</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G191" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-25-10.9</v>
+      </c>
+      <c r="H191" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-25-10.9+-zinc</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>30</v>
       </c>
@@ -6504,7 +8111,7 @@
         <v>43</v>
       </c>
       <c r="D192" s="1" t="str">
-        <f>"hardware_" &amp; B192 &amp; "_" &amp; C192 &amp; "_black_" &amp; A192 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_30_mm_length_hex_head</v>
       </c>
       <c r="E192" s="1">
@@ -6514,11 +8121,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470030</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G192" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-30-10.9</v>
+      </c>
+      <c r="H192" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-30-10.9+-zinc</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>35</v>
       </c>
@@ -6529,7 +8144,7 @@
         <v>43</v>
       </c>
       <c r="D193" s="1" t="str">
-        <f>"hardware_" &amp; B193 &amp; "_" &amp; C193 &amp; "_black_" &amp; A193 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_35_mm_length_hex_head</v>
       </c>
       <c r="E193" s="1">
@@ -6539,11 +8154,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470035</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G193" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-35-10.9</v>
+      </c>
+      <c r="H193" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-35-10.9+-zinc</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>40</v>
       </c>
@@ -6554,7 +8177,7 @@
         <v>43</v>
       </c>
       <c r="D194" s="1" t="str">
-        <f>"hardware_" &amp; B194 &amp; "_" &amp; C194 &amp; "_black_" &amp; A194 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_40_mm_length_hex_head</v>
       </c>
       <c r="E194" s="1">
@@ -6564,11 +8187,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470040</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G194" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-40-10.9</v>
+      </c>
+      <c r="H194" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-40-10.9+-zinc</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45</v>
       </c>
@@ -6579,7 +8210,7 @@
         <v>43</v>
       </c>
       <c r="D195" s="1" t="str">
-        <f>"hardware_" &amp; B195 &amp; "_" &amp; C195 &amp; "_black_" &amp; A195 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_45_mm_length_hex_head</v>
       </c>
       <c r="E195" s="1">
@@ -6589,11 +8220,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470045</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G195" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-45-10.9</v>
+      </c>
+      <c r="H195" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-45-10.9+-zinc</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>50</v>
       </c>
@@ -6604,7 +8243,7 @@
         <v>43</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f>"hardware_" &amp; B196 &amp; "_" &amp; C196 &amp; "_black_" &amp; A196 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m5_black_50_mm_length_hex_head</v>
       </c>
       <c r="E196" s="1">
@@ -6614,11 +8253,19 @@
         <f>"1151M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M470050</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G196" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M5-50-10.9</v>
+      </c>
+      <c r="H196" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M5-50-10.9+-zinc</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>8</v>
       </c>
@@ -6629,17 +8276,25 @@
         <v>39</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f>"hardware_" &amp; B197 &amp; "_" &amp; C197 &amp; "_black_" &amp; A197 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_8_mm_length_hex_head</v>
       </c>
       <c r="E197" s="1">
         <v>1901240</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G197" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-8-10.9</v>
+      </c>
+      <c r="H197" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-8-10.9+-zinc</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>10</v>
       </c>
@@ -6650,7 +8305,7 @@
         <v>39</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f>"hardware_" &amp; B198 &amp; "_" &amp; C198 &amp; "_black_" &amp; A198 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_10_mm_length_hex_head</v>
       </c>
       <c r="E198" s="1">
@@ -6660,11 +8315,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490010</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G198" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-10-10.9</v>
+      </c>
+      <c r="H198" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-10-10.9+-zinc</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>12</v>
       </c>
@@ -6675,7 +8338,7 @@
         <v>39</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f>"hardware_" &amp; B199 &amp; "_" &amp; C199 &amp; "_black_" &amp; A199 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_12_mm_length_hex_head</v>
       </c>
       <c r="E199" s="1">
@@ -6685,11 +8348,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490012</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G199" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-12-10.9</v>
+      </c>
+      <c r="H199" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-12-10.9+-zinc</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>16</v>
       </c>
@@ -6700,7 +8371,7 @@
         <v>39</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f>"hardware_" &amp; B200 &amp; "_" &amp; C200 &amp; "_black_" &amp; A200 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_16_mm_length_hex_head</v>
       </c>
       <c r="E200" s="1">
@@ -6710,11 +8381,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490016</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G200" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-16-10.9</v>
+      </c>
+      <c r="H200" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-16-10.9+-zinc</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>20</v>
       </c>
@@ -6725,7 +8404,7 @@
         <v>39</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f>"hardware_" &amp; B201 &amp; "_" &amp; C201 &amp; "_black_" &amp; A201 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_20_mm_length_hex_head</v>
       </c>
       <c r="E201" s="1">
@@ -6735,11 +8414,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490020</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G201" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-20-10.9</v>
+      </c>
+      <c r="H201" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-20-10.9+-zinc</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>25</v>
       </c>
@@ -6750,7 +8437,7 @@
         <v>39</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f>"hardware_" &amp; B202 &amp; "_" &amp; C202 &amp; "_black_" &amp; A202 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_25_mm_length_hex_head</v>
       </c>
       <c r="E202" s="1">
@@ -6760,11 +8447,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490025</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G202" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-25-10.9</v>
+      </c>
+      <c r="H202" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-25-10.9+-zinc</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>30</v>
       </c>
@@ -6775,7 +8470,7 @@
         <v>39</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f>"hardware_" &amp; B203 &amp; "_" &amp; C203 &amp; "_black_" &amp; A203 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_30_mm_length_hex_head</v>
       </c>
       <c r="E203" s="1">
@@ -6785,11 +8480,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490030</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G203" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-30-10.9</v>
+      </c>
+      <c r="H203" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-30-10.9+-zinc</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>35</v>
       </c>
@@ -6800,7 +8503,7 @@
         <v>39</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f>"hardware_" &amp; B204 &amp; "_" &amp; C204 &amp; "_black_" &amp; A204 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_35_mm_length_hex_head</v>
       </c>
       <c r="E204" s="1">
@@ -6810,11 +8513,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490035</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G204" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-35-10.9</v>
+      </c>
+      <c r="H204" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-35-10.9+-zinc</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>40</v>
       </c>
@@ -6825,7 +8536,7 @@
         <v>39</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f>"hardware_" &amp; B205 &amp; "_" &amp; C205 &amp; "_black_" &amp; A205 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_40_mm_length_hex_head</v>
       </c>
       <c r="E205" s="1">
@@ -6835,11 +8546,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490040</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G205" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-40-10.9</v>
+      </c>
+      <c r="H205" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-40-10.9+-zinc</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45</v>
       </c>
@@ -6850,7 +8569,7 @@
         <v>39</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f>"hardware_" &amp; B206 &amp; "_" &amp; C206 &amp; "_black_" &amp; A206 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_45_mm_length_hex_head</v>
       </c>
       <c r="E206" s="1">
@@ -6860,11 +8579,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490045</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G206" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-45-10.9</v>
+      </c>
+      <c r="H206" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-45-10.9+-zinc</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>50</v>
       </c>
@@ -6875,7 +8602,7 @@
         <v>39</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f>"hardware_" &amp; B207 &amp; "_" &amp; C207 &amp; "_black_" &amp; A207 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_50_mm_length_hex_head</v>
       </c>
       <c r="E207" s="1">
@@ -6885,11 +8612,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490050</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G207" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-50-10.9</v>
+      </c>
+      <c r="H207" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-50-10.9+-zinc</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>55</v>
       </c>
@@ -6900,7 +8635,7 @@
         <v>39</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f>"hardware_" &amp; B208 &amp; "_" &amp; C208 &amp; "_black_" &amp; A208 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_55_mm_length_hex_head</v>
       </c>
       <c r="E208" s="1">
@@ -6910,11 +8645,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490055</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G208" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-55-10.9</v>
+      </c>
+      <c r="H208" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-55-10.9+-zinc</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>60</v>
       </c>
@@ -6925,7 +8668,7 @@
         <v>39</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f>"hardware_" &amp; B209 &amp; "_" &amp; C209 &amp; "_black_" &amp; A209 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_60_mm_length_hex_head</v>
       </c>
       <c r="E209" s="1">
@@ -6935,11 +8678,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490060</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G209" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-60-10.9</v>
+      </c>
+      <c r="H209" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-60-10.9+-zinc</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>70</v>
       </c>
@@ -6950,7 +8701,7 @@
         <v>39</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f>"hardware_" &amp; B210 &amp; "_" &amp; C210 &amp; "_black_" &amp; A210 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_70_mm_length_hex_head</v>
       </c>
       <c r="E210" s="1">
@@ -6960,11 +8711,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490070</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G210" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-70-10.9</v>
+      </c>
+      <c r="H210" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-70-10.9+-zinc</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>80</v>
       </c>
@@ -6975,7 +8734,7 @@
         <v>39</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f>"hardware_" &amp; B211 &amp; "_" &amp; C211 &amp; "_black_" &amp; A211 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" si="6"/>
         <v>hardware_screw_countersunk_m6_black_80_mm_length_hex_head</v>
       </c>
       <c r="E211" s="1">
@@ -6985,11 +8744,19 @@
         <f>"1151M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>1151M490080</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G211" s="1" t="str">
+        <f>"SSK-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-10.9"</f>
+        <v>SSK-M6-80-10.9</v>
+      </c>
+      <c r="H211" s="1" t="str">
+        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
+        <v>SSK-M6-80-10.9+-zinc</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>54</v>
       </c>
@@ -7006,11 +8773,11 @@
       <c r="E212" s="1">
         <v>1961000</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I212" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>54</v>
       </c>
@@ -7027,11 +8794,11 @@
       <c r="E213" s="1">
         <v>1961010</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I213" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45</v>
       </c>
@@ -7050,7 +8817,7 @@
         <v>1150M390045</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>5</v>
       </c>
@@ -7069,7 +8836,7 @@
         <v>1150M390005</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>60</v>
       </c>
@@ -7088,7 +8855,7 @@
         <v>1150M390060</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>18</v>
       </c>
@@ -7107,7 +8874,7 @@
         <v>Z0318M470018</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>55</v>
       </c>

--- a/working_xlsx.xlsx
+++ b/working_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A07132-4589-4167-B2D7-88659B5073B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D79D8-AADB-43CC-A82E-FA202DE5364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-690" windowWidth="29040" windowHeight="16440" xr2:uid="{74BA4C15-8426-4DE0-A8F7-49D7658648B5}"/>
   </bookViews>
@@ -773,44 +773,6 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -920,6 +882,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1063,20 +1063,20 @@
     <tableColumn id="4" xr3:uid="{5E4082F3-AD77-4E7C-A3F3-4CD8F7057670}" name="oomp_id" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{098FFFE0-FE9E-4655-89EA-FF2B51360897}" name="part_number_distributor_orbital_fasteners" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{30B64515-6334-4244-82BF-4B5965586509}" name="part_number_manufacturer_metalmate" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{B40656A9-C7A9-4EBF-B3EF-194283553316}" name="part_number_distributor_accu" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{B40656A9-C7A9-4EBF-B3EF-194283553316}" name="part_number_distributor_accu" dataDxfId="9">
       <calculatedColumnFormula>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{ECB5C2EA-9660-4D50-B118-5C20B232E66A}" name="part_number_distributor_accu_search" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{ECB5C2EA-9660-4D50-B118-5C20B232E66A}" name="part_number_distributor_accu_search" dataDxfId="8">
       <calculatedColumnFormula>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{39C3AE81-4AC3-41B0-AD8A-25243F651F64}" name="distributor_current" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{12AA45DA-70CF-4FE6-A3E4-679540A49DE8}" name="quantity_current" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{5E489A5F-A3EA-43A1-871A-901CDE892CB9}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{491B2930-0BA2-4856-89B6-B4268B24D34F}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{ABEC4A19-636B-46C5-8B57-D656FDE2708B}" name="project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{96ACED9B-D966-4A24-9746-F7A2B39A9464}" name="tray_capacity" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{9CB7EDF0-0823-414A-92FB-48268C90FEA7}" name="weight" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{55D16526-5017-459C-AEF4-09897FF0EEE8}" name="weight_10" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{39C3AE81-4AC3-41B0-AD8A-25243F651F64}" name="distributor_current" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{12AA45DA-70CF-4FE6-A3E4-679540A49DE8}" name="quantity_current" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{5E489A5F-A3EA-43A1-871A-901CDE892CB9}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{491B2930-0BA2-4856-89B6-B4268B24D34F}" name="project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{ABEC4A19-636B-46C5-8B57-D656FDE2708B}" name="project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{96ACED9B-D966-4A24-9746-F7A2B39A9464}" name="tray_capacity" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{9CB7EDF0-0823-414A-92FB-48268C90FEA7}" name="weight" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{55D16526-5017-459C-AEF4-09897FF0EEE8}" name="weight_10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1401,10 +1401,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162B66-111D-4E55-92AB-8A3902FD99ED}">
   <dimension ref="A1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <pane xSplit="8745" ySplit="12000" topLeftCell="G11" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <pane xSplit="8745" ySplit="12000" topLeftCell="F11" activePane="topRight"/>
       <selection activeCell="B168" sqref="B168"/>
-      <selection pane="topRight" activeCell="G168" sqref="G168:H211"/>
+      <selection pane="topRight" activeCell="G211" sqref="G211"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -1483,14 +1483,6 @@
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF---12.9</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF---12.9+-zinc</v>
-      </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1512,14 +1504,6 @@
       <c r="E3" s="1">
         <v>1711010</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4--12.9</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4--12.9+-zinc</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1541,14 +1525,6 @@
       <c r="E4" s="1">
         <v>1711020</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5--12.9</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5--12.9+-zinc</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1570,14 +1546,6 @@
       <c r="E5" s="1">
         <v>1711030</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6--12.9</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6--12.9+-zinc</v>
-      </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1599,14 +1567,6 @@
       <c r="E6" s="1">
         <v>1711040</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8--12.9</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8--12.9+-zinc</v>
-      </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1621,14 +1581,6 @@
       <c r="E7" s="1">
         <v>1731000</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF---12.9</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF---12.9+-zinc</v>
-      </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1653,14 +1605,6 @@
       <c r="E8" s="1">
         <v>1731000</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-penny-12.9</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-penny-12.9+-zinc</v>
-      </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1685,14 +1629,6 @@
       <c r="E9" s="1">
         <v>1731010</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-penny-12.9</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-penny-12.9+-zinc</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1717,14 +1653,6 @@
       <c r="E10" s="1">
         <v>1731050</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-penny-12.9</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-penny-12.9+-zinc</v>
-      </c>
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1677,6 @@
       <c r="E11" s="1">
         <v>1731090</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-penny-12.9</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-penny-12.9+-zinc</v>
-      </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1781,14 +1701,6 @@
       <c r="E12" s="1">
         <v>1731116</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-penny-12.9</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-penny-12.9+-zinc</v>
-      </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1806,14 +1718,6 @@
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF---12.9</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF---12.9+-zinc</v>
-      </c>
       <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1853,14 +1757,6 @@
       <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4--12.9</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4--12.9+-zinc</v>
-      </c>
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1885,14 +1781,6 @@
       <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5--12.9</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5--12.9+-zinc</v>
-      </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1917,14 +1805,6 @@
       <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6--12.9</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6--12.9+-zinc</v>
-      </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1949,14 +1829,6 @@
       <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8--12.9</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8--12.9+-zinc</v>
-      </c>
       <c r="I17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1984,14 +1856,6 @@
       <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-locking-12.9</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-locking-12.9+-zinc</v>
-      </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2019,14 +1883,6 @@
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-locking-12.9</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-locking-12.9+-zinc</v>
-      </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2054,14 +1910,6 @@
       <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-locking-12.9</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-locking-12.9+-zinc</v>
-      </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
@@ -2089,14 +1937,6 @@
       <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-locking-12.9</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-locking-12.9+-zinc</v>
-      </c>
       <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
@@ -2121,14 +1961,6 @@
       <c r="E22" s="1">
         <v>1850800</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-8-12.9</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-8-12.9+-zinc</v>
-      </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2153,14 +1985,6 @@
       <c r="E23" s="1">
         <v>1850810</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-10-12.9</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-10-12.9+-zinc</v>
-      </c>
       <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2185,14 +2009,6 @@
       <c r="E24" s="1">
         <v>1850820</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-12-12.9</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-12-12.9+-zinc</v>
-      </c>
       <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2217,14 +2033,6 @@
       <c r="E25" s="1">
         <v>1850830</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-16-12.9</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-16-12.9+-zinc</v>
-      </c>
       <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2249,14 +2057,6 @@
       <c r="E26" s="1">
         <v>1850840</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-20-12.9</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-20-12.9+-zinc</v>
-      </c>
       <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2281,14 +2081,6 @@
       <c r="E27" s="1">
         <v>1850850</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-25-12.9</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-25-12.9+-zinc</v>
-      </c>
       <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
@@ -2313,14 +2105,6 @@
       <c r="E28" s="1">
         <v>1850990</v>
       </c>
-      <c r="G28" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-8-12.9</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-8-12.9+-zinc</v>
-      </c>
       <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
@@ -2345,14 +2129,6 @@
       <c r="E29" s="1">
         <v>1851000</v>
       </c>
-      <c r="G29" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-10-12.9</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-10-12.9+-zinc</v>
-      </c>
       <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2377,14 +2153,6 @@
       <c r="E30" s="1">
         <v>1851010</v>
       </c>
-      <c r="G30" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-12-12.9</v>
-      </c>
-      <c r="H30" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-12-12.9+-zinc</v>
-      </c>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
@@ -2409,14 +2177,6 @@
       <c r="E31" s="1">
         <v>1851020</v>
       </c>
-      <c r="G31" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-16-12.9</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-16-12.9+-zinc</v>
-      </c>
       <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2441,14 +2201,6 @@
       <c r="E32" s="1">
         <v>1851030</v>
       </c>
-      <c r="G32" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-20-12.9</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-20-12.9+-zinc</v>
-      </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
@@ -2473,14 +2225,6 @@
       <c r="E33" s="1">
         <v>1851040</v>
       </c>
-      <c r="G33" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-25-12.9</v>
-      </c>
-      <c r="H33" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-25-12.9+-zinc</v>
-      </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
@@ -2505,14 +2249,6 @@
       <c r="E34" s="1">
         <v>1851050</v>
       </c>
-      <c r="G34" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M3-30-12.9</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M3-30-12.9+-zinc</v>
-      </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
       </c>
@@ -2537,14 +2273,6 @@
       <c r="E35" s="1">
         <v>1851050</v>
       </c>
-      <c r="G35" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-30-12.9</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-30-12.9+-zinc</v>
-      </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
       </c>
@@ -2569,14 +2297,6 @@
       <c r="E36" s="1">
         <v>1851051</v>
       </c>
-      <c r="G36" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-35-12.9</v>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-35-12.9+-zinc</v>
-      </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
       </c>
@@ -2601,14 +2321,6 @@
       <c r="E37" s="1">
         <v>1851052</v>
       </c>
-      <c r="G37" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-40-12.9</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-40-12.9+-zinc</v>
-      </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
       </c>
@@ -2633,14 +2345,6 @@
       <c r="E38" s="1">
         <v>1851054</v>
       </c>
-      <c r="G38" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M4-50-12.9</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M4-50-12.9+-zinc</v>
-      </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2669,14 +2373,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M47008</v>
       </c>
-      <c r="G39" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-8-12.9</v>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-8-12.9+-zinc</v>
-      </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
@@ -2705,14 +2401,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470010</v>
       </c>
-      <c r="G40" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-10-12.9</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-10-12.9+-zinc</v>
-      </c>
       <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2741,14 +2429,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470012</v>
       </c>
-      <c r="G41" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-12-12.9</v>
-      </c>
-      <c r="H41" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-12-12.9+-zinc</v>
-      </c>
       <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2777,14 +2457,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470016</v>
       </c>
-      <c r="G42" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-16-12.9</v>
-      </c>
-      <c r="H42" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-16-12.9+-zinc</v>
-      </c>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -2813,14 +2485,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470020</v>
       </c>
-      <c r="G43" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-20-12.9</v>
-      </c>
-      <c r="H43" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-20-12.9+-zinc</v>
-      </c>
       <c r="I43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2849,14 +2513,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470022</v>
       </c>
-      <c r="G44" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-22-12.9</v>
-      </c>
-      <c r="H44" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-22-12.9+-zinc</v>
-      </c>
       <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2885,14 +2541,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470025</v>
       </c>
-      <c r="G45" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-25-12.9</v>
-      </c>
-      <c r="H45" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-25-12.9+-zinc</v>
-      </c>
       <c r="I45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2921,14 +2569,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470030</v>
       </c>
-      <c r="G46" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-30-12.9</v>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-30-12.9+-zinc</v>
-      </c>
       <c r="I46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2957,14 +2597,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470035</v>
       </c>
-      <c r="G47" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-35-12.9</v>
-      </c>
-      <c r="H47" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-35-12.9+-zinc</v>
-      </c>
       <c r="I47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2993,14 +2625,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470040</v>
       </c>
-      <c r="G48" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-40-12.9</v>
-      </c>
-      <c r="H48" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-40-12.9+-zinc</v>
-      </c>
       <c r="I48" s="1" t="s">
         <v>15</v>
       </c>
@@ -3029,14 +2653,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470050</v>
       </c>
-      <c r="G49" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-50-12.9</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-50-12.9+-zinc</v>
-      </c>
       <c r="I49" s="1" t="s">
         <v>15</v>
       </c>
@@ -3065,14 +2681,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470045</v>
       </c>
-      <c r="G50" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-45-12.9</v>
-      </c>
-      <c r="H50" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-45-12.9+-zinc</v>
-      </c>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
@@ -3101,14 +2709,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470060</v>
       </c>
-      <c r="G51" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-60-12.9</v>
-      </c>
-      <c r="H51" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-60-12.9+-zinc</v>
-      </c>
       <c r="I51" s="1" t="s">
         <v>15</v>
       </c>
@@ -3137,14 +2737,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470070</v>
       </c>
-      <c r="G52" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-70-12.9</v>
-      </c>
-      <c r="H52" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-70-12.9+-zinc</v>
-      </c>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
@@ -3173,14 +2765,6 @@
         <f>"Z0318M4700" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M470080</v>
       </c>
-      <c r="G53" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M5-80-12.9</v>
-      </c>
-      <c r="H53" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M5-80-12.9+-zinc</v>
-      </c>
       <c r="I53" s="1" t="s">
         <v>15</v>
       </c>
@@ -3208,14 +2792,6 @@
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-8-12.9</v>
-      </c>
-      <c r="H54" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-8-12.9+-zinc</v>
-      </c>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
@@ -3244,14 +2820,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490010</v>
       </c>
-      <c r="G55" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-10-12.9</v>
-      </c>
-      <c r="H55" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-10-12.9+-zinc</v>
-      </c>
       <c r="I55" s="1" t="s">
         <v>15</v>
       </c>
@@ -3280,14 +2848,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490012</v>
       </c>
-      <c r="G56" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-12-12.9</v>
-      </c>
-      <c r="H56" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-12-12.9+-zinc</v>
-      </c>
       <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
@@ -3316,14 +2876,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490016</v>
       </c>
-      <c r="G57" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-16-12.9</v>
-      </c>
-      <c r="H57" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-16-12.9+-zinc</v>
-      </c>
       <c r="I57" s="1" t="s">
         <v>15</v>
       </c>
@@ -3352,14 +2904,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490018</v>
       </c>
-      <c r="G58" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-18-12.9</v>
-      </c>
-      <c r="H58" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-18-12.9+-zinc</v>
-      </c>
       <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
@@ -3388,14 +2932,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490020</v>
       </c>
-      <c r="G59" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-20-12.9</v>
-      </c>
-      <c r="H59" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-20-12.9+-zinc</v>
-      </c>
       <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
@@ -3424,14 +2960,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490022</v>
       </c>
-      <c r="G60" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-22-12.9</v>
-      </c>
-      <c r="H60" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-22-12.9+-zinc</v>
-      </c>
       <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
@@ -3460,14 +2988,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490025</v>
       </c>
-      <c r="G61" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-25-12.9</v>
-      </c>
-      <c r="H61" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-25-12.9+-zinc</v>
-      </c>
       <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
@@ -3496,14 +3016,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490030</v>
       </c>
-      <c r="G62" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-30-12.9</v>
-      </c>
-      <c r="H62" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-30-12.9+-zinc</v>
-      </c>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
@@ -3532,14 +3044,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490035</v>
       </c>
-      <c r="G63" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-35-12.9</v>
-      </c>
-      <c r="H63" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-35-12.9+-zinc</v>
-      </c>
       <c r="I63" s="1" t="s">
         <v>15</v>
       </c>
@@ -3568,14 +3072,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490040</v>
       </c>
-      <c r="G64" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-40-12.9</v>
-      </c>
-      <c r="H64" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-40-12.9+-zinc</v>
-      </c>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
@@ -3604,14 +3100,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490045</v>
       </c>
-      <c r="G65" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-45-12.9</v>
-      </c>
-      <c r="H65" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-45-12.9+-zinc</v>
-      </c>
       <c r="I65" s="1" t="s">
         <v>15</v>
       </c>
@@ -3640,14 +3128,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490050</v>
       </c>
-      <c r="G66" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-50-12.9</v>
-      </c>
-      <c r="H66" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-50-12.9+-zinc</v>
-      </c>
       <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
@@ -3676,14 +3156,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490055</v>
       </c>
-      <c r="G67" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-55-12.9</v>
-      </c>
-      <c r="H67" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-55-12.9+-zinc</v>
-      </c>
       <c r="I67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3712,14 +3184,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490060</v>
       </c>
-      <c r="G68" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-60-12.9</v>
-      </c>
-      <c r="H68" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-60-12.9+-zinc</v>
-      </c>
       <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
@@ -3748,14 +3212,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490065</v>
       </c>
-      <c r="G69" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-65-12.9</v>
-      </c>
-      <c r="H69" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-65-12.9+-zinc</v>
-      </c>
       <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
@@ -3784,14 +3240,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490075</v>
       </c>
-      <c r="G70" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-75-12.9</v>
-      </c>
-      <c r="H70" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-75-12.9+-zinc</v>
-      </c>
       <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
@@ -3820,14 +3268,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490070</v>
       </c>
-      <c r="G71" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-70-12.9</v>
-      </c>
-      <c r="H71" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-70-12.9+-zinc</v>
-      </c>
       <c r="I71" s="1" t="s">
         <v>15</v>
       </c>
@@ -3856,14 +3296,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490080</v>
       </c>
-      <c r="G72" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-80-12.9</v>
-      </c>
-      <c r="H72" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-80-12.9+-zinc</v>
-      </c>
       <c r="I72" s="1" t="s">
         <v>15</v>
       </c>
@@ -3892,14 +3324,6 @@
         <f>"Z0318M4900" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M490090</v>
       </c>
-      <c r="G73" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-90-12.9</v>
-      </c>
-      <c r="H73" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-90-12.9+-zinc</v>
-      </c>
       <c r="I73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3927,14 +3351,6 @@
       <c r="F74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M6-100-12.9</v>
-      </c>
-      <c r="H74" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M6-100-12.9+-zinc</v>
-      </c>
       <c r="I74" s="1" t="s">
         <v>15</v>
       </c>
@@ -3959,14 +3375,6 @@
       <c r="E75" s="1">
         <v>1851253</v>
       </c>
-      <c r="G75" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-100-12.9</v>
-      </c>
-      <c r="H75" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-100-12.9+-zinc</v>
-      </c>
       <c r="I75" s="1" t="s">
         <v>15</v>
       </c>
@@ -3995,14 +3403,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540010</v>
       </c>
-      <c r="G76" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-10-12.9</v>
-      </c>
-      <c r="H76" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-10-12.9+-zinc</v>
-      </c>
       <c r="I76" s="1" t="s">
         <v>15</v>
       </c>
@@ -4031,14 +3431,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540012</v>
       </c>
-      <c r="G77" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-12-12.9</v>
-      </c>
-      <c r="H77" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-12-12.9+-zinc</v>
-      </c>
       <c r="I77" s="1" t="s">
         <v>15</v>
       </c>
@@ -4067,14 +3459,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540016</v>
       </c>
-      <c r="G78" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-16-12.9</v>
-      </c>
-      <c r="H78" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-16-12.9+-zinc</v>
-      </c>
       <c r="I78" s="1" t="s">
         <v>15</v>
       </c>
@@ -4103,14 +3487,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540020</v>
       </c>
-      <c r="G79" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-20-12.9</v>
-      </c>
-      <c r="H79" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-20-12.9+-zinc</v>
-      </c>
       <c r="I79" s="1" t="s">
         <v>15</v>
       </c>
@@ -4139,14 +3515,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540025</v>
       </c>
-      <c r="G80" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-25-12.9</v>
-      </c>
-      <c r="H80" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-25-12.9+-zinc</v>
-      </c>
       <c r="I80" s="1" t="s">
         <v>15</v>
       </c>
@@ -4175,14 +3543,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540030</v>
       </c>
-      <c r="G81" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-30-12.9</v>
-      </c>
-      <c r="H81" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-30-12.9+-zinc</v>
-      </c>
       <c r="I81" s="1" t="s">
         <v>15</v>
       </c>
@@ -4211,14 +3571,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540035</v>
       </c>
-      <c r="G82" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-35-12.9</v>
-      </c>
-      <c r="H82" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-35-12.9+-zinc</v>
-      </c>
       <c r="I82" s="1" t="s">
         <v>15</v>
       </c>
@@ -4247,14 +3599,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540040</v>
       </c>
-      <c r="G83" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-40-12.9</v>
-      </c>
-      <c r="H83" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-40-12.9+-zinc</v>
-      </c>
       <c r="I83" s="1" t="s">
         <v>15</v>
       </c>
@@ -4283,14 +3627,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540045</v>
       </c>
-      <c r="G84" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-45-12.9</v>
-      </c>
-      <c r="H84" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-45-12.9+-zinc</v>
-      </c>
       <c r="I84" s="1" t="s">
         <v>15</v>
       </c>
@@ -4319,14 +3655,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540050</v>
       </c>
-      <c r="G85" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-50-12.9</v>
-      </c>
-      <c r="H85" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-50-12.9+-zinc</v>
-      </c>
       <c r="I85" s="1" t="s">
         <v>15</v>
       </c>
@@ -4345,7 +3673,7 @@
         <v>45</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" ref="D86:D117" si="2">"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
+        <f t="shared" ref="D86:D98" si="2">"hardware_" &amp; B86 &amp; "_" &amp; C86 &amp; "_" &amp; A86 &amp; "_mm_length"</f>
         <v>hardware_set_screw_m8_55_mm_length</v>
       </c>
       <c r="E86" s="1">
@@ -4355,14 +3683,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540055</v>
       </c>
-      <c r="G86" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-55-12.9</v>
-      </c>
-      <c r="H86" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-55-12.9+-zinc</v>
-      </c>
       <c r="I86" s="1" t="s">
         <v>15</v>
       </c>
@@ -4391,14 +3711,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540060</v>
       </c>
-      <c r="G87" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-60-12.9</v>
-      </c>
-      <c r="H87" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-60-12.9+-zinc</v>
-      </c>
       <c r="I87" s="1" t="s">
         <v>15</v>
       </c>
@@ -4427,14 +3739,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540065</v>
       </c>
-      <c r="G88" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-65-12.9</v>
-      </c>
-      <c r="H88" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-65-12.9+-zinc</v>
-      </c>
       <c r="I88" s="1" t="s">
         <v>15</v>
       </c>
@@ -4463,14 +3767,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540070</v>
       </c>
-      <c r="G89" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-70-12.9</v>
-      </c>
-      <c r="H89" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-70-12.9+-zinc</v>
-      </c>
       <c r="I89" s="1" t="s">
         <v>15</v>
       </c>
@@ -4499,14 +3795,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540075</v>
       </c>
-      <c r="G90" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-75-12.9</v>
-      </c>
-      <c r="H90" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-75-12.9+-zinc</v>
-      </c>
       <c r="I90" s="1" t="s">
         <v>15</v>
       </c>
@@ -4535,14 +3823,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540080</v>
       </c>
-      <c r="G91" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-80-12.9</v>
-      </c>
-      <c r="H91" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-80-12.9+-zinc</v>
-      </c>
       <c r="I91" s="1" t="s">
         <v>15</v>
       </c>
@@ -4571,14 +3851,6 @@
         <f>"Z0318M5400" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540090</v>
       </c>
-      <c r="G92" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-90-12.9</v>
-      </c>
-      <c r="H92" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-90-12.9+-zinc</v>
-      </c>
       <c r="I92" s="1" t="s">
         <v>15</v>
       </c>
@@ -4607,14 +3879,6 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540100</v>
       </c>
-      <c r="G93" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-100-12.9</v>
-      </c>
-      <c r="H93" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-100-12.9+-zinc</v>
-      </c>
       <c r="I93" s="1" t="s">
         <v>15</v>
       </c>
@@ -4643,14 +3907,6 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540110</v>
       </c>
-      <c r="G94" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-110-12.9</v>
-      </c>
-      <c r="H94" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-110-12.9+-zinc</v>
-      </c>
       <c r="I94" s="1" t="s">
         <v>15</v>
       </c>
@@ -4679,14 +3935,6 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540120</v>
       </c>
-      <c r="G95" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-120-12.9</v>
-      </c>
-      <c r="H95" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-120-12.9+-zinc</v>
-      </c>
       <c r="I95" s="1" t="s">
         <v>15</v>
       </c>
@@ -4715,14 +3963,6 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540130</v>
       </c>
-      <c r="G96" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-130-12.9</v>
-      </c>
-      <c r="H96" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-130-12.9+-zinc</v>
-      </c>
       <c r="I96" s="1" t="s">
         <v>15</v>
       </c>
@@ -4751,14 +3991,6 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540140</v>
       </c>
-      <c r="G97" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-140-12.9</v>
-      </c>
-      <c r="H97" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-140-12.9+-zinc</v>
-      </c>
       <c r="I97" s="1" t="s">
         <v>15</v>
       </c>
@@ -4787,14 +4019,6 @@
         <f>"Z0318M540" &amp; Table1[[#This Row],[working_1_length]]</f>
         <v>Z0318M540150</v>
       </c>
-      <c r="G98" s="1" t="str">
-        <f>"SSCF-" &amp; UPPER(Table1[[#This Row],[working_3]]) &amp; "-" &amp; Table1[[#This Row],[working_1_length]] &amp; "-12.9"</f>
-        <v>SSCF-M8-150-12.9</v>
-      </c>
-      <c r="H98" s="1" t="str">
-        <f>IF(Table1[[#This Row],[part_number_distributor_accu]]&lt;&gt;"",Table1[[#This Row],[part_number_distributor_accu]] &amp; "+-zinc","")</f>
-        <v>SSCF-M8-150-12.9+-zinc</v>
-      </c>
       <c r="I98" s="1" t="s">
         <v>15</v>
       </c>
@@ -7049,7 +6273,7 @@
         <v>39</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f t="shared" ref="D163:D194" si="5">"hardware_" &amp; B163 &amp; "_" &amp; C163 &amp; "_black_" &amp; A163 &amp; "_mm_length_hex_head"</f>
+        <f t="shared" ref="D163:D167" si="5">"hardware_" &amp; B163 &amp; "_" &amp; C163 &amp; "_black_" &amp; A163 &amp; "_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m6_black_65_mm_length_hex_head</v>
       </c>
       <c r="E163" s="1">
